--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\中日本開発部（正社員）_FY24\20.　個人フォルダ\道菅\digitalOJT_メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F002CFB-53A9-BF47-B949-7B8BE0448BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78BD0ED-FF57-4E9F-8F03-2C8DA261330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14025" yWindow="-15255" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS_マスターデータ" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t>予定</t>
   </si>
@@ -229,6 +229,19 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>//期限は予定されているもの+2日までとする</t>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +251,7 @@
     <numFmt numFmtId="176" formatCode="mm"/>
     <numFmt numFmtId="177" formatCode="dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +279,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -332,8 +346,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +412,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -912,29 +939,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -942,44 +977,86 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1233,18 +1310,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="5" customWidth="1"/>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="119" width="3.5" customWidth="1"/>
+    <col min="10" max="119" width="3.44140625" customWidth="1"/>
     <col min="120" max="120" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1378,6 +1455,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="51" t="s">
+        <v>48</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1500,120 +1580,120 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="70">
+      <c r="J3" s="73">
         <v>2024</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="71"/>
-      <c r="CG3" s="71"/>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="72"/>
-      <c r="CK3" s="70">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="74"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="74"/>
+      <c r="BY3" s="74"/>
+      <c r="BZ3" s="74"/>
+      <c r="CA3" s="74"/>
+      <c r="CB3" s="74"/>
+      <c r="CC3" s="74"/>
+      <c r="CD3" s="74"/>
+      <c r="CE3" s="74"/>
+      <c r="CF3" s="74"/>
+      <c r="CG3" s="74"/>
+      <c r="CH3" s="74"/>
+      <c r="CI3" s="74"/>
+      <c r="CJ3" s="75"/>
+      <c r="CK3" s="73">
         <v>2025</v>
       </c>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
-      <c r="CU3" s="71"/>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="71"/>
-      <c r="DD3" s="71"/>
-      <c r="DE3" s="71"/>
-      <c r="DF3" s="71"/>
-      <c r="DG3" s="71"/>
-      <c r="DH3" s="71"/>
-      <c r="DI3" s="71"/>
-      <c r="DJ3" s="71"/>
-      <c r="DK3" s="71"/>
-      <c r="DL3" s="71"/>
-      <c r="DM3" s="71"/>
-      <c r="DN3" s="71"/>
-      <c r="DO3" s="72"/>
+      <c r="CL3" s="74"/>
+      <c r="CM3" s="74"/>
+      <c r="CN3" s="74"/>
+      <c r="CO3" s="74"/>
+      <c r="CP3" s="74"/>
+      <c r="CQ3" s="74"/>
+      <c r="CR3" s="74"/>
+      <c r="CS3" s="74"/>
+      <c r="CT3" s="74"/>
+      <c r="CU3" s="74"/>
+      <c r="CV3" s="74"/>
+      <c r="CW3" s="74"/>
+      <c r="CX3" s="74"/>
+      <c r="CY3" s="74"/>
+      <c r="CZ3" s="74"/>
+      <c r="DA3" s="74"/>
+      <c r="DB3" s="74"/>
+      <c r="DC3" s="74"/>
+      <c r="DD3" s="74"/>
+      <c r="DE3" s="74"/>
+      <c r="DF3" s="74"/>
+      <c r="DG3" s="74"/>
+      <c r="DH3" s="74"/>
+      <c r="DI3" s="74"/>
+      <c r="DJ3" s="74"/>
+      <c r="DK3" s="74"/>
+      <c r="DL3" s="74"/>
+      <c r="DM3" s="74"/>
+      <c r="DN3" s="74"/>
+      <c r="DO3" s="75"/>
       <c r="DP3" s="1"/>
     </row>
     <row r="4" spans="1:120" ht="18" customHeight="1">
@@ -1628,124 +1708,124 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="70">
+      <c r="J4" s="73">
         <v>10</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="70">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="73">
         <v>11</v>
       </c>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="70">
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="73">
         <v>12</v>
       </c>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="71"/>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="71"/>
-      <c r="BR4" s="71"/>
-      <c r="BS4" s="71"/>
-      <c r="BT4" s="71"/>
-      <c r="BU4" s="71"/>
-      <c r="BV4" s="71"/>
-      <c r="BW4" s="71"/>
-      <c r="BX4" s="71"/>
-      <c r="BY4" s="71"/>
-      <c r="BZ4" s="71"/>
-      <c r="CA4" s="71"/>
-      <c r="CB4" s="71"/>
-      <c r="CC4" s="71"/>
-      <c r="CD4" s="71"/>
-      <c r="CE4" s="71"/>
-      <c r="CF4" s="71"/>
-      <c r="CG4" s="71"/>
-      <c r="CH4" s="71"/>
-      <c r="CI4" s="71"/>
-      <c r="CJ4" s="72"/>
-      <c r="CK4" s="70">
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="74"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="74"/>
+      <c r="BN4" s="74"/>
+      <c r="BO4" s="74"/>
+      <c r="BP4" s="74"/>
+      <c r="BQ4" s="74"/>
+      <c r="BR4" s="74"/>
+      <c r="BS4" s="74"/>
+      <c r="BT4" s="74"/>
+      <c r="BU4" s="74"/>
+      <c r="BV4" s="74"/>
+      <c r="BW4" s="74"/>
+      <c r="BX4" s="74"/>
+      <c r="BY4" s="74"/>
+      <c r="BZ4" s="74"/>
+      <c r="CA4" s="74"/>
+      <c r="CB4" s="74"/>
+      <c r="CC4" s="74"/>
+      <c r="CD4" s="74"/>
+      <c r="CE4" s="74"/>
+      <c r="CF4" s="74"/>
+      <c r="CG4" s="74"/>
+      <c r="CH4" s="74"/>
+      <c r="CI4" s="74"/>
+      <c r="CJ4" s="75"/>
+      <c r="CK4" s="73">
         <v>1</v>
       </c>
-      <c r="CL4" s="71"/>
-      <c r="CM4" s="71"/>
-      <c r="CN4" s="71"/>
-      <c r="CO4" s="71"/>
-      <c r="CP4" s="71"/>
-      <c r="CQ4" s="71"/>
-      <c r="CR4" s="71"/>
-      <c r="CS4" s="71"/>
-      <c r="CT4" s="71"/>
-      <c r="CU4" s="71"/>
-      <c r="CV4" s="71"/>
-      <c r="CW4" s="71"/>
-      <c r="CX4" s="71"/>
-      <c r="CY4" s="71"/>
-      <c r="CZ4" s="71"/>
-      <c r="DA4" s="71"/>
-      <c r="DB4" s="71"/>
-      <c r="DC4" s="71"/>
-      <c r="DD4" s="71"/>
-      <c r="DE4" s="71"/>
-      <c r="DF4" s="71"/>
-      <c r="DG4" s="71"/>
-      <c r="DH4" s="71"/>
-      <c r="DI4" s="71"/>
-      <c r="DJ4" s="71"/>
-      <c r="DK4" s="71"/>
-      <c r="DL4" s="71"/>
-      <c r="DM4" s="71"/>
-      <c r="DN4" s="71"/>
-      <c r="DO4" s="72"/>
+      <c r="CL4" s="74"/>
+      <c r="CM4" s="74"/>
+      <c r="CN4" s="74"/>
+      <c r="CO4" s="74"/>
+      <c r="CP4" s="74"/>
+      <c r="CQ4" s="74"/>
+      <c r="CR4" s="74"/>
+      <c r="CS4" s="74"/>
+      <c r="CT4" s="74"/>
+      <c r="CU4" s="74"/>
+      <c r="CV4" s="74"/>
+      <c r="CW4" s="74"/>
+      <c r="CX4" s="74"/>
+      <c r="CY4" s="74"/>
+      <c r="CZ4" s="74"/>
+      <c r="DA4" s="74"/>
+      <c r="DB4" s="74"/>
+      <c r="DC4" s="74"/>
+      <c r="DD4" s="74"/>
+      <c r="DE4" s="74"/>
+      <c r="DF4" s="74"/>
+      <c r="DG4" s="74"/>
+      <c r="DH4" s="74"/>
+      <c r="DI4" s="74"/>
+      <c r="DJ4" s="74"/>
+      <c r="DK4" s="74"/>
+      <c r="DL4" s="74"/>
+      <c r="DM4" s="74"/>
+      <c r="DN4" s="74"/>
+      <c r="DO4" s="75"/>
       <c r="DP4" s="6"/>
     </row>
     <row r="5" spans="1:120" ht="18" customHeight="1">
@@ -2540,21 +2620,21 @@
     </row>
     <row r="7" spans="1:120" ht="9.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="80" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="77"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -2668,15 +2748,15 @@
     </row>
     <row r="8" spans="1:120" ht="9.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="78"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -2791,16 +2871,16 @@
     <row r="9" spans="1:120" ht="9.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="66"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="79"/>
       <c r="I9" s="79"/>
-      <c r="J9" s="75"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="26"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -2915,14 +2995,14 @@
     <row r="10" spans="1:120" ht="9.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="79"/>
       <c r="I10" s="79"/>
-      <c r="J10" s="76"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
@@ -3037,16 +3117,16 @@
     <row r="11" spans="1:120" ht="9.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="79"/>
       <c r="I11" s="79"/>
-      <c r="J11" s="77"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -3161,14 +3241,14 @@
     <row r="12" spans="1:120" ht="9.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="79"/>
       <c r="I12" s="79"/>
-      <c r="J12" s="78"/>
+      <c r="J12" s="48"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -3284,15 +3364,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="21"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="74"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="79"/>
       <c r="I13" s="79"/>
-      <c r="J13" s="78"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="26"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -3408,15 +3488,14 @@
       <c r="A14" s="1"/>
       <c r="B14" s="21"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="48"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
@@ -3530,12 +3609,12 @@
       <c r="A15" s="1"/>
       <c r="B15" s="21"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
       <c r="J15" s="14"/>
@@ -3654,15 +3733,14 @@
       <c r="A16" s="1"/>
       <c r="B16" s="21"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
@@ -3776,12 +3854,12 @@
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
       <c r="J17" s="14"/>
@@ -3900,15 +3978,14 @@
       <c r="A18" s="1"/>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -4022,12 +4099,12 @@
       <c r="A19" s="1"/>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
       <c r="J19" s="14"/>
@@ -4146,15 +4223,14 @@
       <c r="A20" s="1"/>
       <c r="B20" s="21"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
@@ -4267,13 +4343,13 @@
     <row r="21" spans="1:120" ht="9.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
       <c r="J21" s="31"/>
@@ -4391,11 +4467,11 @@
     <row r="22" spans="1:120" ht="9.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
       <c r="J22" s="14"/>
@@ -4514,12 +4590,12 @@
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
       <c r="J23" s="14"/>
@@ -4638,16 +4714,16 @@
       <c r="A24" s="1"/>
       <c r="B24" s="21"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="79"/>
       <c r="I24" s="79"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="M24" s="50"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
@@ -4759,13 +4835,13 @@
     <row r="25" spans="1:120" ht="9.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
       <c r="J25" s="31"/>
@@ -4883,11 +4959,11 @@
     <row r="26" spans="1:120" ht="9.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="79"/>
       <c r="I26" s="79"/>
       <c r="J26" s="14"/>
@@ -5006,12 +5082,12 @@
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="79"/>
       <c r="I27" s="79"/>
       <c r="J27" s="14"/>
@@ -5130,16 +5206,16 @@
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="79"/>
       <c r="I28" s="79"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="M28" s="50"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
@@ -5252,12 +5328,12 @@
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="79"/>
       <c r="I29" s="79"/>
       <c r="J29" s="14"/>
@@ -5376,16 +5452,16 @@
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="36"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="79"/>
       <c r="I30" s="79"/>
       <c r="J30" s="29"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="M30" s="50"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
@@ -5497,13 +5573,13 @@
     <row r="31" spans="1:120" ht="9.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="79"/>
       <c r="I31" s="79"/>
       <c r="J31" s="31"/>
@@ -5621,11 +5697,11 @@
     <row r="32" spans="1:120" ht="9.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
       <c r="J32" s="14"/>
@@ -5744,12 +5820,12 @@
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
       <c r="J33" s="14"/>
@@ -5868,10 +5944,10 @@
       <c r="A34" s="1"/>
       <c r="B34" s="21"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="79"/>
       <c r="I34" s="79"/>
       <c r="J34" s="14"/>
@@ -5991,11 +6067,11 @@
       <c r="B35" s="21"/>
       <c r="C35" s="1"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="79"/>
       <c r="I35" s="79"/>
       <c r="J35" s="14"/>
@@ -6115,16 +6191,16 @@
       <c r="B36" s="21"/>
       <c r="C36" s="1"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="79"/>
       <c r="I36" s="79"/>
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
@@ -6237,11 +6313,11 @@
       <c r="B37" s="21"/>
       <c r="C37" s="1"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
       <c r="J37" s="14"/>
@@ -6361,9 +6437,9 @@
       <c r="B38" s="21"/>
       <c r="C38" s="1"/>
       <c r="D38" s="41"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
       <c r="J38" s="29"/>
@@ -6482,12 +6558,12 @@
       <c r="A39" s="1"/>
       <c r="B39" s="21"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
       <c r="H39" s="79"/>
       <c r="I39" s="79"/>
       <c r="J39" s="31"/>
@@ -6606,10 +6682,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="21"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="79"/>
       <c r="I40" s="79"/>
       <c r="J40" s="14"/>
@@ -6729,11 +6805,11 @@
       <c r="B41" s="21"/>
       <c r="C41" s="1"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="79"/>
       <c r="I41" s="79"/>
       <c r="J41" s="14"/>
@@ -6853,16 +6929,16 @@
       <c r="B42" s="21"/>
       <c r="C42" s="1"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="54"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
+      <c r="N42" s="50"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
@@ -6975,11 +7051,11 @@
       <c r="B43" s="21"/>
       <c r="C43" s="1"/>
       <c r="D43" s="40"/>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="79"/>
       <c r="I43" s="79"/>
       <c r="J43" s="14"/>
@@ -7099,9 +7175,9 @@
       <c r="B44" s="21"/>
       <c r="C44" s="1"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
       <c r="H44" s="79"/>
       <c r="I44" s="79"/>
       <c r="J44" s="14"/>
@@ -7221,11 +7297,11 @@
       <c r="B45" s="21"/>
       <c r="C45" s="1"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="52"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
       <c r="J45" s="14"/>
@@ -7345,9 +7421,9 @@
       <c r="B46" s="21"/>
       <c r="C46" s="1"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="79"/>
       <c r="I46" s="79"/>
       <c r="J46" s="14"/>
@@ -7467,11 +7543,11 @@
       <c r="B47" s="21"/>
       <c r="C47" s="1"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="52"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="79"/>
       <c r="I47" s="79"/>
       <c r="J47" s="14"/>
@@ -7591,9 +7667,9 @@
       <c r="B48" s="21"/>
       <c r="C48" s="1"/>
       <c r="D48" s="40"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57"/>
       <c r="H48" s="79"/>
       <c r="I48" s="79"/>
       <c r="J48" s="14"/>
@@ -7713,11 +7789,11 @@
       <c r="B49" s="21"/>
       <c r="C49" s="1"/>
       <c r="D49" s="40"/>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="52"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="79"/>
       <c r="I49" s="79"/>
       <c r="J49" s="14"/>
@@ -7837,9 +7913,9 @@
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
       <c r="D50" s="40"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="57"/>
       <c r="H50" s="79"/>
       <c r="I50" s="79"/>
       <c r="J50" s="14"/>
@@ -7959,11 +8035,11 @@
       <c r="B51" s="21"/>
       <c r="C51" s="1"/>
       <c r="D51" s="40"/>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="52"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="79"/>
       <c r="I51" s="79"/>
       <c r="J51" s="14"/>
@@ -8083,9 +8159,9 @@
       <c r="B52" s="21"/>
       <c r="C52" s="1"/>
       <c r="D52" s="40"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="54"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="79"/>
       <c r="I52" s="79"/>
       <c r="J52" s="29"/>
@@ -8204,12 +8280,12 @@
       <c r="A53" s="1"/>
       <c r="B53" s="21"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="56" t="s">
+      <c r="D53" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="47"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="79"/>
       <c r="I53" s="79"/>
       <c r="J53" s="31"/>
@@ -8328,10 +8404,10 @@
       <c r="A54" s="1"/>
       <c r="B54" s="21"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="79"/>
       <c r="I54" s="79"/>
       <c r="J54" s="14"/>
@@ -8451,11 +8527,11 @@
       <c r="B55" s="21"/>
       <c r="C55" s="1"/>
       <c r="D55" s="40"/>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="52"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="79"/>
       <c r="I55" s="79"/>
       <c r="J55" s="14"/>
@@ -8575,9 +8651,9 @@
       <c r="B56" s="21"/>
       <c r="C56" s="1"/>
       <c r="D56" s="40"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="14"/>
@@ -8697,11 +8773,11 @@
       <c r="B57" s="21"/>
       <c r="C57" s="1"/>
       <c r="D57" s="40"/>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="52"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="79"/>
       <c r="I57" s="79"/>
       <c r="J57" s="14"/>
@@ -8821,9 +8897,9 @@
       <c r="B58" s="21"/>
       <c r="C58" s="1"/>
       <c r="D58" s="40"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="54"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="79"/>
       <c r="I58" s="79"/>
       <c r="J58" s="14"/>
@@ -8943,11 +9019,11 @@
       <c r="B59" s="21"/>
       <c r="C59" s="1"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="46"/>
-      <c r="G59" s="52"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="79"/>
       <c r="I59" s="79"/>
       <c r="J59" s="14"/>
@@ -9067,9 +9143,9 @@
       <c r="B60" s="21"/>
       <c r="C60" s="1"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="54"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="79"/>
       <c r="I60" s="79"/>
       <c r="J60" s="14"/>
@@ -9189,11 +9265,11 @@
       <c r="B61" s="21"/>
       <c r="C61" s="1"/>
       <c r="D61" s="40"/>
-      <c r="E61" s="51" t="s">
+      <c r="E61" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="52"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="79"/>
       <c r="I61" s="79"/>
       <c r="J61" s="14"/>
@@ -9313,9 +9389,9 @@
       <c r="B62" s="21"/>
       <c r="C62" s="1"/>
       <c r="D62" s="40"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="54"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="79"/>
       <c r="I62" s="79"/>
       <c r="J62" s="14"/>
@@ -9435,11 +9511,11 @@
       <c r="B63" s="21"/>
       <c r="C63" s="1"/>
       <c r="D63" s="40"/>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="46"/>
-      <c r="G63" s="52"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="79"/>
       <c r="I63" s="79"/>
       <c r="J63" s="14"/>
@@ -9559,9 +9635,9 @@
       <c r="B64" s="21"/>
       <c r="C64" s="1"/>
       <c r="D64" s="40"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="54"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="79"/>
       <c r="I64" s="79"/>
       <c r="J64" s="29"/>
@@ -9680,12 +9756,12 @@
       <c r="A65" s="1"/>
       <c r="B65" s="21"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="47"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="79"/>
       <c r="I65" s="79"/>
       <c r="J65" s="31"/>
@@ -9804,10 +9880,10 @@
       <c r="A66" s="1"/>
       <c r="B66" s="21"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="79"/>
       <c r="I66" s="79"/>
       <c r="J66" s="14"/>
@@ -9927,11 +10003,11 @@
       <c r="B67" s="21"/>
       <c r="C67" s="1"/>
       <c r="D67" s="40"/>
-      <c r="E67" s="51" t="s">
+      <c r="E67" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="46"/>
-      <c r="G67" s="52"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="79"/>
       <c r="I67" s="79"/>
       <c r="J67" s="14"/>
@@ -10051,9 +10127,9 @@
       <c r="B68" s="21"/>
       <c r="C68" s="1"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="54"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="57"/>
       <c r="H68" s="79"/>
       <c r="I68" s="79"/>
       <c r="J68" s="14"/>
@@ -10173,11 +10249,11 @@
       <c r="B69" s="21"/>
       <c r="C69" s="1"/>
       <c r="D69" s="40"/>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="46"/>
-      <c r="G69" s="52"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="54"/>
       <c r="H69" s="79"/>
       <c r="I69" s="79"/>
       <c r="J69" s="14"/>
@@ -10297,9 +10373,9 @@
       <c r="B70" s="21"/>
       <c r="C70" s="1"/>
       <c r="D70" s="40"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="54"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="79"/>
       <c r="I70" s="79"/>
       <c r="J70" s="14"/>
@@ -10419,11 +10495,11 @@
       <c r="B71" s="21"/>
       <c r="C71" s="1"/>
       <c r="D71" s="40"/>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="46"/>
-      <c r="G71" s="52"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="54"/>
       <c r="H71" s="79"/>
       <c r="I71" s="79"/>
       <c r="J71" s="14"/>
@@ -10543,9 +10619,9 @@
       <c r="B72" s="21"/>
       <c r="C72" s="1"/>
       <c r="D72" s="40"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="54"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="79"/>
       <c r="I72" s="79"/>
       <c r="J72" s="14"/>
@@ -10665,11 +10741,11 @@
       <c r="B73" s="21"/>
       <c r="C73" s="1"/>
       <c r="D73" s="40"/>
-      <c r="E73" s="51" t="s">
+      <c r="E73" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="46"/>
-      <c r="G73" s="52"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="79"/>
       <c r="I73" s="79"/>
       <c r="J73" s="14"/>
@@ -10789,9 +10865,9 @@
       <c r="B74" s="21"/>
       <c r="C74" s="1"/>
       <c r="D74" s="41"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="54"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="79"/>
       <c r="I74" s="79"/>
       <c r="J74" s="29"/>
@@ -10909,13 +10985,13 @@
     <row r="75" spans="1:120" ht="9.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="42"/>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="47"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="79"/>
       <c r="I75" s="79"/>
       <c r="J75" s="22"/>
@@ -11033,11 +11109,11 @@
     <row r="76" spans="1:120" ht="9.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="42"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="79"/>
       <c r="I76" s="79"/>
       <c r="J76" s="22"/>
@@ -11155,13 +11231,13 @@
     <row r="77" spans="1:120" ht="9.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="42"/>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="47"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="59"/>
       <c r="H77" s="79"/>
       <c r="I77" s="79"/>
       <c r="J77" s="22"/>
@@ -11279,11 +11355,11 @@
     <row r="78" spans="1:120" ht="9.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="42"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="79"/>
       <c r="I78" s="79"/>
       <c r="J78" s="22"/>
@@ -11401,13 +11477,13 @@
     <row r="79" spans="1:120" ht="9.75" hidden="1" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="21"/>
-      <c r="C79" s="45" t="s">
+      <c r="C79" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="47"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="59"/>
       <c r="H79" s="79"/>
       <c r="I79" s="79"/>
       <c r="J79" s="14"/>
@@ -11525,11 +11601,11 @@
     <row r="80" spans="1:120" ht="9.75" hidden="1" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="50"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="61"/>
       <c r="H80" s="79"/>
       <c r="I80" s="79"/>
       <c r="J80" s="14"/>
@@ -11648,12 +11724,12 @@
       <c r="A81" s="1"/>
       <c r="B81" s="21"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="52"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="79"/>
       <c r="I81" s="79"/>
       <c r="J81" s="14"/>
@@ -11772,10 +11848,10 @@
       <c r="A82" s="1"/>
       <c r="B82" s="21"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="14"/>
@@ -11894,12 +11970,12 @@
       <c r="A83" s="1"/>
       <c r="B83" s="21"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="52"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="79"/>
       <c r="I83" s="79"/>
       <c r="J83" s="14"/>
@@ -12018,10 +12094,10 @@
       <c r="A84" s="1"/>
       <c r="B84" s="21"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="54"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="79"/>
       <c r="I84" s="79"/>
       <c r="J84" s="14"/>
@@ -12140,12 +12216,12 @@
       <c r="A85" s="1"/>
       <c r="B85" s="21"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="52"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="54"/>
       <c r="H85" s="79"/>
       <c r="I85" s="79"/>
       <c r="J85" s="14"/>
@@ -12264,10 +12340,10 @@
       <c r="A86" s="1"/>
       <c r="B86" s="21"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="54"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="57"/>
       <c r="H86" s="79"/>
       <c r="I86" s="79"/>
       <c r="J86" s="29"/>
@@ -12385,13 +12461,13 @@
     <row r="87" spans="1:120" ht="9.75" hidden="1" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="21"/>
-      <c r="C87" s="45" t="s">
+      <c r="C87" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="47"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="59"/>
       <c r="H87" s="79"/>
       <c r="I87" s="79"/>
       <c r="J87" s="14"/>
@@ -12509,11 +12585,11 @@
     <row r="88" spans="1:120" ht="9.75" hidden="1" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="50"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="61"/>
       <c r="H88" s="79"/>
       <c r="I88" s="79"/>
       <c r="J88" s="14"/>
@@ -12632,12 +12708,12 @@
       <c r="A89" s="1"/>
       <c r="B89" s="21"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="52"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="79"/>
       <c r="I89" s="79"/>
       <c r="J89" s="14"/>
@@ -12756,10 +12832,10 @@
       <c r="A90" s="1"/>
       <c r="B90" s="21"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="54"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="79"/>
       <c r="I90" s="79"/>
       <c r="J90" s="14"/>
@@ -12878,12 +12954,12 @@
       <c r="A91" s="1"/>
       <c r="B91" s="21"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="51" t="s">
+      <c r="D91" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="52"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="79"/>
       <c r="I91" s="79"/>
       <c r="J91" s="14"/>
@@ -13002,10 +13078,10 @@
       <c r="A92" s="1"/>
       <c r="B92" s="21"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="54"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="79"/>
       <c r="I92" s="79"/>
       <c r="J92" s="14"/>
@@ -13124,12 +13200,12 @@
       <c r="A93" s="1"/>
       <c r="B93" s="21"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="52"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="54"/>
       <c r="H93" s="79"/>
       <c r="I93" s="79"/>
       <c r="J93" s="14"/>
@@ -13248,10 +13324,10 @@
       <c r="A94" s="1"/>
       <c r="B94" s="21"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="54"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="79"/>
       <c r="I94" s="79"/>
       <c r="J94" s="29"/>
@@ -13369,13 +13445,13 @@
     <row r="95" spans="1:120" ht="9.75" hidden="1" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="21"/>
-      <c r="C95" s="45" t="s">
+      <c r="C95" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="47"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="59"/>
       <c r="H95" s="79"/>
       <c r="I95" s="79"/>
       <c r="J95" s="14"/>
@@ -13493,11 +13569,11 @@
     <row r="96" spans="1:120" ht="9.75" hidden="1" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="21"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="50"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="61"/>
       <c r="H96" s="79"/>
       <c r="I96" s="79"/>
       <c r="J96" s="14"/>
@@ -13616,12 +13692,12 @@
       <c r="A97" s="1"/>
       <c r="B97" s="21"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="52"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="79"/>
       <c r="I97" s="79"/>
       <c r="J97" s="14"/>
@@ -13740,10 +13816,10 @@
       <c r="A98" s="1"/>
       <c r="B98" s="21"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="54"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="79"/>
       <c r="I98" s="79"/>
       <c r="J98" s="14"/>
@@ -13862,12 +13938,12 @@
       <c r="A99" s="1"/>
       <c r="B99" s="21"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="52"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="54"/>
       <c r="H99" s="79"/>
       <c r="I99" s="79"/>
       <c r="J99" s="14"/>
@@ -13986,10 +14062,10 @@
       <c r="A100" s="1"/>
       <c r="B100" s="21"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="54"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="79"/>
       <c r="I100" s="79"/>
       <c r="J100" s="14"/>
@@ -14108,12 +14184,12 @@
       <c r="A101" s="1"/>
       <c r="B101" s="21"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="52"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="54"/>
       <c r="H101" s="79"/>
       <c r="I101" s="79"/>
       <c r="J101" s="14"/>
@@ -14232,10 +14308,10 @@
       <c r="A102" s="1"/>
       <c r="B102" s="21"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="54"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="79"/>
       <c r="I102" s="79"/>
       <c r="J102" s="29"/>
@@ -14353,13 +14429,13 @@
     <row r="103" spans="1:120" ht="9.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="45" t="s">
+      <c r="C103" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D103" s="46"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="47"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="59"/>
       <c r="H103" s="79"/>
       <c r="I103" s="79"/>
       <c r="J103" s="14"/>
@@ -14477,11 +14553,11 @@
     <row r="104" spans="1:120" ht="9.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="50"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="61"/>
       <c r="H104" s="79"/>
       <c r="I104" s="79"/>
       <c r="J104" s="14"/>
@@ -14598,14 +14674,14 @@
     </row>
     <row r="105" spans="1:120" ht="9.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="46"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="52"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="79"/>
       <c r="I105" s="79"/>
       <c r="J105" s="12"/>
@@ -14722,12 +14798,12 @@
     </row>
     <row r="106" spans="1:120" ht="9.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="54"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="57"/>
       <c r="H106" s="79"/>
       <c r="I106" s="79"/>
       <c r="J106" s="14"/>
@@ -14845,13 +14921,13 @@
     <row r="107" spans="1:120" ht="9.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="21"/>
-      <c r="C107" s="63" t="s">
+      <c r="C107" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="59"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="66"/>
       <c r="H107" s="79"/>
       <c r="I107" s="79"/>
       <c r="J107" s="31"/>
@@ -14969,11 +15045,11 @@
     <row r="108" spans="1:120" ht="9.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="21"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="66"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="69"/>
       <c r="H108" s="79"/>
       <c r="I108" s="79"/>
       <c r="J108" s="14"/>
@@ -15092,12 +15168,12 @@
       <c r="A109" s="1"/>
       <c r="B109" s="21"/>
       <c r="C109" s="27"/>
-      <c r="D109" s="60" t="s">
+      <c r="D109" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
       <c r="H109" s="79"/>
       <c r="I109" s="79"/>
       <c r="J109" s="14"/>
@@ -15216,10 +15292,10 @@
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="36"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="56"/>
       <c r="H110" s="79"/>
       <c r="I110" s="79"/>
       <c r="J110" s="29"/>
@@ -15337,13 +15413,13 @@
     <row r="111" spans="1:120" ht="9.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="21"/>
-      <c r="C111" s="63" t="s">
+      <c r="C111" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="59"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="66"/>
       <c r="H111" s="79"/>
       <c r="I111" s="79"/>
       <c r="J111" s="31"/>
@@ -15461,11 +15537,11 @@
     <row r="112" spans="1:120" ht="9.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="21"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="66"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="69"/>
       <c r="H112" s="79"/>
       <c r="I112" s="79"/>
       <c r="J112" s="14"/>
@@ -15584,12 +15660,12 @@
       <c r="A113" s="1"/>
       <c r="B113" s="21"/>
       <c r="C113" s="37"/>
-      <c r="D113" s="60" t="s">
+      <c r="D113" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
       <c r="H113" s="79"/>
       <c r="I113" s="79"/>
       <c r="J113" s="14"/>
@@ -15708,10 +15784,10 @@
       <c r="A114" s="1"/>
       <c r="B114" s="21"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
       <c r="H114" s="79"/>
       <c r="I114" s="79"/>
       <c r="J114" s="14"/>
@@ -15830,12 +15906,12 @@
       <c r="A115" s="1"/>
       <c r="B115" s="21"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="60" t="s">
+      <c r="D115" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="E115" s="46"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="53"/>
       <c r="H115" s="79"/>
       <c r="I115" s="79"/>
       <c r="J115" s="14"/>
@@ -15954,10 +16030,10 @@
       <c r="A116" s="1"/>
       <c r="B116" s="21"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
       <c r="H116" s="79"/>
       <c r="I116" s="79"/>
       <c r="J116" s="14"/>
@@ -16076,12 +16152,12 @@
       <c r="A117" s="1"/>
       <c r="B117" s="21"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="60" t="s">
+      <c r="D117" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
       <c r="H117" s="79"/>
       <c r="I117" s="79"/>
       <c r="J117" s="14"/>
@@ -16200,10 +16276,10 @@
       <c r="A118" s="1"/>
       <c r="B118" s="21"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="49"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
       <c r="H118" s="79"/>
       <c r="I118" s="79"/>
       <c r="J118" s="29"/>
@@ -16321,13 +16397,13 @@
     <row r="119" spans="1:120" ht="9.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="21"/>
-      <c r="C119" s="45" t="s">
+      <c r="C119" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="46"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="47"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="59"/>
       <c r="H119" s="79"/>
       <c r="I119" s="79"/>
       <c r="J119" s="14"/>
@@ -16445,11 +16521,11 @@
     <row r="120" spans="1:120" ht="9.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="21"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="49"/>
-      <c r="G120" s="50"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="61"/>
       <c r="H120" s="79"/>
       <c r="I120" s="79"/>
       <c r="J120" s="14"/>
@@ -16568,12 +16644,12 @@
       <c r="A121" s="1"/>
       <c r="B121" s="21"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="52"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="54"/>
       <c r="H121" s="79"/>
       <c r="I121" s="79"/>
       <c r="J121" s="14"/>
@@ -16692,10 +16768,10 @@
       <c r="A122" s="1"/>
       <c r="B122" s="21"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="54"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="56"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="57"/>
       <c r="H122" s="79"/>
       <c r="I122" s="79"/>
       <c r="J122" s="14"/>
@@ -16814,12 +16890,12 @@
       <c r="A123" s="1"/>
       <c r="B123" s="21"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="52"/>
+      <c r="E123" s="53"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="54"/>
       <c r="H123" s="79"/>
       <c r="I123" s="79"/>
       <c r="J123" s="14"/>
@@ -16938,10 +17014,10 @@
       <c r="A124" s="1"/>
       <c r="B124" s="21"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="54"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="57"/>
       <c r="H124" s="79"/>
       <c r="I124" s="79"/>
       <c r="J124" s="29"/>
@@ -17059,13 +17135,13 @@
     <row r="125" spans="1:120" ht="9.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="21"/>
-      <c r="C125" s="45" t="s">
+      <c r="C125" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="47"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="59"/>
       <c r="H125" s="79"/>
       <c r="I125" s="79"/>
       <c r="J125" s="14"/>
@@ -17183,11 +17259,11 @@
     <row r="126" spans="1:120" ht="9.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="21"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="50"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="61"/>
       <c r="H126" s="79"/>
       <c r="I126" s="79"/>
       <c r="J126" s="14"/>
@@ -17306,12 +17382,12 @@
       <c r="A127" s="1"/>
       <c r="B127" s="21"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="51" t="s">
+      <c r="D127" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E127" s="46"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="52"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="54"/>
       <c r="H127" s="79"/>
       <c r="I127" s="79"/>
       <c r="J127" s="14"/>
@@ -17430,10 +17506,10 @@
       <c r="A128" s="1"/>
       <c r="B128" s="21"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="49"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="54"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="57"/>
       <c r="H128" s="79"/>
       <c r="I128" s="79"/>
       <c r="J128" s="14"/>
@@ -17552,12 +17628,12 @@
       <c r="A129" s="1"/>
       <c r="B129" s="21"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="52"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="54"/>
       <c r="H129" s="79"/>
       <c r="I129" s="79"/>
       <c r="J129" s="14"/>
@@ -17676,10 +17752,10 @@
       <c r="A130" s="1"/>
       <c r="B130" s="21"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="53"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="49"/>
-      <c r="G130" s="54"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="57"/>
       <c r="H130" s="79"/>
       <c r="I130" s="79"/>
       <c r="J130" s="29"/>
@@ -17797,13 +17873,13 @@
     <row r="131" spans="1:120" ht="9.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="21"/>
-      <c r="C131" s="45" t="s">
+      <c r="C131" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D131" s="46"/>
-      <c r="E131" s="46"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="47"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="59"/>
       <c r="H131" s="79"/>
       <c r="I131" s="79"/>
       <c r="J131" s="14"/>
@@ -17921,11 +17997,11 @@
     <row r="132" spans="1:120" ht="9.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="21"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="49"/>
-      <c r="G132" s="50"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="61"/>
       <c r="H132" s="79"/>
       <c r="I132" s="79"/>
       <c r="J132" s="14"/>
@@ -18044,12 +18120,12 @@
       <c r="A133" s="1"/>
       <c r="B133" s="21"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="51" t="s">
+      <c r="D133" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="52"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="54"/>
       <c r="H133" s="79"/>
       <c r="I133" s="79"/>
       <c r="J133" s="14"/>
@@ -18168,10 +18244,10 @@
       <c r="A134" s="1"/>
       <c r="B134" s="21"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="54"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="57"/>
       <c r="H134" s="79"/>
       <c r="I134" s="79"/>
       <c r="J134" s="14"/>
@@ -18290,12 +18366,12 @@
       <c r="A135" s="1"/>
       <c r="B135" s="21"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="51" t="s">
+      <c r="D135" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E135" s="46"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="52"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="54"/>
       <c r="H135" s="79"/>
       <c r="I135" s="79"/>
       <c r="J135" s="14"/>
@@ -18414,10 +18490,10 @@
       <c r="A136" s="1"/>
       <c r="B136" s="21"/>
       <c r="C136" s="44"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="54"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="57"/>
       <c r="H136" s="79"/>
       <c r="I136" s="79"/>
       <c r="J136" s="29"/>
@@ -18535,13 +18611,13 @@
     <row r="137" spans="1:120" ht="9.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="B137" s="21"/>
-      <c r="C137" s="55" t="s">
+      <c r="C137" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D137" s="46"/>
-      <c r="E137" s="46"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="47"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="59"/>
       <c r="H137" s="79"/>
       <c r="I137" s="79"/>
       <c r="J137" s="22"/>
@@ -18659,11 +18735,11 @@
     <row r="138" spans="1:120" ht="9.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="43"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="50"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="56"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="61"/>
       <c r="H138" s="79"/>
       <c r="I138" s="79"/>
       <c r="J138" s="22"/>
@@ -18786,8 +18862,8 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="81"/>
-      <c r="I139" s="81"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="49"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -18908,8 +18984,8 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="81"/>
-      <c r="I140" s="81"/>
+      <c r="H140" s="49"/>
+      <c r="I140" s="49"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
@@ -19030,8 +19106,8 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="81"/>
-      <c r="I141" s="81"/>
+      <c r="H141" s="49"/>
+      <c r="I141" s="49"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -19152,8 +19228,8 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="81"/>
-      <c r="I142" s="81"/>
+      <c r="H142" s="49"/>
+      <c r="I142" s="49"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
@@ -19274,8 +19350,8 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="81"/>
-      <c r="I143" s="81"/>
+      <c r="H143" s="49"/>
+      <c r="I143" s="49"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -19396,8 +19472,8 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="81"/>
-      <c r="I144" s="81"/>
+      <c r="H144" s="49"/>
+      <c r="I144" s="49"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -19518,8 +19594,8 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
+      <c r="H145" s="49"/>
+      <c r="I145" s="49"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -19640,8 +19716,8 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="81"/>
-      <c r="I146" s="81"/>
+      <c r="H146" s="49"/>
+      <c r="I146" s="49"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -19762,8 +19838,8 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="81"/>
-      <c r="I147" s="81"/>
+      <c r="H147" s="49"/>
+      <c r="I147" s="49"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
@@ -19884,8 +19960,8 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="81"/>
-      <c r="I148" s="81"/>
+      <c r="H148" s="49"/>
+      <c r="I148" s="49"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
@@ -20006,8 +20082,8 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="81"/>
-      <c r="I149" s="81"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
@@ -20128,8 +20204,8 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="81"/>
-      <c r="I150" s="81"/>
+      <c r="H150" s="49"/>
+      <c r="I150" s="49"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
@@ -20250,8 +20326,8 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="81"/>
-      <c r="I151" s="81"/>
+      <c r="H151" s="49"/>
+      <c r="I151" s="49"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
@@ -20372,8 +20448,8 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="81"/>
-      <c r="I152" s="81"/>
+      <c r="H152" s="49"/>
+      <c r="I152" s="49"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
@@ -20494,8 +20570,8 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="81"/>
-      <c r="I153" s="81"/>
+      <c r="H153" s="49"/>
+      <c r="I153" s="49"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -20616,8 +20692,8 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="81"/>
-      <c r="I154" s="81"/>
+      <c r="H154" s="49"/>
+      <c r="I154" s="49"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -20738,8 +20814,8 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="81"/>
-      <c r="I155" s="81"/>
+      <c r="H155" s="49"/>
+      <c r="I155" s="49"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -20860,8 +20936,8 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="81"/>
-      <c r="I156" s="81"/>
+      <c r="H156" s="49"/>
+      <c r="I156" s="49"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -20982,8 +21058,8 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="81"/>
-      <c r="I157" s="81"/>
+      <c r="H157" s="49"/>
+      <c r="I157" s="49"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -21104,8 +21180,8 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="81"/>
-      <c r="I158" s="81"/>
+      <c r="H158" s="49"/>
+      <c r="I158" s="49"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -21226,8 +21302,8 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="81"/>
-      <c r="I159" s="81"/>
+      <c r="H159" s="49"/>
+      <c r="I159" s="49"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -21348,8 +21424,8 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="81"/>
-      <c r="I160" s="81"/>
+      <c r="H160" s="49"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -21470,8 +21546,8 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="81"/>
-      <c r="I161" s="81"/>
+      <c r="H161" s="49"/>
+      <c r="I161" s="49"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -21592,8 +21668,8 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="81"/>
-      <c r="I162" s="81"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="49"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -21714,8 +21790,8 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="81"/>
-      <c r="I163" s="81"/>
+      <c r="H163" s="49"/>
+      <c r="I163" s="49"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -21836,8 +21912,8 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="81"/>
-      <c r="I164" s="81"/>
+      <c r="H164" s="49"/>
+      <c r="I164" s="49"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -21958,8 +22034,8 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="81"/>
-      <c r="I165" s="81"/>
+      <c r="H165" s="49"/>
+      <c r="I165" s="49"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -22080,8 +22156,8 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="81"/>
-      <c r="I166" s="81"/>
+      <c r="H166" s="49"/>
+      <c r="I166" s="49"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
@@ -22202,8 +22278,8 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="81"/>
-      <c r="I167" s="81"/>
+      <c r="H167" s="49"/>
+      <c r="I167" s="49"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
@@ -22324,8 +22400,8 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="81"/>
-      <c r="I168" s="81"/>
+      <c r="H168" s="49"/>
+      <c r="I168" s="49"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
@@ -22446,8 +22522,8 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="81"/>
-      <c r="I169" s="81"/>
+      <c r="H169" s="49"/>
+      <c r="I169" s="49"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
@@ -22568,8 +22644,8 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="81"/>
-      <c r="I170" s="81"/>
+      <c r="H170" s="49"/>
+      <c r="I170" s="49"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
@@ -22690,8 +22766,8 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="81"/>
-      <c r="I171" s="81"/>
+      <c r="H171" s="49"/>
+      <c r="I171" s="49"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
@@ -22812,8 +22888,8 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="81"/>
-      <c r="I172" s="81"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="49"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
@@ -22934,8 +23010,8 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="81"/>
-      <c r="I173" s="81"/>
+      <c r="H173" s="49"/>
+      <c r="I173" s="49"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -23056,8 +23132,8 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="81"/>
-      <c r="I174" s="81"/>
+      <c r="H174" s="49"/>
+      <c r="I174" s="49"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
@@ -23178,8 +23254,8 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="81"/>
-      <c r="I175" s="81"/>
+      <c r="H175" s="49"/>
+      <c r="I175" s="49"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -23300,8 +23376,8 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="81"/>
-      <c r="I176" s="81"/>
+      <c r="H176" s="49"/>
+      <c r="I176" s="49"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -23422,8 +23498,8 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="81"/>
-      <c r="I177" s="81"/>
+      <c r="H177" s="49"/>
+      <c r="I177" s="49"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -23544,8 +23620,8 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="81"/>
-      <c r="I178" s="81"/>
+      <c r="H178" s="49"/>
+      <c r="I178" s="49"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -23666,8 +23742,8 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="81"/>
-      <c r="I179" s="81"/>
+      <c r="H179" s="49"/>
+      <c r="I179" s="49"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -23788,8 +23864,8 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="81"/>
-      <c r="I180" s="81"/>
+      <c r="H180" s="49"/>
+      <c r="I180" s="49"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -23910,8 +23986,8 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="81"/>
-      <c r="I181" s="81"/>
+      <c r="H181" s="49"/>
+      <c r="I181" s="49"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -24032,8 +24108,8 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="81"/>
-      <c r="I182" s="81"/>
+      <c r="H182" s="49"/>
+      <c r="I182" s="49"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -24154,8 +24230,8 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="81"/>
-      <c r="I183" s="81"/>
+      <c r="H183" s="49"/>
+      <c r="I183" s="49"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -24276,8 +24352,8 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="81"/>
-      <c r="I184" s="81"/>
+      <c r="H184" s="49"/>
+      <c r="I184" s="49"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -24398,8 +24474,8 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="81"/>
-      <c r="I185" s="81"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="49"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -24520,8 +24596,8 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="81"/>
-      <c r="I186" s="81"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="49"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -24642,8 +24718,8 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="81"/>
-      <c r="I187" s="81"/>
+      <c r="H187" s="49"/>
+      <c r="I187" s="49"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -24764,8 +24840,8 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="81"/>
-      <c r="I188" s="81"/>
+      <c r="H188" s="49"/>
+      <c r="I188" s="49"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -24886,8 +24962,8 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="81"/>
-      <c r="I189" s="81"/>
+      <c r="H189" s="49"/>
+      <c r="I189" s="49"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -25008,8 +25084,8 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="81"/>
-      <c r="I190" s="81"/>
+      <c r="H190" s="49"/>
+      <c r="I190" s="49"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -25130,8 +25206,8 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="81"/>
-      <c r="I191" s="81"/>
+      <c r="H191" s="49"/>
+      <c r="I191" s="49"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -25252,8 +25328,8 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="81"/>
-      <c r="I192" s="81"/>
+      <c r="H192" s="49"/>
+      <c r="I192" s="49"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -25374,8 +25450,8 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="81"/>
-      <c r="I193" s="81"/>
+      <c r="H193" s="49"/>
+      <c r="I193" s="49"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
@@ -25496,8 +25572,8 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="81"/>
-      <c r="I194" s="81"/>
+      <c r="H194" s="49"/>
+      <c r="I194" s="49"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
@@ -25618,8 +25694,8 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="81"/>
-      <c r="I195" s="81"/>
+      <c r="H195" s="49"/>
+      <c r="I195" s="49"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -25740,8 +25816,8 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="81"/>
-      <c r="I196" s="81"/>
+      <c r="H196" s="49"/>
+      <c r="I196" s="49"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -25862,8 +25938,8 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="81"/>
-      <c r="I197" s="81"/>
+      <c r="H197" s="49"/>
+      <c r="I197" s="49"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
@@ -25984,8 +26060,8 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="81"/>
-      <c r="I198" s="81"/>
+      <c r="H198" s="49"/>
+      <c r="I198" s="49"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
@@ -26106,8 +26182,8 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="81"/>
-      <c r="I199" s="81"/>
+      <c r="H199" s="49"/>
+      <c r="I199" s="49"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
@@ -26228,8 +26304,8 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="81"/>
-      <c r="I200" s="81"/>
+      <c r="H200" s="49"/>
+      <c r="I200" s="49"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -26350,8 +26426,8 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="81"/>
-      <c r="I201" s="81"/>
+      <c r="H201" s="49"/>
+      <c r="I201" s="49"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -26472,8 +26548,8 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="81"/>
-      <c r="I202" s="81"/>
+      <c r="H202" s="49"/>
+      <c r="I202" s="49"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -26594,8 +26670,8 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="81"/>
-      <c r="I203" s="81"/>
+      <c r="H203" s="49"/>
+      <c r="I203" s="49"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
@@ -26716,8 +26792,8 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="81"/>
-      <c r="I204" s="81"/>
+      <c r="H204" s="49"/>
+      <c r="I204" s="49"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -26838,8 +26914,8 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="81"/>
-      <c r="I205" s="81"/>
+      <c r="H205" s="49"/>
+      <c r="I205" s="49"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -26960,8 +27036,8 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="81"/>
-      <c r="I206" s="81"/>
+      <c r="H206" s="49"/>
+      <c r="I206" s="49"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -27082,8 +27158,8 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="81"/>
-      <c r="I207" s="81"/>
+      <c r="H207" s="49"/>
+      <c r="I207" s="49"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
@@ -27204,8 +27280,8 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="81"/>
-      <c r="I208" s="81"/>
+      <c r="H208" s="49"/>
+      <c r="I208" s="49"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
@@ -27326,8 +27402,8 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="81"/>
-      <c r="I209" s="81"/>
+      <c r="H209" s="49"/>
+      <c r="I209" s="49"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -27448,8 +27524,8 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="81"/>
-      <c r="I210" s="81"/>
+      <c r="H210" s="49"/>
+      <c r="I210" s="49"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -27570,8 +27646,8 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="81"/>
-      <c r="I211" s="81"/>
+      <c r="H211" s="49"/>
+      <c r="I211" s="49"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -27692,8 +27768,8 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="81"/>
-      <c r="I212" s="81"/>
+      <c r="H212" s="49"/>
+      <c r="I212" s="49"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -27814,8 +27890,8 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="81"/>
-      <c r="I213" s="81"/>
+      <c r="H213" s="49"/>
+      <c r="I213" s="49"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -27936,8 +28012,8 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="81"/>
-      <c r="I214" s="81"/>
+      <c r="H214" s="49"/>
+      <c r="I214" s="49"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -28058,8 +28134,8 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="81"/>
-      <c r="I215" s="81"/>
+      <c r="H215" s="49"/>
+      <c r="I215" s="49"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -28180,8 +28256,8 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="81"/>
-      <c r="I216" s="81"/>
+      <c r="H216" s="49"/>
+      <c r="I216" s="49"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -28302,8 +28378,8 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="81"/>
-      <c r="I217" s="81"/>
+      <c r="H217" s="49"/>
+      <c r="I217" s="49"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
@@ -28424,8 +28500,8 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="81"/>
-      <c r="I218" s="81"/>
+      <c r="H218" s="49"/>
+      <c r="I218" s="49"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -28546,8 +28622,8 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="81"/>
-      <c r="I219" s="81"/>
+      <c r="H219" s="49"/>
+      <c r="I219" s="49"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
@@ -28668,8 +28744,8 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="81"/>
-      <c r="I220" s="81"/>
+      <c r="H220" s="49"/>
+      <c r="I220" s="49"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -28790,8 +28866,8 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="81"/>
-      <c r="I221" s="81"/>
+      <c r="H221" s="49"/>
+      <c r="I221" s="49"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
@@ -28912,8 +28988,8 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="81"/>
-      <c r="I222" s="81"/>
+      <c r="H222" s="49"/>
+      <c r="I222" s="49"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
@@ -29034,8 +29110,8 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="81"/>
-      <c r="I223" s="81"/>
+      <c r="H223" s="49"/>
+      <c r="I223" s="49"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
@@ -29156,8 +29232,8 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="81"/>
-      <c r="I224" s="81"/>
+      <c r="H224" s="49"/>
+      <c r="I224" s="49"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -29278,8 +29354,8 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="81"/>
-      <c r="I225" s="81"/>
+      <c r="H225" s="49"/>
+      <c r="I225" s="49"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
@@ -29400,8 +29476,8 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="81"/>
-      <c r="I226" s="81"/>
+      <c r="H226" s="49"/>
+      <c r="I226" s="49"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
@@ -29522,8 +29598,8 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="81"/>
-      <c r="I227" s="81"/>
+      <c r="H227" s="49"/>
+      <c r="I227" s="49"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
@@ -29644,8 +29720,8 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="81"/>
-      <c r="I228" s="81"/>
+      <c r="H228" s="49"/>
+      <c r="I228" s="49"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
@@ -29766,8 +29842,8 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="81"/>
-      <c r="I229" s="81"/>
+      <c r="H229" s="49"/>
+      <c r="I229" s="49"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
@@ -29888,8 +29964,8 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="81"/>
-      <c r="I230" s="81"/>
+      <c r="H230" s="49"/>
+      <c r="I230" s="49"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
@@ -30010,8 +30086,8 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="81"/>
-      <c r="I231" s="81"/>
+      <c r="H231" s="49"/>
+      <c r="I231" s="49"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
@@ -30132,8 +30208,8 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="81"/>
-      <c r="I232" s="81"/>
+      <c r="H232" s="49"/>
+      <c r="I232" s="49"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
@@ -30254,8 +30330,8 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="81"/>
-      <c r="I233" s="81"/>
+      <c r="H233" s="49"/>
+      <c r="I233" s="49"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
@@ -30376,8 +30452,8 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="81"/>
-      <c r="I234" s="81"/>
+      <c r="H234" s="49"/>
+      <c r="I234" s="49"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -30498,8 +30574,8 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="81"/>
-      <c r="I235" s="81"/>
+      <c r="H235" s="49"/>
+      <c r="I235" s="49"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -30620,8 +30696,8 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="81"/>
-      <c r="I236" s="81"/>
+      <c r="H236" s="49"/>
+      <c r="I236" s="49"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
@@ -30742,8 +30818,8 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="81"/>
-      <c r="I237" s="81"/>
+      <c r="H237" s="49"/>
+      <c r="I237" s="49"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
@@ -30864,8 +30940,8 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="81"/>
-      <c r="I238" s="81"/>
+      <c r="H238" s="49"/>
+      <c r="I238" s="49"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
@@ -30986,8 +31062,8 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="81"/>
-      <c r="I239" s="81"/>
+      <c r="H239" s="49"/>
+      <c r="I239" s="49"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
@@ -31108,8 +31184,8 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="81"/>
-      <c r="I240" s="81"/>
+      <c r="H240" s="49"/>
+      <c r="I240" s="49"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
@@ -31230,8 +31306,8 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="81"/>
-      <c r="I241" s="81"/>
+      <c r="H241" s="49"/>
+      <c r="I241" s="49"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
@@ -31352,8 +31428,8 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="81"/>
-      <c r="I242" s="81"/>
+      <c r="H242" s="49"/>
+      <c r="I242" s="49"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
@@ -31474,8 +31550,8 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="81"/>
-      <c r="I243" s="81"/>
+      <c r="H243" s="49"/>
+      <c r="I243" s="49"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
@@ -31596,8 +31672,8 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="81"/>
-      <c r="I244" s="81"/>
+      <c r="H244" s="49"/>
+      <c r="I244" s="49"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
@@ -31718,8 +31794,8 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="81"/>
-      <c r="I245" s="81"/>
+      <c r="H245" s="49"/>
+      <c r="I245" s="49"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
@@ -31840,8 +31916,8 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="81"/>
-      <c r="I246" s="81"/>
+      <c r="H246" s="49"/>
+      <c r="I246" s="49"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -31962,8 +32038,8 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="81"/>
-      <c r="I247" s="81"/>
+      <c r="H247" s="49"/>
+      <c r="I247" s="49"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
@@ -32084,8 +32160,8 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="81"/>
-      <c r="I248" s="81"/>
+      <c r="H248" s="49"/>
+      <c r="I248" s="49"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
@@ -32199,12 +32275,12 @@
       <c r="DP248" s="1"/>
     </row>
     <row r="249" spans="1:120" ht="15" customHeight="1">
-      <c r="H249" s="81"/>
-      <c r="I249" s="81"/>
+      <c r="H249" s="49"/>
+      <c r="I249" s="49"/>
     </row>
     <row r="250" spans="1:120" ht="15" customHeight="1">
-      <c r="H250" s="81"/>
-      <c r="I250" s="81"/>
+      <c r="H250" s="49"/>
+      <c r="I250" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="204">
@@ -32295,7 +32371,6 @@
     <mergeCell ref="I101:I102"/>
     <mergeCell ref="I103:I104"/>
     <mergeCell ref="I105:I106"/>
-    <mergeCell ref="I87:I88"/>
     <mergeCell ref="I89:I90"/>
     <mergeCell ref="I91:I92"/>
     <mergeCell ref="I93:I94"/>
@@ -32305,8 +32380,6 @@
     <mergeCell ref="I81:I82"/>
     <mergeCell ref="I83:I84"/>
     <mergeCell ref="I85:I86"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I70"/>
     <mergeCell ref="I71:I72"/>
     <mergeCell ref="I73:I74"/>
     <mergeCell ref="I75:I76"/>
@@ -32315,9 +32388,7 @@
     <mergeCell ref="I61:I62"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="I65:I66"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I87:I88"/>
     <mergeCell ref="I53:I54"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="I37:I38"/>
@@ -32325,15 +32396,17 @@
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I70"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I30"/>
@@ -32343,6 +32416,27 @@
     <mergeCell ref="D81:G82"/>
     <mergeCell ref="D83:G84"/>
     <mergeCell ref="D85:G86"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="E35:G36"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="E41:G42"/>
+    <mergeCell ref="E43:G44"/>
+    <mergeCell ref="E45:G46"/>
+    <mergeCell ref="E47:G48"/>
+    <mergeCell ref="E49:G50"/>
+    <mergeCell ref="E51:G52"/>
+    <mergeCell ref="D53:G54"/>
+    <mergeCell ref="E55:G56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="E59:G60"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="E63:G64"/>
+    <mergeCell ref="D65:G66"/>
+    <mergeCell ref="C79:G80"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="E67:G68"/>
     <mergeCell ref="C87:G88"/>
     <mergeCell ref="D89:G90"/>
     <mergeCell ref="B105:G106"/>
@@ -32378,6 +32472,13 @@
     <mergeCell ref="B7:G8"/>
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="C11:G12"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="C75:G76"/>
+    <mergeCell ref="C77:G78"/>
     <mergeCell ref="D13:G14"/>
     <mergeCell ref="D15:G16"/>
     <mergeCell ref="D17:G18"/>
@@ -32387,60 +32488,65 @@
     <mergeCell ref="C25:G26"/>
     <mergeCell ref="D27:G28"/>
     <mergeCell ref="D29:G30"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="E35:G36"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="E41:G42"/>
-    <mergeCell ref="E43:G44"/>
-    <mergeCell ref="E45:G46"/>
-    <mergeCell ref="E47:G48"/>
-    <mergeCell ref="E49:G50"/>
-    <mergeCell ref="E51:G52"/>
-    <mergeCell ref="D53:G54"/>
-    <mergeCell ref="E55:G56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="E59:G60"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="E63:G64"/>
-    <mergeCell ref="D65:G66"/>
-    <mergeCell ref="C79:G80"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="E67:G68"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="E73:G74"/>
-    <mergeCell ref="C75:G76"/>
-    <mergeCell ref="C77:G78"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>OR(J4="土", J4="日")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J11">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>OR(J6="土", J6="日")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>OR(#REF!="土", #REF!="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:DO8 J9:Y68 AA52:DO68 Z59:Z68">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="J7:DO8 AA52:DO68 Z59:Z68 J9:Y13 M14:Y14 J14 J15:Y15 M16:Y16 J16 J17:Y17 M18:Y18 J18 J19:Y19 J21:Y23 M20:Y20 J20 J25:Y27 J24:L24 N24:Y24 J29:Y29 J28:L28 N28:Y28 J31:Y35 J30:L30 N30:Y30 J37:Y41 J36:M36 O36:Y36 J43:Y68 J42:M42 O42:Y42">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>OR(J$6="土", J$6="日")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:DO51 Z52:Z57 J69:DO243">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>OR(J$6="土", J$6="日")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L14 L16 L18 L20">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>OR(K$6="土", K$6="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>OR(L$6="土", L$6="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>OR(L$6="土", L$6="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR(L$6="土", L$6="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR(M$6="土", M$6="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR(M$6="土", M$6="日")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/【DIGITAL OJT】WBS.xlsx
+++ b/docs/【DIGITAL OJT】WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC1AF5-D08D-49CC-B811-ABB21A7627C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC280383-C26D-46B8-83D6-C803E262012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS_マスターデータ" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,7 +1839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1990,77 +1996,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="11" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2088,160 +2033,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="56" fontId="11" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="56" fontId="11" fillId="15" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2294,7 +2085,227 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="11" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="11" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="11" fillId="15" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2336,9 +2347,6 @@
     <xf numFmtId="0" fontId="15" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3334,14 +3342,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS289"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" ySplit="8" topLeftCell="AU110" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="12" ySplit="8" topLeftCell="BF118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BN123" sqref="BN123"/>
+      <selection pane="bottomRight" activeCell="BU127" sqref="BU127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="5" style="79" customWidth="1"/>
@@ -3350,8 +3358,8 @@
     <col min="9" max="9" width="11" style="79" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="79" customWidth="1"/>
     <col min="11" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="122" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" customWidth="1"/>
+    <col min="14" max="122" width="3.44140625" customWidth="1"/>
     <col min="123" max="123" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3610,120 +3618,120 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="M3" s="187">
+      <c r="M3" s="191">
         <v>2024</v>
       </c>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="188"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="188"/>
-      <c r="AD3" s="188"/>
-      <c r="AE3" s="188"/>
-      <c r="AF3" s="188"/>
-      <c r="AG3" s="188"/>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="188"/>
-      <c r="AJ3" s="188"/>
-      <c r="AK3" s="188"/>
-      <c r="AL3" s="188"/>
-      <c r="AM3" s="188"/>
-      <c r="AN3" s="188"/>
-      <c r="AO3" s="188"/>
-      <c r="AP3" s="188"/>
-      <c r="AQ3" s="188"/>
-      <c r="AR3" s="188"/>
-      <c r="AS3" s="188"/>
-      <c r="AT3" s="188"/>
-      <c r="AU3" s="188"/>
-      <c r="AV3" s="188"/>
-      <c r="AW3" s="188"/>
-      <c r="AX3" s="188"/>
-      <c r="AY3" s="188"/>
-      <c r="AZ3" s="188"/>
-      <c r="BA3" s="188"/>
-      <c r="BB3" s="188"/>
-      <c r="BC3" s="188"/>
-      <c r="BD3" s="188"/>
-      <c r="BE3" s="188"/>
-      <c r="BF3" s="188"/>
-      <c r="BG3" s="188"/>
-      <c r="BH3" s="188"/>
-      <c r="BI3" s="188"/>
-      <c r="BJ3" s="188"/>
-      <c r="BK3" s="188"/>
-      <c r="BL3" s="188"/>
-      <c r="BM3" s="188"/>
-      <c r="BN3" s="188"/>
-      <c r="BO3" s="188"/>
-      <c r="BP3" s="188"/>
-      <c r="BQ3" s="188"/>
-      <c r="BR3" s="188"/>
-      <c r="BS3" s="188"/>
-      <c r="BT3" s="188"/>
-      <c r="BU3" s="188"/>
-      <c r="BV3" s="188"/>
-      <c r="BW3" s="188"/>
-      <c r="BX3" s="188"/>
-      <c r="BY3" s="188"/>
-      <c r="BZ3" s="188"/>
-      <c r="CA3" s="188"/>
-      <c r="CB3" s="188"/>
-      <c r="CC3" s="188"/>
-      <c r="CD3" s="188"/>
-      <c r="CE3" s="188"/>
-      <c r="CF3" s="188"/>
-      <c r="CG3" s="188"/>
-      <c r="CH3" s="188"/>
-      <c r="CI3" s="188"/>
-      <c r="CJ3" s="188"/>
-      <c r="CK3" s="188"/>
-      <c r="CL3" s="188"/>
-      <c r="CM3" s="189"/>
-      <c r="CN3" s="187">
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="192"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="192"/>
+      <c r="AH3" s="192"/>
+      <c r="AI3" s="192"/>
+      <c r="AJ3" s="192"/>
+      <c r="AK3" s="192"/>
+      <c r="AL3" s="192"/>
+      <c r="AM3" s="192"/>
+      <c r="AN3" s="192"/>
+      <c r="AO3" s="192"/>
+      <c r="AP3" s="192"/>
+      <c r="AQ3" s="192"/>
+      <c r="AR3" s="192"/>
+      <c r="AS3" s="192"/>
+      <c r="AT3" s="192"/>
+      <c r="AU3" s="192"/>
+      <c r="AV3" s="192"/>
+      <c r="AW3" s="192"/>
+      <c r="AX3" s="192"/>
+      <c r="AY3" s="192"/>
+      <c r="AZ3" s="192"/>
+      <c r="BA3" s="192"/>
+      <c r="BB3" s="192"/>
+      <c r="BC3" s="192"/>
+      <c r="BD3" s="192"/>
+      <c r="BE3" s="192"/>
+      <c r="BF3" s="192"/>
+      <c r="BG3" s="192"/>
+      <c r="BH3" s="192"/>
+      <c r="BI3" s="192"/>
+      <c r="BJ3" s="192"/>
+      <c r="BK3" s="192"/>
+      <c r="BL3" s="192"/>
+      <c r="BM3" s="192"/>
+      <c r="BN3" s="192"/>
+      <c r="BO3" s="192"/>
+      <c r="BP3" s="192"/>
+      <c r="BQ3" s="192"/>
+      <c r="BR3" s="192"/>
+      <c r="BS3" s="192"/>
+      <c r="BT3" s="192"/>
+      <c r="BU3" s="192"/>
+      <c r="BV3" s="192"/>
+      <c r="BW3" s="192"/>
+      <c r="BX3" s="192"/>
+      <c r="BY3" s="192"/>
+      <c r="BZ3" s="192"/>
+      <c r="CA3" s="192"/>
+      <c r="CB3" s="192"/>
+      <c r="CC3" s="192"/>
+      <c r="CD3" s="192"/>
+      <c r="CE3" s="192"/>
+      <c r="CF3" s="192"/>
+      <c r="CG3" s="192"/>
+      <c r="CH3" s="192"/>
+      <c r="CI3" s="192"/>
+      <c r="CJ3" s="192"/>
+      <c r="CK3" s="192"/>
+      <c r="CL3" s="192"/>
+      <c r="CM3" s="193"/>
+      <c r="CN3" s="191">
         <v>2025</v>
       </c>
-      <c r="CO3" s="188"/>
-      <c r="CP3" s="188"/>
-      <c r="CQ3" s="188"/>
-      <c r="CR3" s="188"/>
-      <c r="CS3" s="188"/>
-      <c r="CT3" s="188"/>
-      <c r="CU3" s="188"/>
-      <c r="CV3" s="188"/>
-      <c r="CW3" s="188"/>
-      <c r="CX3" s="188"/>
-      <c r="CY3" s="188"/>
-      <c r="CZ3" s="188"/>
-      <c r="DA3" s="188"/>
-      <c r="DB3" s="188"/>
-      <c r="DC3" s="188"/>
-      <c r="DD3" s="188"/>
-      <c r="DE3" s="188"/>
-      <c r="DF3" s="188"/>
-      <c r="DG3" s="188"/>
-      <c r="DH3" s="188"/>
-      <c r="DI3" s="188"/>
-      <c r="DJ3" s="188"/>
-      <c r="DK3" s="188"/>
-      <c r="DL3" s="188"/>
-      <c r="DM3" s="188"/>
-      <c r="DN3" s="188"/>
-      <c r="DO3" s="188"/>
-      <c r="DP3" s="188"/>
-      <c r="DQ3" s="188"/>
-      <c r="DR3" s="189"/>
+      <c r="CO3" s="192"/>
+      <c r="CP3" s="192"/>
+      <c r="CQ3" s="192"/>
+      <c r="CR3" s="192"/>
+      <c r="CS3" s="192"/>
+      <c r="CT3" s="192"/>
+      <c r="CU3" s="192"/>
+      <c r="CV3" s="192"/>
+      <c r="CW3" s="192"/>
+      <c r="CX3" s="192"/>
+      <c r="CY3" s="192"/>
+      <c r="CZ3" s="192"/>
+      <c r="DA3" s="192"/>
+      <c r="DB3" s="192"/>
+      <c r="DC3" s="192"/>
+      <c r="DD3" s="192"/>
+      <c r="DE3" s="192"/>
+      <c r="DF3" s="192"/>
+      <c r="DG3" s="192"/>
+      <c r="DH3" s="192"/>
+      <c r="DI3" s="192"/>
+      <c r="DJ3" s="192"/>
+      <c r="DK3" s="192"/>
+      <c r="DL3" s="192"/>
+      <c r="DM3" s="192"/>
+      <c r="DN3" s="192"/>
+      <c r="DO3" s="192"/>
+      <c r="DP3" s="192"/>
+      <c r="DQ3" s="192"/>
+      <c r="DR3" s="193"/>
       <c r="DS3" s="1"/>
     </row>
     <row r="4" spans="1:123" ht="18" customHeight="1">
@@ -3739,124 +3747,124 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="M4" s="187">
+      <c r="M4" s="191">
         <v>10</v>
       </c>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="188"/>
-      <c r="U4" s="188"/>
-      <c r="V4" s="188"/>
-      <c r="W4" s="188"/>
-      <c r="X4" s="188"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="188"/>
-      <c r="AA4" s="188"/>
-      <c r="AB4" s="188"/>
-      <c r="AC4" s="188"/>
-      <c r="AD4" s="189"/>
-      <c r="AE4" s="187">
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="192"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="192"/>
+      <c r="T4" s="192"/>
+      <c r="U4" s="192"/>
+      <c r="V4" s="192"/>
+      <c r="W4" s="192"/>
+      <c r="X4" s="192"/>
+      <c r="Y4" s="192"/>
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="192"/>
+      <c r="AB4" s="192"/>
+      <c r="AC4" s="192"/>
+      <c r="AD4" s="193"/>
+      <c r="AE4" s="191">
         <v>11</v>
       </c>
-      <c r="AF4" s="188"/>
-      <c r="AG4" s="188"/>
-      <c r="AH4" s="188"/>
-      <c r="AI4" s="188"/>
-      <c r="AJ4" s="188"/>
-      <c r="AK4" s="188"/>
-      <c r="AL4" s="188"/>
-      <c r="AM4" s="188"/>
-      <c r="AN4" s="188"/>
-      <c r="AO4" s="188"/>
-      <c r="AP4" s="188"/>
-      <c r="AQ4" s="188"/>
-      <c r="AR4" s="188"/>
-      <c r="AS4" s="188"/>
-      <c r="AT4" s="188"/>
-      <c r="AU4" s="188"/>
-      <c r="AV4" s="188"/>
-      <c r="AW4" s="188"/>
-      <c r="AX4" s="188"/>
-      <c r="AY4" s="188"/>
-      <c r="AZ4" s="188"/>
-      <c r="BA4" s="188"/>
-      <c r="BB4" s="188"/>
-      <c r="BC4" s="188"/>
-      <c r="BD4" s="188"/>
-      <c r="BE4" s="188"/>
-      <c r="BF4" s="188"/>
-      <c r="BG4" s="188"/>
-      <c r="BH4" s="189"/>
-      <c r="BI4" s="187">
+      <c r="AF4" s="192"/>
+      <c r="AG4" s="192"/>
+      <c r="AH4" s="192"/>
+      <c r="AI4" s="192"/>
+      <c r="AJ4" s="192"/>
+      <c r="AK4" s="192"/>
+      <c r="AL4" s="192"/>
+      <c r="AM4" s="192"/>
+      <c r="AN4" s="192"/>
+      <c r="AO4" s="192"/>
+      <c r="AP4" s="192"/>
+      <c r="AQ4" s="192"/>
+      <c r="AR4" s="192"/>
+      <c r="AS4" s="192"/>
+      <c r="AT4" s="192"/>
+      <c r="AU4" s="192"/>
+      <c r="AV4" s="192"/>
+      <c r="AW4" s="192"/>
+      <c r="AX4" s="192"/>
+      <c r="AY4" s="192"/>
+      <c r="AZ4" s="192"/>
+      <c r="BA4" s="192"/>
+      <c r="BB4" s="192"/>
+      <c r="BC4" s="192"/>
+      <c r="BD4" s="192"/>
+      <c r="BE4" s="192"/>
+      <c r="BF4" s="192"/>
+      <c r="BG4" s="192"/>
+      <c r="BH4" s="193"/>
+      <c r="BI4" s="191">
         <v>12</v>
       </c>
-      <c r="BJ4" s="188"/>
-      <c r="BK4" s="188"/>
-      <c r="BL4" s="188"/>
-      <c r="BM4" s="188"/>
-      <c r="BN4" s="188"/>
-      <c r="BO4" s="188"/>
-      <c r="BP4" s="188"/>
-      <c r="BQ4" s="188"/>
-      <c r="BR4" s="188"/>
-      <c r="BS4" s="188"/>
-      <c r="BT4" s="188"/>
-      <c r="BU4" s="188"/>
-      <c r="BV4" s="188"/>
-      <c r="BW4" s="188"/>
-      <c r="BX4" s="188"/>
-      <c r="BY4" s="188"/>
-      <c r="BZ4" s="188"/>
-      <c r="CA4" s="188"/>
-      <c r="CB4" s="188"/>
-      <c r="CC4" s="188"/>
-      <c r="CD4" s="188"/>
-      <c r="CE4" s="188"/>
-      <c r="CF4" s="188"/>
-      <c r="CG4" s="188"/>
-      <c r="CH4" s="188"/>
-      <c r="CI4" s="188"/>
-      <c r="CJ4" s="188"/>
-      <c r="CK4" s="188"/>
-      <c r="CL4" s="188"/>
-      <c r="CM4" s="189"/>
-      <c r="CN4" s="187">
+      <c r="BJ4" s="192"/>
+      <c r="BK4" s="192"/>
+      <c r="BL4" s="192"/>
+      <c r="BM4" s="192"/>
+      <c r="BN4" s="192"/>
+      <c r="BO4" s="192"/>
+      <c r="BP4" s="192"/>
+      <c r="BQ4" s="192"/>
+      <c r="BR4" s="192"/>
+      <c r="BS4" s="192"/>
+      <c r="BT4" s="192"/>
+      <c r="BU4" s="192"/>
+      <c r="BV4" s="192"/>
+      <c r="BW4" s="192"/>
+      <c r="BX4" s="192"/>
+      <c r="BY4" s="192"/>
+      <c r="BZ4" s="192"/>
+      <c r="CA4" s="192"/>
+      <c r="CB4" s="192"/>
+      <c r="CC4" s="192"/>
+      <c r="CD4" s="192"/>
+      <c r="CE4" s="192"/>
+      <c r="CF4" s="192"/>
+      <c r="CG4" s="192"/>
+      <c r="CH4" s="192"/>
+      <c r="CI4" s="192"/>
+      <c r="CJ4" s="192"/>
+      <c r="CK4" s="192"/>
+      <c r="CL4" s="192"/>
+      <c r="CM4" s="193"/>
+      <c r="CN4" s="191">
         <v>1</v>
       </c>
-      <c r="CO4" s="188"/>
-      <c r="CP4" s="188"/>
-      <c r="CQ4" s="188"/>
-      <c r="CR4" s="188"/>
-      <c r="CS4" s="188"/>
-      <c r="CT4" s="188"/>
-      <c r="CU4" s="188"/>
-      <c r="CV4" s="188"/>
-      <c r="CW4" s="188"/>
-      <c r="CX4" s="188"/>
-      <c r="CY4" s="188"/>
-      <c r="CZ4" s="188"/>
-      <c r="DA4" s="188"/>
-      <c r="DB4" s="188"/>
-      <c r="DC4" s="188"/>
-      <c r="DD4" s="188"/>
-      <c r="DE4" s="188"/>
-      <c r="DF4" s="188"/>
-      <c r="DG4" s="188"/>
-      <c r="DH4" s="188"/>
-      <c r="DI4" s="188"/>
-      <c r="DJ4" s="188"/>
-      <c r="DK4" s="188"/>
-      <c r="DL4" s="188"/>
-      <c r="DM4" s="188"/>
-      <c r="DN4" s="188"/>
-      <c r="DO4" s="188"/>
-      <c r="DP4" s="188"/>
-      <c r="DQ4" s="188"/>
-      <c r="DR4" s="189"/>
+      <c r="CO4" s="192"/>
+      <c r="CP4" s="192"/>
+      <c r="CQ4" s="192"/>
+      <c r="CR4" s="192"/>
+      <c r="CS4" s="192"/>
+      <c r="CT4" s="192"/>
+      <c r="CU4" s="192"/>
+      <c r="CV4" s="192"/>
+      <c r="CW4" s="192"/>
+      <c r="CX4" s="192"/>
+      <c r="CY4" s="192"/>
+      <c r="CZ4" s="192"/>
+      <c r="DA4" s="192"/>
+      <c r="DB4" s="192"/>
+      <c r="DC4" s="192"/>
+      <c r="DD4" s="192"/>
+      <c r="DE4" s="192"/>
+      <c r="DF4" s="192"/>
+      <c r="DG4" s="192"/>
+      <c r="DH4" s="192"/>
+      <c r="DI4" s="192"/>
+      <c r="DJ4" s="192"/>
+      <c r="DK4" s="192"/>
+      <c r="DL4" s="192"/>
+      <c r="DM4" s="192"/>
+      <c r="DN4" s="192"/>
+      <c r="DO4" s="192"/>
+      <c r="DP4" s="192"/>
+      <c r="DQ4" s="192"/>
+      <c r="DR4" s="193"/>
       <c r="DS4" s="6"/>
     </row>
     <row r="5" spans="1:123" ht="18" customHeight="1">
@@ -4653,25 +4661,25 @@
     </row>
     <row r="7" spans="1:123" ht="9.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="192" t="s">
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="192" t="s">
+      <c r="J7" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="192" t="s">
+      <c r="K7" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="192" t="s">
+      <c r="L7" s="170" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="37"/>
@@ -4788,17 +4796,17 @@
     </row>
     <row r="8" spans="1:123" ht="9.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
       <c r="M8" s="38"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -4914,18 +4922,18 @@
     <row r="9" spans="1:123" ht="9.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
       <c r="O9" s="43"/>
@@ -5041,16 +5049,16 @@
     <row r="10" spans="1:123" ht="9.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
       <c r="M10" s="45"/>
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
@@ -5166,18 +5174,18 @@
     <row r="11" spans="1:123" ht="9.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
       <c r="O11" s="43"/>
@@ -5293,16 +5301,16 @@
     <row r="12" spans="1:123" ht="9.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
       <c r="M12" s="45"/>
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
@@ -5419,21 +5427,21 @@
       <c r="A13" s="1"/>
       <c r="B13" s="18"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="175" t="s">
+      <c r="D13" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="176"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="122">
+      <c r="E13" s="200"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="113">
         <v>0.5</v>
       </c>
-      <c r="J13" s="161"/>
-      <c r="K13" s="164" t="s">
+      <c r="J13" s="214"/>
+      <c r="K13" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="122">
+      <c r="L13" s="113">
         <v>100</v>
       </c>
       <c r="M13" s="38"/>
@@ -5552,15 +5560,15 @@
       <c r="A14" s="1"/>
       <c r="B14" s="18"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
       <c r="M14" s="38"/>
       <c r="O14" s="52"/>
       <c r="P14" s="15"/>
@@ -5676,21 +5684,21 @@
       <c r="A15" s="1"/>
       <c r="B15" s="18"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="175" t="s">
+      <c r="D15" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="122">
+      <c r="E15" s="200"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="113">
         <v>0.5</v>
       </c>
-      <c r="J15" s="161"/>
-      <c r="K15" s="164" t="s">
+      <c r="J15" s="214"/>
+      <c r="K15" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="122">
+      <c r="L15" s="113">
         <v>100</v>
       </c>
       <c r="M15" s="14"/>
@@ -5809,15 +5817,15 @@
       <c r="A16" s="1"/>
       <c r="B16" s="18"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
       <c r="M16" s="14"/>
       <c r="O16" s="52"/>
       <c r="P16" s="15"/>
@@ -5933,21 +5941,21 @@
       <c r="A17" s="1"/>
       <c r="B17" s="18"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="175" t="s">
+      <c r="D17" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="122">
+      <c r="E17" s="200"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="113">
         <v>0.5</v>
       </c>
-      <c r="J17" s="161"/>
-      <c r="K17" s="164" t="s">
+      <c r="J17" s="214"/>
+      <c r="K17" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="122">
+      <c r="L17" s="113">
         <v>100</v>
       </c>
       <c r="M17" s="14"/>
@@ -6066,15 +6074,15 @@
       <c r="A18" s="1"/>
       <c r="B18" s="18"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
       <c r="M18" s="14"/>
       <c r="O18" s="52"/>
       <c r="P18" s="15"/>
@@ -6190,21 +6198,21 @@
       <c r="A19" s="1"/>
       <c r="B19" s="18"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="175" t="s">
+      <c r="D19" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="176"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="122">
+      <c r="E19" s="200"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="113">
         <v>0.5</v>
       </c>
-      <c r="J19" s="161"/>
-      <c r="K19" s="164" t="s">
+      <c r="J19" s="214"/>
+      <c r="K19" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="122">
+      <c r="L19" s="113">
         <v>100</v>
       </c>
       <c r="M19" s="14"/>
@@ -6323,15 +6331,15 @@
       <c r="A20" s="1"/>
       <c r="B20" s="18"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
       <c r="M20" s="26"/>
       <c r="O20" s="53"/>
       <c r="P20" s="27"/>
@@ -6446,18 +6454,18 @@
     <row r="21" spans="1:123" ht="9.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
       <c r="M21" s="41"/>
       <c r="N21" s="42"/>
       <c r="O21" s="43"/>
@@ -6573,16 +6581,16 @@
     <row r="22" spans="1:123" ht="9.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
       <c r="M22" s="45"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
@@ -6699,21 +6707,21 @@
       <c r="A23" s="1"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="183"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="122">
+      <c r="E23" s="202"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="113">
         <v>2</v>
       </c>
-      <c r="J23" s="161"/>
-      <c r="K23" s="164" t="s">
+      <c r="J23" s="214"/>
+      <c r="K23" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="122">
+      <c r="L23" s="113">
         <v>100</v>
       </c>
       <c r="M23" s="14"/>
@@ -6832,15 +6840,15 @@
       <c r="A24" s="1"/>
       <c r="B24" s="18"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
       <c r="M24" s="14"/>
       <c r="N24" s="15"/>
       <c r="P24" s="52"/>
@@ -6955,18 +6963,18 @@
     <row r="25" spans="1:123" ht="9.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
       <c r="O25" s="43"/>
@@ -7082,16 +7090,16 @@
     <row r="26" spans="1:123" ht="9.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
       <c r="M26" s="45"/>
       <c r="N26" s="46"/>
       <c r="O26" s="46"/>
@@ -7208,21 +7216,21 @@
       <c r="A27" s="1"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="122">
+      <c r="E27" s="202"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="113">
         <v>1</v>
       </c>
-      <c r="J27" s="161"/>
-      <c r="K27" s="164" t="s">
+      <c r="J27" s="214"/>
+      <c r="K27" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="122">
+      <c r="L27" s="113">
         <v>100</v>
       </c>
       <c r="M27" s="14"/>
@@ -7341,15 +7349,15 @@
       <c r="A28" s="1"/>
       <c r="B28" s="28"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
       <c r="M28" s="14"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
@@ -7466,21 +7474,21 @@
       <c r="A29" s="1"/>
       <c r="B29" s="28"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="184" t="s">
+      <c r="D29" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="185"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="122">
+      <c r="E29" s="204"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="113">
         <v>1</v>
       </c>
-      <c r="J29" s="161"/>
-      <c r="K29" s="164" t="s">
+      <c r="J29" s="214"/>
+      <c r="K29" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="122">
+      <c r="L29" s="113">
         <v>100</v>
       </c>
       <c r="M29" s="14"/>
@@ -7599,15 +7607,15 @@
       <c r="A30" s="1"/>
       <c r="B30" s="28"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
       <c r="M30" s="26"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
@@ -7722,18 +7730,18 @@
     <row r="31" spans="1:123" ht="9.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="196" t="s">
+      <c r="C31" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="178"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
       <c r="M31" s="41"/>
       <c r="N31" s="42"/>
       <c r="O31" s="43"/>
@@ -7849,16 +7857,16 @@
     <row r="32" spans="1:123" ht="9.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
       <c r="M32" s="45"/>
       <c r="N32" s="46"/>
       <c r="O32" s="46"/>
@@ -7975,17 +7983,17 @@
       <c r="A33" s="1"/>
       <c r="B33" s="18"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="141" t="s">
+      <c r="D33" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="142"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
       <c r="M33" s="49"/>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -8102,15 +8110,15 @@
       <c r="A34" s="1"/>
       <c r="B34" s="18"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="162"/>
       <c r="M34" s="51"/>
       <c r="N34" s="48"/>
       <c r="O34" s="48"/>
@@ -8229,19 +8237,19 @@
       <c r="C35" s="1"/>
       <c r="D35" s="33"/>
       <c r="E35" s="77"/>
-      <c r="F35" s="163" t="s">
+      <c r="F35" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="154"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="122">
+      <c r="G35" s="148"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="113">
         <v>1</v>
       </c>
-      <c r="J35" s="161"/>
-      <c r="K35" s="164" t="s">
+      <c r="J35" s="214"/>
+      <c r="K35" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="122">
+      <c r="L35" s="113">
         <v>100</v>
       </c>
       <c r="M35" s="14"/>
@@ -8362,13 +8370,13 @@
       <c r="C36" s="1"/>
       <c r="D36" s="34"/>
       <c r="E36" s="78"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
       <c r="M36" s="14"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
@@ -8487,17 +8495,17 @@
       <c r="C37" s="1"/>
       <c r="D37" s="34"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="163" t="s">
+      <c r="F37" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="154"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="164" t="s">
+      <c r="G37" s="148"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="122">
+      <c r="L37" s="113">
         <v>100</v>
       </c>
       <c r="M37" s="14"/>
@@ -8618,13 +8626,13 @@
       <c r="C38" s="1"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
-      <c r="F38" s="198"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="214"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
       <c r="M38" s="26"/>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
@@ -8741,17 +8749,17 @@
       <c r="A39" s="1"/>
       <c r="B39" s="18"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="201" t="s">
+      <c r="D39" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="202"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
       <c r="M39" s="49"/>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
@@ -8868,15 +8876,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="18"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="162"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="162"/>
       <c r="M40" s="51"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
@@ -8995,19 +9003,19 @@
       <c r="C41" s="1"/>
       <c r="D41" s="33"/>
       <c r="E41" s="77"/>
-      <c r="F41" s="163" t="s">
+      <c r="F41" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="154"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="122">
+      <c r="G41" s="148"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="113">
         <v>1</v>
       </c>
-      <c r="J41" s="161"/>
-      <c r="K41" s="164" t="s">
+      <c r="J41" s="214"/>
+      <c r="K41" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="122">
+      <c r="L41" s="113">
         <v>100</v>
       </c>
       <c r="M41" s="14"/>
@@ -9128,13 +9136,13 @@
       <c r="C42" s="1"/>
       <c r="D42" s="34"/>
       <c r="E42" s="78"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="199"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
       <c r="M42" s="14"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
@@ -9252,19 +9260,19 @@
       <c r="C43" s="1"/>
       <c r="D43" s="34"/>
       <c r="E43" s="78"/>
-      <c r="F43" s="163" t="s">
+      <c r="F43" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="154"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="122">
+      <c r="G43" s="148"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="113">
         <v>4</v>
       </c>
-      <c r="J43" s="161"/>
-      <c r="K43" s="164" t="s">
+      <c r="J43" s="214"/>
+      <c r="K43" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="L43" s="122">
+      <c r="L43" s="113">
         <v>100</v>
       </c>
       <c r="M43" s="14"/>
@@ -9385,13 +9393,13 @@
       <c r="C44" s="1"/>
       <c r="D44" s="34"/>
       <c r="E44" s="78"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="199"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="214"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
       <c r="M44" s="14"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
@@ -9509,19 +9517,19 @@
       <c r="C45" s="1"/>
       <c r="D45" s="34"/>
       <c r="E45" s="78"/>
-      <c r="F45" s="163" t="s">
+      <c r="F45" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="143"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="122">
+      <c r="G45" s="142"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="113">
         <v>0.5</v>
       </c>
-      <c r="J45" s="161"/>
-      <c r="K45" s="164" t="s">
+      <c r="J45" s="214"/>
+      <c r="K45" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="122">
+      <c r="L45" s="113">
         <v>100</v>
       </c>
       <c r="M45" s="14"/>
@@ -9642,13 +9650,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="34"/>
       <c r="E46" s="78"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="214"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="113"/>
       <c r="M46" s="14"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
@@ -9767,19 +9775,19 @@
       <c r="C47" s="1"/>
       <c r="D47" s="34"/>
       <c r="E47" s="78"/>
-      <c r="F47" s="163" t="s">
+      <c r="F47" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="143"/>
-      <c r="H47" s="155"/>
-      <c r="I47" s="122">
+      <c r="G47" s="142"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="113">
         <v>4</v>
       </c>
-      <c r="J47" s="161"/>
-      <c r="K47" s="164" t="s">
+      <c r="J47" s="214"/>
+      <c r="K47" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="L47" s="122">
+      <c r="L47" s="113">
         <v>100</v>
       </c>
       <c r="M47" s="14"/>
@@ -9900,13 +9908,13 @@
       <c r="C48" s="1"/>
       <c r="D48" s="34"/>
       <c r="E48" s="78"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="122"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
       <c r="M48" s="14"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
@@ -10025,19 +10033,19 @@
       <c r="C49" s="1"/>
       <c r="D49" s="34"/>
       <c r="E49" s="78"/>
-      <c r="F49" s="163" t="s">
+      <c r="F49" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="143"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="122">
+      <c r="G49" s="142"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="113">
         <v>4</v>
       </c>
-      <c r="J49" s="161"/>
-      <c r="K49" s="164" t="s">
+      <c r="J49" s="214"/>
+      <c r="K49" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="122">
+      <c r="L49" s="113">
         <v>100</v>
       </c>
       <c r="M49" s="14"/>
@@ -10158,13 +10166,13 @@
       <c r="C50" s="1"/>
       <c r="D50" s="34"/>
       <c r="E50" s="78"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="214"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
       <c r="M50" s="14"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
@@ -10283,19 +10291,19 @@
       <c r="C51" s="1"/>
       <c r="D51" s="34"/>
       <c r="E51" s="78"/>
-      <c r="F51" s="163" t="s">
+      <c r="F51" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="143"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="122">
+      <c r="G51" s="142"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="113">
         <v>0.5</v>
       </c>
-      <c r="J51" s="161"/>
-      <c r="K51" s="164" t="s">
+      <c r="J51" s="214"/>
+      <c r="K51" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="122">
+      <c r="L51" s="113">
         <v>100</v>
       </c>
       <c r="M51" s="14"/>
@@ -10416,13 +10424,13 @@
       <c r="C52" s="1"/>
       <c r="D52" s="34"/>
       <c r="E52" s="78"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="214"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
       <c r="M52" s="26"/>
       <c r="N52" s="27"/>
       <c r="O52" s="27"/>
@@ -10539,17 +10547,17 @@
       <c r="A53" s="1"/>
       <c r="B53" s="18"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="141" t="s">
+      <c r="D53" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="142"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="162"/>
       <c r="M53" s="49"/>
       <c r="N53" s="50"/>
       <c r="O53" s="50"/>
@@ -10666,15 +10674,15 @@
       <c r="A54" s="1"/>
       <c r="B54" s="18"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="198"/>
+      <c r="J54" s="198"/>
+      <c r="K54" s="162"/>
+      <c r="L54" s="162"/>
       <c r="M54" s="51"/>
       <c r="N54" s="48"/>
       <c r="O54" s="48"/>
@@ -10793,19 +10801,19 @@
       <c r="C55" s="1"/>
       <c r="D55" s="34"/>
       <c r="E55" s="78"/>
-      <c r="F55" s="163" t="s">
+      <c r="F55" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="143"/>
-      <c r="H55" s="155"/>
-      <c r="I55" s="122">
+      <c r="G55" s="142"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="113">
         <v>4</v>
       </c>
-      <c r="J55" s="161"/>
-      <c r="K55" s="164" t="s">
+      <c r="J55" s="214"/>
+      <c r="K55" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="L55" s="122">
+      <c r="L55" s="113">
         <v>100</v>
       </c>
       <c r="M55" s="14"/>
@@ -10925,13 +10933,13 @@
       <c r="C56" s="1"/>
       <c r="D56" s="34"/>
       <c r="E56" s="78"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="214"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="113"/>
       <c r="M56" s="14"/>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
@@ -11050,19 +11058,19 @@
       <c r="C57" s="1"/>
       <c r="D57" s="34"/>
       <c r="E57" s="78"/>
-      <c r="F57" s="163" t="s">
+      <c r="F57" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="143"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="122">
+      <c r="G57" s="142"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="113">
         <v>4</v>
       </c>
-      <c r="J57" s="161"/>
-      <c r="K57" s="164" t="s">
+      <c r="J57" s="214"/>
+      <c r="K57" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="122">
+      <c r="L57" s="113">
         <v>100</v>
       </c>
       <c r="M57" s="14"/>
@@ -11183,13 +11191,13 @@
       <c r="C58" s="1"/>
       <c r="D58" s="34"/>
       <c r="E58" s="78"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="158"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="161"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="214"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
       <c r="M58" s="14"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
@@ -11308,19 +11316,19 @@
       <c r="C59" s="1"/>
       <c r="D59" s="34"/>
       <c r="E59" s="78"/>
-      <c r="F59" s="163" t="s">
+      <c r="F59" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="143"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="122">
+      <c r="G59" s="142"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="113">
         <v>4</v>
       </c>
-      <c r="J59" s="161"/>
-      <c r="K59" s="164" t="s">
+      <c r="J59" s="214"/>
+      <c r="K59" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="122">
+      <c r="L59" s="113">
         <v>100</v>
       </c>
       <c r="M59" s="14"/>
@@ -11441,13 +11449,13 @@
       <c r="C60" s="1"/>
       <c r="D60" s="34"/>
       <c r="E60" s="78"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="214"/>
+      <c r="K60" s="113"/>
+      <c r="L60" s="113"/>
       <c r="M60" s="14"/>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
@@ -11566,19 +11574,19 @@
       <c r="C61" s="1"/>
       <c r="D61" s="34"/>
       <c r="E61" s="78"/>
-      <c r="F61" s="163" t="s">
+      <c r="F61" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="143"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="122">
+      <c r="G61" s="142"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="113">
         <v>0.5</v>
       </c>
-      <c r="J61" s="161"/>
-      <c r="K61" s="164" t="s">
+      <c r="J61" s="214"/>
+      <c r="K61" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="L61" s="122">
+      <c r="L61" s="113">
         <v>100</v>
       </c>
       <c r="M61" s="14"/>
@@ -11699,13 +11707,13 @@
       <c r="C62" s="1"/>
       <c r="D62" s="34"/>
       <c r="E62" s="78"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="122"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="214"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
       <c r="M62" s="26"/>
       <c r="N62" s="27"/>
       <c r="O62" s="27"/>
@@ -11822,17 +11830,17 @@
       <c r="A63" s="1"/>
       <c r="B63" s="18"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="141" t="s">
+      <c r="D63" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="142"/>
-      <c r="F63" s="143"/>
-      <c r="G63" s="143"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="120"/>
-      <c r="J63" s="120"/>
-      <c r="K63" s="167"/>
-      <c r="L63" s="167"/>
+      <c r="E63" s="184"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="176"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="166"/>
+      <c r="K63" s="162"/>
+      <c r="L63" s="162"/>
       <c r="M63" s="49"/>
       <c r="N63" s="50"/>
       <c r="O63" s="50"/>
@@ -11949,15 +11957,15 @@
       <c r="A64" s="1"/>
       <c r="B64" s="18"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="156"/>
-      <c r="I64" s="121"/>
-      <c r="J64" s="121"/>
-      <c r="K64" s="167"/>
-      <c r="L64" s="167"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="150"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="149"/>
+      <c r="I64" s="167"/>
+      <c r="J64" s="167"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="162"/>
       <c r="M64" s="51"/>
       <c r="N64" s="48"/>
       <c r="O64" s="48"/>
@@ -12076,17 +12084,17 @@
       <c r="C65" s="1"/>
       <c r="D65" s="34"/>
       <c r="E65" s="78"/>
-      <c r="F65" s="163" t="s">
+      <c r="F65" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="143"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="164" t="s">
+      <c r="G65" s="142"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="L65" s="122">
+      <c r="L65" s="113">
         <v>100</v>
       </c>
       <c r="M65" s="14"/>
@@ -12207,13 +12215,13 @@
       <c r="C66" s="1"/>
       <c r="D66" s="34"/>
       <c r="E66" s="78"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="122"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
+      <c r="L66" s="113"/>
       <c r="M66" s="14"/>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
@@ -12332,17 +12340,17 @@
       <c r="C67" s="1"/>
       <c r="D67" s="34"/>
       <c r="E67" s="78"/>
-      <c r="F67" s="163" t="s">
+      <c r="F67" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="G67" s="143"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="164" t="s">
+      <c r="G67" s="142"/>
+      <c r="H67" s="143"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="L67" s="122">
+      <c r="L67" s="113">
         <v>100</v>
       </c>
       <c r="M67" s="14"/>
@@ -12461,13 +12469,13 @@
       <c r="C68" s="1"/>
       <c r="D68" s="34"/>
       <c r="E68" s="78"/>
-      <c r="F68" s="145"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="122"/>
+      <c r="F68" s="161"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="113"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="113"/>
+      <c r="L68" s="113"/>
       <c r="M68" s="14"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
@@ -12586,17 +12594,17 @@
       <c r="C69" s="1"/>
       <c r="D69" s="34"/>
       <c r="E69" s="78"/>
-      <c r="F69" s="163" t="s">
+      <c r="F69" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="G69" s="143"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="164" t="s">
+      <c r="G69" s="142"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="113"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="L69" s="122">
+      <c r="L69" s="113">
         <v>100</v>
       </c>
       <c r="M69" s="14"/>
@@ -12717,13 +12725,13 @@
       <c r="C70" s="1"/>
       <c r="D70" s="34"/>
       <c r="E70" s="78"/>
-      <c r="F70" s="145"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="158"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="122"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
       <c r="M70" s="14"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
@@ -12842,17 +12850,17 @@
       <c r="C71" s="1"/>
       <c r="D71" s="34"/>
       <c r="E71" s="78"/>
-      <c r="F71" s="163" t="s">
+      <c r="F71" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="G71" s="143"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="164" t="s">
+      <c r="G71" s="142"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="L71" s="122">
+      <c r="L71" s="113">
         <v>100</v>
       </c>
       <c r="M71" s="14"/>
@@ -12973,13 +12981,13 @@
       <c r="C72" s="1"/>
       <c r="D72" s="34"/>
       <c r="E72" s="78"/>
-      <c r="F72" s="145"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="158"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122"/>
-      <c r="L72" s="122"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="150"/>
+      <c r="H72" s="151"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="113"/>
+      <c r="L72" s="113"/>
       <c r="M72" s="14"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
@@ -13098,17 +13106,17 @@
       <c r="C73" s="1"/>
       <c r="D73" s="34"/>
       <c r="E73" s="78"/>
-      <c r="F73" s="163" t="s">
+      <c r="F73" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="143"/>
-      <c r="H73" s="155"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="164" t="s">
+      <c r="G73" s="142"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="122">
+      <c r="L73" s="113">
         <v>100</v>
       </c>
       <c r="M73" s="14"/>
@@ -13229,13 +13237,13 @@
       <c r="C74" s="1"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
-      <c r="F74" s="145"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="158"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="122"/>
-      <c r="L74" s="122"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="113"/>
       <c r="M74" s="26"/>
       <c r="N74" s="27"/>
       <c r="O74" s="27"/>
@@ -13351,20 +13359,20 @@
     <row r="75" spans="1:123" ht="9.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="36"/>
-      <c r="C75" s="170" t="s">
+      <c r="C75" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="143"/>
-      <c r="E75" s="171"/>
-      <c r="F75" s="143"/>
-      <c r="G75" s="143"/>
-      <c r="H75" s="144"/>
-      <c r="I75" s="120"/>
-      <c r="J75" s="120"/>
-      <c r="K75" s="164" t="s">
+      <c r="D75" s="142"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="176"/>
+      <c r="I75" s="166"/>
+      <c r="J75" s="166"/>
+      <c r="K75" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="L75" s="122">
+      <c r="L75" s="113">
         <v>100</v>
       </c>
       <c r="M75" s="19"/>
@@ -13482,16 +13490,16 @@
     <row r="76" spans="1:123" ht="9.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="36"/>
-      <c r="C76" s="172"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="156"/>
-      <c r="I76" s="121"/>
-      <c r="J76" s="121"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="122"/>
+      <c r="C76" s="177"/>
+      <c r="D76" s="150"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="150"/>
+      <c r="G76" s="150"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="113"/>
+      <c r="L76" s="113"/>
       <c r="M76" s="19"/>
       <c r="N76" s="20"/>
       <c r="O76" s="20"/>
@@ -13607,20 +13615,20 @@
     <row r="77" spans="1:123" ht="9.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="36"/>
-      <c r="C77" s="170" t="s">
+      <c r="C77" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="143"/>
-      <c r="E77" s="171"/>
-      <c r="F77" s="143"/>
-      <c r="G77" s="143"/>
-      <c r="H77" s="144"/>
-      <c r="I77" s="120"/>
-      <c r="J77" s="120"/>
-      <c r="K77" s="203" t="s">
+      <c r="D77" s="142"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="142"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="176"/>
+      <c r="I77" s="166"/>
+      <c r="J77" s="166"/>
+      <c r="K77" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="L77" s="167"/>
+      <c r="L77" s="162"/>
       <c r="M77" s="49"/>
       <c r="N77" s="50"/>
       <c r="O77" s="50"/>
@@ -13736,16 +13744,16 @@
     <row r="78" spans="1:123" ht="9.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="36"/>
-      <c r="C78" s="172"/>
-      <c r="D78" s="157"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="156"/>
-      <c r="I78" s="121"/>
-      <c r="J78" s="121"/>
-      <c r="K78" s="204"/>
-      <c r="L78" s="167"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="150"/>
+      <c r="E78" s="149"/>
+      <c r="F78" s="150"/>
+      <c r="G78" s="150"/>
+      <c r="H78" s="149"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="162"/>
       <c r="M78" s="51"/>
       <c r="N78" s="48"/>
       <c r="O78" s="48"/>
@@ -13862,17 +13870,17 @@
       <c r="A79" s="1"/>
       <c r="B79" s="18"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="141" t="s">
+      <c r="D79" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="142"/>
-      <c r="F79" s="143"/>
-      <c r="G79" s="143"/>
-      <c r="H79" s="144"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
-      <c r="K79" s="167"/>
-      <c r="L79" s="167"/>
+      <c r="E79" s="184"/>
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="176"/>
+      <c r="I79" s="197"/>
+      <c r="J79" s="197"/>
+      <c r="K79" s="162"/>
+      <c r="L79" s="162"/>
       <c r="M79" s="49"/>
       <c r="N79" s="50"/>
       <c r="O79" s="50"/>
@@ -13989,15 +13997,15 @@
       <c r="A80" s="1"/>
       <c r="B80" s="18"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="145"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="157"/>
-      <c r="G80" s="157"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="118"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="167"/>
+      <c r="D80" s="161"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="149"/>
+      <c r="I80" s="197"/>
+      <c r="J80" s="197"/>
+      <c r="K80" s="162"/>
+      <c r="L80" s="162"/>
       <c r="M80" s="51"/>
       <c r="N80" s="48"/>
       <c r="O80" s="48"/>
@@ -14116,21 +14124,21 @@
       <c r="C81" s="1"/>
       <c r="D81" s="34"/>
       <c r="E81" s="78"/>
-      <c r="F81" s="163" t="s">
+      <c r="F81" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="G81" s="143"/>
-      <c r="H81" s="155"/>
-      <c r="I81" s="122">
+      <c r="G81" s="142"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="113">
         <v>3</v>
       </c>
-      <c r="J81" s="122">
+      <c r="J81" s="113">
         <v>1</v>
       </c>
-      <c r="K81" s="164" t="s">
+      <c r="K81" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="L81" s="122">
+      <c r="L81" s="113">
         <v>100</v>
       </c>
       <c r="M81" s="15"/>
@@ -14251,13 +14259,13 @@
       <c r="C82" s="1"/>
       <c r="D82" s="34"/>
       <c r="E82" s="78"/>
-      <c r="F82" s="145"/>
-      <c r="G82" s="157"/>
-      <c r="H82" s="158"/>
-      <c r="I82" s="122"/>
-      <c r="J82" s="122"/>
-      <c r="K82" s="122"/>
-      <c r="L82" s="122"/>
+      <c r="F82" s="161"/>
+      <c r="G82" s="150"/>
+      <c r="H82" s="151"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="113"/>
+      <c r="K82" s="113"/>
+      <c r="L82" s="113"/>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
       <c r="O82" s="15"/>
@@ -14376,21 +14384,21 @@
       <c r="C83" s="1"/>
       <c r="D83" s="34"/>
       <c r="E83" s="78"/>
-      <c r="F83" s="163" t="s">
+      <c r="F83" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="143"/>
-      <c r="H83" s="155"/>
-      <c r="I83" s="122">
+      <c r="G83" s="142"/>
+      <c r="H83" s="143"/>
+      <c r="I83" s="113">
         <v>3</v>
       </c>
-      <c r="J83" s="122">
+      <c r="J83" s="113">
         <v>4.5</v>
       </c>
-      <c r="K83" s="164" t="s">
+      <c r="K83" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="L83" s="122">
+      <c r="L83" s="113">
         <v>100</v>
       </c>
       <c r="M83" s="15"/>
@@ -14511,13 +14519,13 @@
       <c r="C84" s="1"/>
       <c r="D84" s="34"/>
       <c r="E84" s="78"/>
-      <c r="F84" s="145"/>
-      <c r="G84" s="157"/>
-      <c r="H84" s="158"/>
-      <c r="I84" s="122"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="122"/>
-      <c r="L84" s="122"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="150"/>
+      <c r="H84" s="151"/>
+      <c r="I84" s="113"/>
+      <c r="J84" s="113"/>
+      <c r="K84" s="113"/>
+      <c r="L84" s="113"/>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
@@ -14636,19 +14644,19 @@
       <c r="C85" s="1"/>
       <c r="D85" s="34"/>
       <c r="E85" s="78"/>
-      <c r="F85" s="163" t="s">
+      <c r="F85" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="G85" s="143"/>
-      <c r="H85" s="155"/>
-      <c r="I85" s="122">
+      <c r="G85" s="142"/>
+      <c r="H85" s="143"/>
+      <c r="I85" s="113">
         <v>0.5</v>
       </c>
-      <c r="J85" s="122"/>
-      <c r="K85" s="164" t="s">
+      <c r="J85" s="113"/>
+      <c r="K85" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="L85" s="122">
+      <c r="L85" s="113">
         <v>100</v>
       </c>
       <c r="M85" s="15"/>
@@ -14769,13 +14777,13 @@
       <c r="C86" s="1"/>
       <c r="D86" s="34"/>
       <c r="E86" s="78"/>
-      <c r="F86" s="145"/>
-      <c r="G86" s="157"/>
-      <c r="H86" s="158"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="122"/>
-      <c r="L86" s="122"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="150"/>
+      <c r="H86" s="151"/>
+      <c r="I86" s="113"/>
+      <c r="J86" s="113"/>
+      <c r="K86" s="113"/>
+      <c r="L86" s="113"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
@@ -14892,17 +14900,17 @@
       <c r="A87" s="16"/>
       <c r="B87" s="36"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="141" t="s">
+      <c r="D87" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="142"/>
-      <c r="F87" s="143"/>
-      <c r="G87" s="143"/>
-      <c r="H87" s="144"/>
-      <c r="I87" s="120"/>
-      <c r="J87" s="120"/>
-      <c r="K87" s="165"/>
-      <c r="L87" s="167"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="176"/>
+      <c r="I87" s="166"/>
+      <c r="J87" s="166"/>
+      <c r="K87" s="164"/>
+      <c r="L87" s="162"/>
       <c r="M87" s="49"/>
       <c r="N87" s="50"/>
       <c r="O87" s="50"/>
@@ -15019,15 +15027,15 @@
       <c r="A88" s="16"/>
       <c r="B88" s="36"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="145"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="146"/>
-      <c r="H88" s="146"/>
-      <c r="I88" s="121"/>
-      <c r="J88" s="121"/>
-      <c r="K88" s="166"/>
-      <c r="L88" s="167"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="145"/>
+      <c r="G88" s="145"/>
+      <c r="H88" s="145"/>
+      <c r="I88" s="167"/>
+      <c r="J88" s="167"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="162"/>
       <c r="M88" s="51"/>
       <c r="N88" s="48"/>
       <c r="O88" s="48"/>
@@ -15145,16 +15153,16 @@
       <c r="B89" s="18"/>
       <c r="C89" s="1"/>
       <c r="D89" s="34"/>
-      <c r="E89" s="147" t="s">
+      <c r="E89" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="148"/>
-      <c r="G89" s="148"/>
-      <c r="H89" s="149"/>
-      <c r="I89" s="120"/>
-      <c r="J89" s="120"/>
-      <c r="K89" s="165"/>
-      <c r="L89" s="167"/>
+      <c r="F89" s="209"/>
+      <c r="G89" s="209"/>
+      <c r="H89" s="210"/>
+      <c r="I89" s="166"/>
+      <c r="J89" s="166"/>
+      <c r="K89" s="164"/>
+      <c r="L89" s="162"/>
       <c r="M89" s="49"/>
       <c r="N89" s="50"/>
       <c r="O89" s="50"/>
@@ -15272,14 +15280,14 @@
       <c r="B90" s="18"/>
       <c r="C90" s="80"/>
       <c r="D90" s="104"/>
-      <c r="E90" s="150"/>
-      <c r="F90" s="151"/>
-      <c r="G90" s="151"/>
-      <c r="H90" s="152"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="121"/>
-      <c r="K90" s="166"/>
-      <c r="L90" s="167"/>
+      <c r="E90" s="211"/>
+      <c r="F90" s="212"/>
+      <c r="G90" s="212"/>
+      <c r="H90" s="213"/>
+      <c r="I90" s="167"/>
+      <c r="J90" s="167"/>
+      <c r="K90" s="165"/>
+      <c r="L90" s="162"/>
       <c r="M90" s="51"/>
       <c r="N90" s="48"/>
       <c r="O90" s="48"/>
@@ -15394,27 +15402,27 @@
     </row>
     <row r="91" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="206" t="s">
+      <c r="B91" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="206"/>
-      <c r="D91" s="206"/>
-      <c r="E91" s="206"/>
-      <c r="F91" s="173" t="s">
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="G91" s="146"/>
-      <c r="H91" s="174"/>
-      <c r="I91" s="122">
+      <c r="G91" s="145"/>
+      <c r="H91" s="146"/>
+      <c r="I91" s="113">
         <v>3</v>
       </c>
-      <c r="J91" s="122">
+      <c r="J91" s="113">
         <v>1.75</v>
       </c>
-      <c r="K91" s="164" t="s">
+      <c r="K91" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="L91" s="122">
+      <c r="L91" s="113">
         <v>100</v>
       </c>
       <c r="M91" s="15"/>
@@ -15531,17 +15539,17 @@
     </row>
     <row r="92" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="206"/>
-      <c r="C92" s="206"/>
-      <c r="D92" s="206"/>
-      <c r="E92" s="206"/>
-      <c r="F92" s="156"/>
-      <c r="G92" s="157"/>
-      <c r="H92" s="158"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="122"/>
-      <c r="K92" s="122"/>
-      <c r="L92" s="122"/>
+      <c r="B92" s="114"/>
+      <c r="C92" s="114"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="149"/>
+      <c r="G92" s="150"/>
+      <c r="H92" s="151"/>
+      <c r="I92" s="113"/>
+      <c r="J92" s="113"/>
+      <c r="K92" s="113"/>
+      <c r="L92" s="113"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
@@ -15656,25 +15664,25 @@
     </row>
     <row r="93" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="206"/>
-      <c r="C93" s="206"/>
-      <c r="D93" s="206"/>
-      <c r="E93" s="206"/>
-      <c r="F93" s="154" t="s">
+      <c r="B93" s="114"/>
+      <c r="C93" s="114"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="G93" s="143"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="122">
+      <c r="G93" s="142"/>
+      <c r="H93" s="143"/>
+      <c r="I93" s="113">
         <v>3</v>
       </c>
-      <c r="J93" s="122">
+      <c r="J93" s="113">
         <v>1.25</v>
       </c>
-      <c r="K93" s="164" t="s">
+      <c r="K93" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="L93" s="122">
+      <c r="L93" s="113">
         <v>100</v>
       </c>
       <c r="M93" s="15"/>
@@ -15791,17 +15799,17 @@
     </row>
     <row r="94" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="206"/>
-      <c r="C94" s="206"/>
-      <c r="D94" s="206"/>
-      <c r="E94" s="206"/>
-      <c r="F94" s="156"/>
-      <c r="G94" s="157"/>
-      <c r="H94" s="158"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="122"/>
-      <c r="K94" s="122"/>
-      <c r="L94" s="122"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="149"/>
+      <c r="G94" s="150"/>
+      <c r="H94" s="151"/>
+      <c r="I94" s="113"/>
+      <c r="J94" s="113"/>
+      <c r="K94" s="113"/>
+      <c r="L94" s="113"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
@@ -15916,25 +15924,25 @@
     </row>
     <row r="95" spans="1:123" s="105" customFormat="1" ht="9.75" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="206"/>
-      <c r="C95" s="206"/>
-      <c r="D95" s="206"/>
-      <c r="E95" s="206"/>
-      <c r="F95" s="154" t="s">
+      <c r="B95" s="114"/>
+      <c r="C95" s="114"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="G95" s="143"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="122">
+      <c r="G95" s="142"/>
+      <c r="H95" s="143"/>
+      <c r="I95" s="113">
         <v>3</v>
       </c>
-      <c r="J95" s="122">
+      <c r="J95" s="113">
         <v>2</v>
       </c>
-      <c r="K95" s="164" t="s">
+      <c r="K95" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="L95" s="122">
+      <c r="L95" s="113">
         <v>100</v>
       </c>
       <c r="M95" s="15"/>
@@ -16051,17 +16059,17 @@
     </row>
     <row r="96" spans="1:123" s="105" customFormat="1" ht="9.75" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="206"/>
-      <c r="C96" s="206"/>
-      <c r="D96" s="206"/>
-      <c r="E96" s="206"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="157"/>
-      <c r="H96" s="158"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="122"/>
-      <c r="L96" s="122"/>
+      <c r="B96" s="114"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="114"/>
+      <c r="E96" s="114"/>
+      <c r="F96" s="149"/>
+      <c r="G96" s="150"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="113"/>
+      <c r="J96" s="113"/>
+      <c r="K96" s="113"/>
+      <c r="L96" s="113"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
@@ -16180,19 +16188,19 @@
       <c r="C97" s="1"/>
       <c r="D97" s="34"/>
       <c r="E97" s="78"/>
-      <c r="F97" s="163" t="s">
+      <c r="F97" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="G97" s="143"/>
-      <c r="H97" s="155"/>
-      <c r="I97" s="122">
+      <c r="G97" s="142"/>
+      <c r="H97" s="143"/>
+      <c r="I97" s="113">
         <v>0.5</v>
       </c>
-      <c r="J97" s="122"/>
-      <c r="K97" s="164" t="s">
+      <c r="J97" s="113"/>
+      <c r="K97" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="L97" s="122"/>
+      <c r="L97" s="113"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
@@ -16311,13 +16319,13 @@
       <c r="C98" s="1"/>
       <c r="D98" s="34"/>
       <c r="E98" s="78"/>
-      <c r="F98" s="145"/>
-      <c r="G98" s="157"/>
-      <c r="H98" s="158"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="122"/>
-      <c r="L98" s="122"/>
+      <c r="F98" s="161"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="151"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="113"/>
+      <c r="L98" s="113"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
@@ -16435,16 +16443,16 @@
       <c r="B99" s="18"/>
       <c r="C99" s="1"/>
       <c r="D99" s="34"/>
-      <c r="E99" s="147" t="s">
+      <c r="E99" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="F99" s="148"/>
-      <c r="G99" s="148"/>
-      <c r="H99" s="149"/>
-      <c r="I99" s="120"/>
-      <c r="J99" s="120"/>
-      <c r="K99" s="165"/>
-      <c r="L99" s="167"/>
+      <c r="F99" s="209"/>
+      <c r="G99" s="209"/>
+      <c r="H99" s="210"/>
+      <c r="I99" s="166"/>
+      <c r="J99" s="166"/>
+      <c r="K99" s="164"/>
+      <c r="L99" s="162"/>
       <c r="M99" s="49"/>
       <c r="N99" s="50"/>
       <c r="O99" s="50"/>
@@ -16562,14 +16570,14 @@
       <c r="B100" s="18"/>
       <c r="C100" s="1"/>
       <c r="D100" s="34"/>
-      <c r="E100" s="153"/>
-      <c r="F100" s="151"/>
-      <c r="G100" s="151"/>
-      <c r="H100" s="152"/>
-      <c r="I100" s="121"/>
-      <c r="J100" s="121"/>
-      <c r="K100" s="166"/>
-      <c r="L100" s="167"/>
+      <c r="E100" s="217"/>
+      <c r="F100" s="212"/>
+      <c r="G100" s="212"/>
+      <c r="H100" s="213"/>
+      <c r="I100" s="167"/>
+      <c r="J100" s="167"/>
+      <c r="K100" s="165"/>
+      <c r="L100" s="162"/>
       <c r="M100" s="51"/>
       <c r="N100" s="48"/>
       <c r="O100" s="48"/>
@@ -16684,27 +16692,27 @@
     </row>
     <row r="101" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="207" t="s">
+      <c r="B101" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="216"/>
-      <c r="D101" s="216"/>
-      <c r="E101" s="217"/>
-      <c r="F101" s="173" t="s">
+      <c r="C101" s="133"/>
+      <c r="D101" s="133"/>
+      <c r="E101" s="134"/>
+      <c r="F101" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="G101" s="146"/>
-      <c r="H101" s="174"/>
-      <c r="I101" s="122">
+      <c r="G101" s="145"/>
+      <c r="H101" s="146"/>
+      <c r="I101" s="113">
         <v>1</v>
       </c>
-      <c r="J101" s="122">
+      <c r="J101" s="113">
         <v>1</v>
       </c>
-      <c r="K101" s="164" t="s">
+      <c r="K101" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="L101" s="164"/>
+      <c r="L101" s="147"/>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
@@ -16819,17 +16827,17 @@
     </row>
     <row r="102" spans="1:123" s="59" customFormat="1" ht="9.6" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="218"/>
-      <c r="C102" s="219"/>
-      <c r="D102" s="219"/>
-      <c r="E102" s="220"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="157"/>
-      <c r="H102" s="158"/>
-      <c r="I102" s="122"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="122"/>
-      <c r="L102" s="122"/>
+      <c r="B102" s="135"/>
+      <c r="C102" s="136"/>
+      <c r="D102" s="136"/>
+      <c r="E102" s="137"/>
+      <c r="F102" s="149"/>
+      <c r="G102" s="150"/>
+      <c r="H102" s="151"/>
+      <c r="I102" s="113"/>
+      <c r="J102" s="113"/>
+      <c r="K102" s="113"/>
+      <c r="L102" s="113"/>
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
@@ -16943,25 +16951,25 @@
     </row>
     <row r="103" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="218"/>
-      <c r="C103" s="219"/>
-      <c r="D103" s="219"/>
-      <c r="E103" s="220"/>
-      <c r="F103" s="154" t="s">
+      <c r="B103" s="135"/>
+      <c r="C103" s="136"/>
+      <c r="D103" s="136"/>
+      <c r="E103" s="137"/>
+      <c r="F103" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="143"/>
-      <c r="H103" s="155"/>
-      <c r="I103" s="122">
+      <c r="G103" s="142"/>
+      <c r="H103" s="143"/>
+      <c r="I103" s="113">
         <v>2</v>
       </c>
-      <c r="J103" s="122">
+      <c r="J103" s="113">
         <v>1.75</v>
       </c>
-      <c r="K103" s="164" t="s">
+      <c r="K103" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="L103" s="164"/>
+      <c r="L103" s="147"/>
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
       <c r="O103" s="15"/>
@@ -17076,17 +17084,17 @@
     </row>
     <row r="104" spans="1:123" s="59" customFormat="1" ht="9.6" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="218"/>
-      <c r="C104" s="219"/>
-      <c r="D104" s="219"/>
-      <c r="E104" s="220"/>
-      <c r="F104" s="156"/>
-      <c r="G104" s="157"/>
-      <c r="H104" s="158"/>
-      <c r="I104" s="122"/>
-      <c r="J104" s="122"/>
-      <c r="K104" s="122"/>
-      <c r="L104" s="122"/>
+      <c r="B104" s="135"/>
+      <c r="C104" s="136"/>
+      <c r="D104" s="136"/>
+      <c r="E104" s="137"/>
+      <c r="F104" s="149"/>
+      <c r="G104" s="150"/>
+      <c r="H104" s="151"/>
+      <c r="I104" s="113"/>
+      <c r="J104" s="113"/>
+      <c r="K104" s="113"/>
+      <c r="L104" s="113"/>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
@@ -17201,25 +17209,25 @@
     </row>
     <row r="105" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="218"/>
-      <c r="C105" s="219"/>
-      <c r="D105" s="219"/>
-      <c r="E105" s="220"/>
-      <c r="F105" s="154" t="s">
+      <c r="B105" s="135"/>
+      <c r="C105" s="136"/>
+      <c r="D105" s="136"/>
+      <c r="E105" s="137"/>
+      <c r="F105" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="G105" s="143"/>
-      <c r="H105" s="155"/>
-      <c r="I105" s="122">
+      <c r="G105" s="142"/>
+      <c r="H105" s="143"/>
+      <c r="I105" s="113">
         <v>4</v>
       </c>
-      <c r="J105" s="122">
+      <c r="J105" s="113">
         <v>5</v>
       </c>
-      <c r="K105" s="164" t="s">
+      <c r="K105" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="L105" s="164"/>
+      <c r="L105" s="147"/>
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
@@ -17333,17 +17341,17 @@
     </row>
     <row r="106" spans="1:123" s="59" customFormat="1" ht="9.6" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="218"/>
-      <c r="C106" s="219"/>
-      <c r="D106" s="219"/>
-      <c r="E106" s="220"/>
-      <c r="F106" s="156"/>
-      <c r="G106" s="157"/>
-      <c r="H106" s="158"/>
-      <c r="I106" s="122"/>
-      <c r="J106" s="122"/>
-      <c r="K106" s="122"/>
-      <c r="L106" s="122"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="136"/>
+      <c r="D106" s="136"/>
+      <c r="E106" s="137"/>
+      <c r="F106" s="149"/>
+      <c r="G106" s="150"/>
+      <c r="H106" s="151"/>
+      <c r="I106" s="113"/>
+      <c r="J106" s="113"/>
+      <c r="K106" s="113"/>
+      <c r="L106" s="113"/>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
       <c r="O106" s="15"/>
@@ -17458,25 +17466,25 @@
     </row>
     <row r="107" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="218"/>
-      <c r="C107" s="219"/>
-      <c r="D107" s="219"/>
-      <c r="E107" s="220"/>
-      <c r="F107" s="154" t="s">
+      <c r="B107" s="135"/>
+      <c r="C107" s="136"/>
+      <c r="D107" s="136"/>
+      <c r="E107" s="137"/>
+      <c r="F107" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="G107" s="143"/>
-      <c r="H107" s="155"/>
-      <c r="I107" s="122">
+      <c r="G107" s="142"/>
+      <c r="H107" s="143"/>
+      <c r="I107" s="113">
         <v>4</v>
       </c>
-      <c r="J107" s="122">
+      <c r="J107" s="113">
         <v>1</v>
       </c>
-      <c r="K107" s="164" t="s">
+      <c r="K107" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="L107" s="164"/>
+      <c r="L107" s="147"/>
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
       <c r="O107" s="15"/>
@@ -17590,17 +17598,17 @@
     </row>
     <row r="108" spans="1:123" s="59" customFormat="1" ht="9.6" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="218"/>
-      <c r="C108" s="219"/>
-      <c r="D108" s="219"/>
-      <c r="E108" s="220"/>
-      <c r="F108" s="156"/>
-      <c r="G108" s="157"/>
-      <c r="H108" s="158"/>
-      <c r="I108" s="122"/>
-      <c r="J108" s="122"/>
-      <c r="K108" s="122"/>
-      <c r="L108" s="122"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="136"/>
+      <c r="D108" s="136"/>
+      <c r="E108" s="137"/>
+      <c r="F108" s="149"/>
+      <c r="G108" s="150"/>
+      <c r="H108" s="151"/>
+      <c r="I108" s="113"/>
+      <c r="J108" s="113"/>
+      <c r="K108" s="113"/>
+      <c r="L108" s="113"/>
       <c r="M108" s="15"/>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
@@ -17715,25 +17723,25 @@
     </row>
     <row r="109" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="218"/>
-      <c r="C109" s="219"/>
-      <c r="D109" s="219"/>
-      <c r="E109" s="220"/>
-      <c r="F109" s="154" t="s">
+      <c r="B109" s="135"/>
+      <c r="C109" s="136"/>
+      <c r="D109" s="136"/>
+      <c r="E109" s="137"/>
+      <c r="F109" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="143"/>
-      <c r="H109" s="155"/>
-      <c r="I109" s="122">
+      <c r="G109" s="142"/>
+      <c r="H109" s="143"/>
+      <c r="I109" s="113">
         <v>3</v>
       </c>
-      <c r="J109" s="122">
+      <c r="J109" s="113">
         <v>1</v>
       </c>
-      <c r="K109" s="164" t="s">
+      <c r="K109" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="L109" s="164"/>
+      <c r="L109" s="147"/>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
@@ -17848,17 +17856,17 @@
     </row>
     <row r="110" spans="1:123" s="59" customFormat="1" ht="9.6" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="221"/>
-      <c r="C110" s="222"/>
-      <c r="D110" s="222"/>
-      <c r="E110" s="223"/>
-      <c r="F110" s="156"/>
-      <c r="G110" s="157"/>
-      <c r="H110" s="158"/>
-      <c r="I110" s="122"/>
-      <c r="J110" s="122"/>
-      <c r="K110" s="122"/>
-      <c r="L110" s="122"/>
+      <c r="B110" s="138"/>
+      <c r="C110" s="139"/>
+      <c r="D110" s="139"/>
+      <c r="E110" s="140"/>
+      <c r="F110" s="149"/>
+      <c r="G110" s="150"/>
+      <c r="H110" s="151"/>
+      <c r="I110" s="113"/>
+      <c r="J110" s="113"/>
+      <c r="K110" s="113"/>
+      <c r="L110" s="113"/>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
       <c r="O110" s="15"/>
@@ -17977,19 +17985,19 @@
       <c r="C111" s="1"/>
       <c r="D111" s="34"/>
       <c r="E111" s="78"/>
-      <c r="F111" s="163" t="s">
+      <c r="F111" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="G111" s="143"/>
-      <c r="H111" s="155"/>
-      <c r="I111" s="122">
+      <c r="G111" s="142"/>
+      <c r="H111" s="143"/>
+      <c r="I111" s="113">
         <v>0.5</v>
       </c>
-      <c r="J111" s="122"/>
-      <c r="K111" s="164" t="s">
+      <c r="J111" s="113"/>
+      <c r="K111" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="L111" s="122"/>
+      <c r="L111" s="113"/>
       <c r="M111" s="15"/>
       <c r="N111" s="15"/>
       <c r="O111" s="15"/>
@@ -18108,13 +18116,13 @@
       <c r="C112" s="1"/>
       <c r="D112" s="34"/>
       <c r="E112" s="78"/>
-      <c r="F112" s="145"/>
-      <c r="G112" s="157"/>
-      <c r="H112" s="158"/>
-      <c r="I112" s="122"/>
-      <c r="J112" s="122"/>
-      <c r="K112" s="122"/>
-      <c r="L112" s="122"/>
+      <c r="F112" s="161"/>
+      <c r="G112" s="150"/>
+      <c r="H112" s="151"/>
+      <c r="I112" s="113"/>
+      <c r="J112" s="113"/>
+      <c r="K112" s="113"/>
+      <c r="L112" s="113"/>
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
       <c r="O112" s="15"/>
@@ -18231,17 +18239,17 @@
       <c r="A113" s="16"/>
       <c r="B113" s="36"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="141" t="s">
+      <c r="D113" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="E113" s="142"/>
-      <c r="F113" s="143"/>
-      <c r="G113" s="143"/>
-      <c r="H113" s="144"/>
-      <c r="I113" s="120"/>
-      <c r="J113" s="120"/>
-      <c r="K113" s="165"/>
-      <c r="L113" s="167"/>
+      <c r="E113" s="184"/>
+      <c r="F113" s="142"/>
+      <c r="G113" s="142"/>
+      <c r="H113" s="176"/>
+      <c r="I113" s="166"/>
+      <c r="J113" s="166"/>
+      <c r="K113" s="164"/>
+      <c r="L113" s="162"/>
       <c r="M113" s="49"/>
       <c r="N113" s="50"/>
       <c r="O113" s="50"/>
@@ -18358,15 +18366,15 @@
       <c r="A114" s="16"/>
       <c r="B114" s="36"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="145"/>
-      <c r="E114" s="146"/>
-      <c r="F114" s="146"/>
-      <c r="G114" s="146"/>
-      <c r="H114" s="146"/>
-      <c r="I114" s="121"/>
-      <c r="J114" s="121"/>
-      <c r="K114" s="166"/>
-      <c r="L114" s="167"/>
+      <c r="D114" s="161"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="145"/>
+      <c r="G114" s="145"/>
+      <c r="H114" s="145"/>
+      <c r="I114" s="167"/>
+      <c r="J114" s="167"/>
+      <c r="K114" s="165"/>
+      <c r="L114" s="162"/>
       <c r="M114" s="51"/>
       <c r="N114" s="48"/>
       <c r="O114" s="48"/>
@@ -18484,16 +18492,16 @@
       <c r="B115" s="18"/>
       <c r="C115" s="1"/>
       <c r="D115" s="34"/>
-      <c r="E115" s="147" t="s">
+      <c r="E115" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="F115" s="148"/>
-      <c r="G115" s="148"/>
-      <c r="H115" s="149"/>
-      <c r="I115" s="120"/>
-      <c r="J115" s="120"/>
-      <c r="K115" s="165"/>
-      <c r="L115" s="167"/>
+      <c r="F115" s="209"/>
+      <c r="G115" s="209"/>
+      <c r="H115" s="210"/>
+      <c r="I115" s="166"/>
+      <c r="J115" s="166"/>
+      <c r="K115" s="164"/>
+      <c r="L115" s="162"/>
       <c r="M115" s="49"/>
       <c r="N115" s="50"/>
       <c r="O115" s="50"/>
@@ -18611,14 +18619,14 @@
       <c r="B116" s="18"/>
       <c r="C116" s="1"/>
       <c r="D116" s="34"/>
-      <c r="E116" s="153"/>
-      <c r="F116" s="151"/>
-      <c r="G116" s="151"/>
-      <c r="H116" s="152"/>
-      <c r="I116" s="121"/>
-      <c r="J116" s="121"/>
-      <c r="K116" s="166"/>
-      <c r="L116" s="167"/>
+      <c r="E116" s="217"/>
+      <c r="F116" s="212"/>
+      <c r="G116" s="212"/>
+      <c r="H116" s="213"/>
+      <c r="I116" s="167"/>
+      <c r="J116" s="167"/>
+      <c r="K116" s="165"/>
+      <c r="L116" s="162"/>
       <c r="M116" s="51"/>
       <c r="N116" s="48"/>
       <c r="O116" s="48"/>
@@ -18733,25 +18741,27 @@
     </row>
     <row r="117" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="207" t="s">
+      <c r="B117" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="208"/>
-      <c r="D117" s="208"/>
-      <c r="E117" s="209"/>
-      <c r="F117" s="163" t="s">
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="126"/>
+      <c r="F117" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="G117" s="143"/>
-      <c r="H117" s="155"/>
-      <c r="I117" s="122">
+      <c r="G117" s="142"/>
+      <c r="H117" s="143"/>
+      <c r="I117" s="113">
         <v>3</v>
       </c>
-      <c r="J117" s="122"/>
-      <c r="K117" s="164" t="s">
+      <c r="J117" s="113">
+        <v>2.5</v>
+      </c>
+      <c r="K117" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="L117" s="122"/>
+      <c r="L117" s="113"/>
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
@@ -18866,17 +18876,17 @@
     </row>
     <row r="118" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="210"/>
-      <c r="C118" s="211"/>
-      <c r="D118" s="211"/>
-      <c r="E118" s="212"/>
-      <c r="F118" s="145"/>
-      <c r="G118" s="157"/>
-      <c r="H118" s="158"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="122"/>
-      <c r="K118" s="122"/>
-      <c r="L118" s="122"/>
+      <c r="B118" s="127"/>
+      <c r="C118" s="128"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="129"/>
+      <c r="F118" s="161"/>
+      <c r="G118" s="150"/>
+      <c r="H118" s="151"/>
+      <c r="I118" s="113"/>
+      <c r="J118" s="113"/>
+      <c r="K118" s="113"/>
+      <c r="L118" s="113"/>
       <c r="M118" s="15"/>
       <c r="N118" s="15"/>
       <c r="O118" s="15"/>
@@ -18991,23 +19001,25 @@
     </row>
     <row r="119" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="210"/>
-      <c r="C119" s="211"/>
-      <c r="D119" s="211"/>
-      <c r="E119" s="212"/>
-      <c r="F119" s="163" t="s">
+      <c r="B119" s="127"/>
+      <c r="C119" s="128"/>
+      <c r="D119" s="128"/>
+      <c r="E119" s="129"/>
+      <c r="F119" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="143"/>
-      <c r="H119" s="155"/>
-      <c r="I119" s="122">
+      <c r="G119" s="142"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="113">
         <v>5</v>
       </c>
-      <c r="J119" s="122"/>
-      <c r="K119" s="164" t="s">
+      <c r="J119" s="113">
+        <v>9</v>
+      </c>
+      <c r="K119" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="L119" s="122"/>
+      <c r="L119" s="113"/>
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
@@ -19121,17 +19133,17 @@
     </row>
     <row r="120" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="213"/>
-      <c r="C120" s="214"/>
-      <c r="D120" s="214"/>
-      <c r="E120" s="215"/>
-      <c r="F120" s="145"/>
-      <c r="G120" s="157"/>
-      <c r="H120" s="158"/>
-      <c r="I120" s="122"/>
-      <c r="J120" s="122"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="122"/>
+      <c r="B120" s="130"/>
+      <c r="C120" s="131"/>
+      <c r="D120" s="131"/>
+      <c r="E120" s="132"/>
+      <c r="F120" s="161"/>
+      <c r="G120" s="150"/>
+      <c r="H120" s="151"/>
+      <c r="I120" s="113"/>
+      <c r="J120" s="113"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
       <c r="M120" s="15"/>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
@@ -19181,8 +19193,8 @@
       <c r="BG120" s="52"/>
       <c r="BH120" s="15"/>
       <c r="BI120" s="15"/>
-      <c r="BJ120" s="15"/>
-      <c r="BK120" s="15"/>
+      <c r="BJ120" s="112"/>
+      <c r="BK120" s="112"/>
       <c r="BL120" s="15"/>
       <c r="BM120" s="15"/>
       <c r="BN120" s="15"/>
@@ -19250,19 +19262,19 @@
       <c r="C121" s="1"/>
       <c r="D121" s="34"/>
       <c r="E121" s="78"/>
-      <c r="F121" s="163" t="s">
+      <c r="F121" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="G121" s="143"/>
-      <c r="H121" s="155"/>
-      <c r="I121" s="122">
+      <c r="G121" s="142"/>
+      <c r="H121" s="143"/>
+      <c r="I121" s="113">
         <v>0.5</v>
       </c>
-      <c r="J121" s="122"/>
-      <c r="K121" s="164" t="s">
+      <c r="J121" s="113"/>
+      <c r="K121" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="L121" s="122"/>
+      <c r="L121" s="113"/>
       <c r="M121" s="15"/>
       <c r="N121" s="15"/>
       <c r="O121" s="15"/>
@@ -19381,13 +19393,13 @@
       <c r="C122" s="1"/>
       <c r="D122" s="34"/>
       <c r="E122" s="78"/>
-      <c r="F122" s="205"/>
-      <c r="G122" s="146"/>
-      <c r="H122" s="174"/>
-      <c r="I122" s="122"/>
-      <c r="J122" s="122"/>
-      <c r="K122" s="122"/>
-      <c r="L122" s="122"/>
+      <c r="F122" s="144"/>
+      <c r="G122" s="145"/>
+      <c r="H122" s="146"/>
+      <c r="I122" s="113"/>
+      <c r="J122" s="113"/>
+      <c r="K122" s="113"/>
+      <c r="L122" s="113"/>
       <c r="M122" s="15"/>
       <c r="N122" s="15"/>
       <c r="O122" s="15"/>
@@ -19505,16 +19517,16 @@
       <c r="B123" s="18"/>
       <c r="C123" s="1"/>
       <c r="D123" s="34"/>
-      <c r="E123" s="224" t="s">
+      <c r="E123" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="F123" s="224"/>
-      <c r="G123" s="224"/>
-      <c r="H123" s="224"/>
-      <c r="I123" s="120"/>
-      <c r="J123" s="120"/>
-      <c r="K123" s="165"/>
-      <c r="L123" s="168"/>
+      <c r="F123" s="154"/>
+      <c r="G123" s="154"/>
+      <c r="H123" s="154"/>
+      <c r="I123" s="166"/>
+      <c r="J123" s="166"/>
+      <c r="K123" s="164"/>
+      <c r="L123" s="206"/>
       <c r="M123" s="49"/>
       <c r="N123" s="50"/>
       <c r="O123" s="50"/>
@@ -19632,14 +19644,14 @@
       <c r="B124" s="18"/>
       <c r="C124" s="1"/>
       <c r="D124" s="34"/>
-      <c r="E124" s="224"/>
-      <c r="F124" s="224"/>
-      <c r="G124" s="224"/>
-      <c r="H124" s="224"/>
-      <c r="I124" s="121"/>
-      <c r="J124" s="121"/>
-      <c r="K124" s="166"/>
-      <c r="L124" s="169"/>
+      <c r="E124" s="154"/>
+      <c r="F124" s="154"/>
+      <c r="G124" s="154"/>
+      <c r="H124" s="154"/>
+      <c r="I124" s="167"/>
+      <c r="J124" s="167"/>
+      <c r="K124" s="165"/>
+      <c r="L124" s="207"/>
       <c r="M124" s="51"/>
       <c r="N124" s="48"/>
       <c r="O124" s="48"/>
@@ -19754,25 +19766,27 @@
     </row>
     <row r="125" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="207" t="s">
+      <c r="B125" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="C125" s="216"/>
-      <c r="D125" s="216"/>
-      <c r="E125" s="217"/>
-      <c r="F125" s="173" t="s">
+      <c r="C125" s="133"/>
+      <c r="D125" s="133"/>
+      <c r="E125" s="134"/>
+      <c r="F125" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="G125" s="146"/>
-      <c r="H125" s="174"/>
-      <c r="I125" s="122">
+      <c r="G125" s="145"/>
+      <c r="H125" s="146"/>
+      <c r="I125" s="113">
         <v>2</v>
       </c>
-      <c r="J125" s="122"/>
-      <c r="K125" s="164" t="s">
+      <c r="J125" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="K125" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="L125" s="164"/>
+      <c r="L125" s="147"/>
       <c r="M125" s="15"/>
       <c r="N125" s="15"/>
       <c r="O125" s="15"/>
@@ -19825,7 +19839,7 @@
       <c r="BJ125" s="15"/>
       <c r="BL125" s="40"/>
       <c r="BM125" s="15"/>
-      <c r="BN125" s="238"/>
+      <c r="BN125" s="109"/>
       <c r="BO125" s="15"/>
       <c r="BP125" s="15"/>
       <c r="BQ125" s="15"/>
@@ -19886,17 +19900,17 @@
     </row>
     <row r="126" spans="1:123" s="59" customFormat="1" ht="9.6" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="218"/>
-      <c r="C126" s="219"/>
-      <c r="D126" s="219"/>
-      <c r="E126" s="220"/>
-      <c r="F126" s="156"/>
-      <c r="G126" s="157"/>
-      <c r="H126" s="158"/>
-      <c r="I126" s="122"/>
-      <c r="J126" s="122"/>
-      <c r="K126" s="122"/>
-      <c r="L126" s="122"/>
+      <c r="B126" s="135"/>
+      <c r="C126" s="136"/>
+      <c r="D126" s="136"/>
+      <c r="E126" s="137"/>
+      <c r="F126" s="149"/>
+      <c r="G126" s="150"/>
+      <c r="H126" s="151"/>
+      <c r="I126" s="113"/>
+      <c r="J126" s="113"/>
+      <c r="K126" s="113"/>
+      <c r="L126" s="113"/>
       <c r="M126" s="15"/>
       <c r="N126" s="15"/>
       <c r="O126" s="15"/>
@@ -19947,10 +19961,10 @@
       <c r="BH126" s="15"/>
       <c r="BI126" s="15"/>
       <c r="BJ126" s="15"/>
-      <c r="BK126" s="15"/>
+      <c r="BK126" s="112"/>
       <c r="BL126" s="15"/>
       <c r="BM126" s="15"/>
-      <c r="BN126" s="238"/>
+      <c r="BN126" s="109"/>
       <c r="BO126" s="15"/>
       <c r="BP126" s="15"/>
       <c r="BQ126" s="15"/>
@@ -20011,23 +20025,25 @@
     </row>
     <row r="127" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="218"/>
-      <c r="C127" s="219"/>
-      <c r="D127" s="219"/>
-      <c r="E127" s="220"/>
-      <c r="F127" s="154" t="s">
+      <c r="B127" s="135"/>
+      <c r="C127" s="136"/>
+      <c r="D127" s="136"/>
+      <c r="E127" s="137"/>
+      <c r="F127" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="143"/>
-      <c r="H127" s="155"/>
-      <c r="I127" s="122">
+      <c r="G127" s="142"/>
+      <c r="H127" s="143"/>
+      <c r="I127" s="113">
         <v>3</v>
       </c>
-      <c r="J127" s="122"/>
-      <c r="K127" s="164" t="s">
+      <c r="J127" s="113">
+        <v>2.5</v>
+      </c>
+      <c r="K127" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="L127" s="164"/>
+      <c r="L127" s="147"/>
       <c r="M127" s="15"/>
       <c r="N127" s="15"/>
       <c r="O127" s="15"/>
@@ -20080,7 +20096,7 @@
       <c r="BJ127" s="15"/>
       <c r="BK127" s="15"/>
       <c r="BM127" s="40"/>
-      <c r="BN127" s="239"/>
+      <c r="BN127" s="110"/>
       <c r="BO127" s="15"/>
       <c r="BP127" s="15"/>
       <c r="BQ127" s="15"/>
@@ -20140,17 +20156,17 @@
     </row>
     <row r="128" spans="1:123" s="59" customFormat="1" ht="9.6" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="218"/>
-      <c r="C128" s="219"/>
-      <c r="D128" s="219"/>
-      <c r="E128" s="220"/>
-      <c r="F128" s="156"/>
-      <c r="G128" s="157"/>
-      <c r="H128" s="158"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="122"/>
-      <c r="K128" s="122"/>
-      <c r="L128" s="122"/>
+      <c r="B128" s="135"/>
+      <c r="C128" s="136"/>
+      <c r="D128" s="136"/>
+      <c r="E128" s="137"/>
+      <c r="F128" s="149"/>
+      <c r="G128" s="150"/>
+      <c r="H128" s="151"/>
+      <c r="I128" s="113"/>
+      <c r="J128" s="113"/>
+      <c r="K128" s="113"/>
+      <c r="L128" s="113"/>
       <c r="M128" s="15"/>
       <c r="N128" s="15"/>
       <c r="O128" s="15"/>
@@ -20202,9 +20218,9 @@
       <c r="BI128" s="15"/>
       <c r="BJ128" s="15"/>
       <c r="BK128" s="15"/>
-      <c r="BL128" s="15"/>
+      <c r="BL128" s="112"/>
       <c r="BM128" s="15"/>
-      <c r="BN128" s="238"/>
+      <c r="BN128" s="109"/>
       <c r="BO128" s="15"/>
       <c r="BP128" s="15"/>
       <c r="BQ128" s="15"/>
@@ -20265,23 +20281,23 @@
     </row>
     <row r="129" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="218"/>
-      <c r="C129" s="219"/>
-      <c r="D129" s="219"/>
-      <c r="E129" s="220"/>
-      <c r="F129" s="154" t="s">
+      <c r="B129" s="135"/>
+      <c r="C129" s="136"/>
+      <c r="D129" s="136"/>
+      <c r="E129" s="137"/>
+      <c r="F129" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="G129" s="143"/>
-      <c r="H129" s="155"/>
-      <c r="I129" s="122">
+      <c r="G129" s="142"/>
+      <c r="H129" s="143"/>
+      <c r="I129" s="113">
         <v>6</v>
       </c>
-      <c r="J129" s="122"/>
-      <c r="K129" s="164" t="s">
+      <c r="J129" s="113"/>
+      <c r="K129" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="L129" s="164"/>
+      <c r="L129" s="147"/>
       <c r="M129" s="15"/>
       <c r="N129" s="15"/>
       <c r="O129" s="15"/>
@@ -20334,7 +20350,7 @@
       <c r="BJ129" s="15"/>
       <c r="BK129" s="15"/>
       <c r="BL129" s="15"/>
-      <c r="BN129" s="240"/>
+      <c r="BN129" s="111"/>
       <c r="BO129" s="15"/>
       <c r="BP129" s="15"/>
       <c r="BQ129" s="40"/>
@@ -20395,17 +20411,17 @@
     </row>
     <row r="130" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="218"/>
-      <c r="C130" s="219"/>
-      <c r="D130" s="219"/>
-      <c r="E130" s="220"/>
-      <c r="F130" s="156"/>
-      <c r="G130" s="157"/>
-      <c r="H130" s="158"/>
-      <c r="I130" s="122"/>
-      <c r="J130" s="122"/>
-      <c r="K130" s="122"/>
-      <c r="L130" s="122"/>
+      <c r="B130" s="135"/>
+      <c r="C130" s="136"/>
+      <c r="D130" s="136"/>
+      <c r="E130" s="137"/>
+      <c r="F130" s="149"/>
+      <c r="G130" s="150"/>
+      <c r="H130" s="151"/>
+      <c r="I130" s="113"/>
+      <c r="J130" s="113"/>
+      <c r="K130" s="113"/>
+      <c r="L130" s="113"/>
       <c r="M130" s="15"/>
       <c r="N130" s="15"/>
       <c r="O130" s="15"/>
@@ -20459,7 +20475,7 @@
       <c r="BK130" s="15"/>
       <c r="BL130" s="15"/>
       <c r="BM130" s="15"/>
-      <c r="BN130" s="238"/>
+      <c r="BN130" s="109"/>
       <c r="BO130" s="15"/>
       <c r="BP130" s="15"/>
       <c r="BQ130" s="15"/>
@@ -20520,23 +20536,23 @@
     </row>
     <row r="131" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="218"/>
-      <c r="C131" s="219"/>
-      <c r="D131" s="219"/>
-      <c r="E131" s="220"/>
-      <c r="F131" s="154" t="s">
+      <c r="B131" s="135"/>
+      <c r="C131" s="136"/>
+      <c r="D131" s="136"/>
+      <c r="E131" s="137"/>
+      <c r="F131" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="G131" s="143"/>
-      <c r="H131" s="155"/>
-      <c r="I131" s="122">
+      <c r="G131" s="142"/>
+      <c r="H131" s="143"/>
+      <c r="I131" s="113">
         <v>4</v>
       </c>
-      <c r="J131" s="122"/>
-      <c r="K131" s="164" t="s">
+      <c r="J131" s="113"/>
+      <c r="K131" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="L131" s="164"/>
+      <c r="L131" s="147"/>
       <c r="M131" s="15"/>
       <c r="N131" s="15"/>
       <c r="O131" s="15"/>
@@ -20590,7 +20606,7 @@
       <c r="BK131" s="15"/>
       <c r="BL131" s="15"/>
       <c r="BM131" s="15"/>
-      <c r="BN131" s="239"/>
+      <c r="BN131" s="110"/>
       <c r="BO131" s="15"/>
       <c r="BP131" s="15"/>
       <c r="BS131" s="40"/>
@@ -20648,17 +20664,17 @@
     </row>
     <row r="132" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="218"/>
-      <c r="C132" s="219"/>
-      <c r="D132" s="219"/>
-      <c r="E132" s="220"/>
-      <c r="F132" s="156"/>
-      <c r="G132" s="157"/>
-      <c r="H132" s="158"/>
-      <c r="I132" s="122"/>
-      <c r="J132" s="122"/>
-      <c r="K132" s="122"/>
-      <c r="L132" s="122"/>
+      <c r="B132" s="135"/>
+      <c r="C132" s="136"/>
+      <c r="D132" s="136"/>
+      <c r="E132" s="137"/>
+      <c r="F132" s="149"/>
+      <c r="G132" s="150"/>
+      <c r="H132" s="151"/>
+      <c r="I132" s="113"/>
+      <c r="J132" s="113"/>
+      <c r="K132" s="113"/>
+      <c r="L132" s="113"/>
       <c r="M132" s="15"/>
       <c r="N132" s="15"/>
       <c r="O132" s="15"/>
@@ -20712,7 +20728,7 @@
       <c r="BK132" s="15"/>
       <c r="BL132" s="15"/>
       <c r="BM132" s="15"/>
-      <c r="BN132" s="238"/>
+      <c r="BN132" s="109"/>
       <c r="BO132" s="15"/>
       <c r="BP132" s="15"/>
       <c r="BQ132" s="15"/>
@@ -20773,23 +20789,23 @@
     </row>
     <row r="133" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="218"/>
-      <c r="C133" s="219"/>
-      <c r="D133" s="219"/>
-      <c r="E133" s="220"/>
-      <c r="F133" s="154" t="s">
+      <c r="B133" s="135"/>
+      <c r="C133" s="136"/>
+      <c r="D133" s="136"/>
+      <c r="E133" s="137"/>
+      <c r="F133" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="G133" s="143"/>
-      <c r="H133" s="155"/>
-      <c r="I133" s="122">
+      <c r="G133" s="142"/>
+      <c r="H133" s="143"/>
+      <c r="I133" s="113">
         <v>4</v>
       </c>
-      <c r="J133" s="122"/>
-      <c r="K133" s="164" t="s">
+      <c r="J133" s="113"/>
+      <c r="K133" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="L133" s="164"/>
+      <c r="L133" s="147"/>
       <c r="M133" s="15"/>
       <c r="N133" s="15"/>
       <c r="O133" s="15"/>
@@ -20843,7 +20859,7 @@
       <c r="BK133" s="15"/>
       <c r="BL133" s="15"/>
       <c r="BM133" s="15"/>
-      <c r="BN133" s="238"/>
+      <c r="BN133" s="109"/>
       <c r="BO133" s="15"/>
       <c r="BP133" s="15"/>
       <c r="BQ133" s="15"/>
@@ -20902,17 +20918,17 @@
     </row>
     <row r="134" spans="1:123" s="59" customFormat="1" ht="9.75" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="221"/>
-      <c r="C134" s="222"/>
-      <c r="D134" s="222"/>
-      <c r="E134" s="223"/>
-      <c r="F134" s="156"/>
-      <c r="G134" s="157"/>
-      <c r="H134" s="158"/>
-      <c r="I134" s="122"/>
-      <c r="J134" s="122"/>
-      <c r="K134" s="122"/>
-      <c r="L134" s="122"/>
+      <c r="B134" s="138"/>
+      <c r="C134" s="139"/>
+      <c r="D134" s="139"/>
+      <c r="E134" s="140"/>
+      <c r="F134" s="149"/>
+      <c r="G134" s="150"/>
+      <c r="H134" s="151"/>
+      <c r="I134" s="113"/>
+      <c r="J134" s="113"/>
+      <c r="K134" s="113"/>
+      <c r="L134" s="113"/>
       <c r="M134" s="15"/>
       <c r="N134" s="15"/>
       <c r="O134" s="15"/>
@@ -20966,7 +20982,7 @@
       <c r="BK134" s="15"/>
       <c r="BL134" s="15"/>
       <c r="BM134" s="15"/>
-      <c r="BN134" s="238"/>
+      <c r="BN134" s="109"/>
       <c r="BO134" s="15"/>
       <c r="BP134" s="15"/>
       <c r="BQ134" s="15"/>
@@ -21031,19 +21047,19 @@
       <c r="C135" s="1"/>
       <c r="D135" s="34"/>
       <c r="E135" s="78"/>
-      <c r="F135" s="163" t="s">
+      <c r="F135" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="G135" s="143"/>
-      <c r="H135" s="155"/>
-      <c r="I135" s="122">
+      <c r="G135" s="142"/>
+      <c r="H135" s="143"/>
+      <c r="I135" s="113">
         <v>0.5</v>
       </c>
-      <c r="J135" s="122"/>
-      <c r="K135" s="164" t="s">
+      <c r="J135" s="113"/>
+      <c r="K135" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="L135" s="122"/>
+      <c r="L135" s="113"/>
       <c r="M135" s="15"/>
       <c r="N135" s="15"/>
       <c r="O135" s="15"/>
@@ -21097,7 +21113,7 @@
       <c r="BK135" s="15"/>
       <c r="BL135" s="15"/>
       <c r="BM135" s="15"/>
-      <c r="BN135" s="238"/>
+      <c r="BN135" s="109"/>
       <c r="BO135" s="15"/>
       <c r="BP135" s="15"/>
       <c r="BQ135" s="15"/>
@@ -21162,13 +21178,13 @@
       <c r="C136" s="1"/>
       <c r="D136" s="78"/>
       <c r="E136" s="78"/>
-      <c r="F136" s="205"/>
-      <c r="G136" s="146"/>
-      <c r="H136" s="174"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="122"/>
-      <c r="K136" s="122"/>
-      <c r="L136" s="122"/>
+      <c r="F136" s="144"/>
+      <c r="G136" s="145"/>
+      <c r="H136" s="146"/>
+      <c r="I136" s="113"/>
+      <c r="J136" s="113"/>
+      <c r="K136" s="113"/>
+      <c r="L136" s="113"/>
       <c r="M136" s="15"/>
       <c r="N136" s="15"/>
       <c r="O136" s="15"/>
@@ -21222,7 +21238,7 @@
       <c r="BK136" s="15"/>
       <c r="BL136" s="15"/>
       <c r="BM136" s="15"/>
-      <c r="BN136" s="238"/>
+      <c r="BN136" s="109"/>
       <c r="BO136" s="15"/>
       <c r="BP136" s="15"/>
       <c r="BQ136" s="15"/>
@@ -21285,17 +21301,17 @@
       <c r="A137" s="1"/>
       <c r="B137" s="18"/>
       <c r="C137" s="81"/>
-      <c r="D137" s="128" t="s">
+      <c r="D137" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="E137" s="129"/>
-      <c r="F137" s="129"/>
-      <c r="G137" s="129"/>
-      <c r="H137" s="130"/>
-      <c r="I137" s="120"/>
-      <c r="J137" s="118"/>
-      <c r="K137" s="120"/>
-      <c r="L137" s="118"/>
+      <c r="E137" s="156"/>
+      <c r="F137" s="156"/>
+      <c r="G137" s="156"/>
+      <c r="H137" s="157"/>
+      <c r="I137" s="166"/>
+      <c r="J137" s="197"/>
+      <c r="K137" s="166"/>
+      <c r="L137" s="197"/>
       <c r="M137" s="82"/>
       <c r="N137" s="83"/>
       <c r="O137" s="83"/>
@@ -21412,15 +21428,15 @@
       <c r="A138" s="1"/>
       <c r="B138" s="18"/>
       <c r="C138" s="81"/>
-      <c r="D138" s="131"/>
-      <c r="E138" s="126"/>
-      <c r="F138" s="126"/>
-      <c r="G138" s="126"/>
-      <c r="H138" s="127"/>
-      <c r="I138" s="121"/>
-      <c r="J138" s="118"/>
-      <c r="K138" s="121"/>
-      <c r="L138" s="118"/>
+      <c r="D138" s="158"/>
+      <c r="E138" s="159"/>
+      <c r="F138" s="159"/>
+      <c r="G138" s="159"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="167"/>
+      <c r="J138" s="197"/>
+      <c r="K138" s="167"/>
+      <c r="L138" s="197"/>
       <c r="M138" s="84"/>
       <c r="N138" s="85"/>
       <c r="O138" s="85"/>
@@ -21538,16 +21554,16 @@
       <c r="B139" s="18"/>
       <c r="C139" s="81"/>
       <c r="D139" s="86"/>
-      <c r="E139" s="123" t="s">
+      <c r="E139" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="F139" s="124"/>
-      <c r="G139" s="124"/>
-      <c r="H139" s="125"/>
-      <c r="I139" s="120"/>
-      <c r="J139" s="118"/>
-      <c r="K139" s="120"/>
-      <c r="L139" s="118"/>
+      <c r="F139" s="219"/>
+      <c r="G139" s="219"/>
+      <c r="H139" s="220"/>
+      <c r="I139" s="166"/>
+      <c r="J139" s="197"/>
+      <c r="K139" s="166"/>
+      <c r="L139" s="197"/>
       <c r="M139" s="82"/>
       <c r="N139" s="83"/>
       <c r="O139" s="83"/>
@@ -21665,14 +21681,14 @@
       <c r="B140" s="18"/>
       <c r="C140" s="81"/>
       <c r="D140" s="86"/>
-      <c r="E140" s="123"/>
-      <c r="F140" s="126"/>
-      <c r="G140" s="126"/>
-      <c r="H140" s="127"/>
-      <c r="I140" s="121"/>
-      <c r="J140" s="118"/>
-      <c r="K140" s="121"/>
-      <c r="L140" s="118"/>
+      <c r="E140" s="218"/>
+      <c r="F140" s="159"/>
+      <c r="G140" s="159"/>
+      <c r="H140" s="160"/>
+      <c r="I140" s="167"/>
+      <c r="J140" s="197"/>
+      <c r="K140" s="167"/>
+      <c r="L140" s="197"/>
       <c r="M140" s="84"/>
       <c r="N140" s="85"/>
       <c r="O140" s="85"/>
@@ -21787,25 +21803,25 @@
     </row>
     <row r="141" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="132" t="s">
+      <c r="B141" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="133"/>
-      <c r="D141" s="133"/>
-      <c r="E141" s="134"/>
-      <c r="F141" s="109" t="s">
+      <c r="C141" s="116"/>
+      <c r="D141" s="116"/>
+      <c r="E141" s="117"/>
+      <c r="F141" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="G141" s="110"/>
-      <c r="H141" s="111"/>
-      <c r="I141" s="122">
+      <c r="G141" s="222"/>
+      <c r="H141" s="223"/>
+      <c r="I141" s="113">
         <v>2</v>
       </c>
-      <c r="J141" s="122"/>
-      <c r="K141" s="119" t="s">
+      <c r="J141" s="113"/>
+      <c r="K141" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="L141" s="108"/>
+      <c r="L141" s="153"/>
       <c r="M141" s="88"/>
       <c r="N141" s="88"/>
       <c r="O141" s="88"/>
@@ -21920,17 +21936,17 @@
     </row>
     <row r="142" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="135"/>
-      <c r="C142" s="136"/>
-      <c r="D142" s="136"/>
-      <c r="E142" s="137"/>
-      <c r="F142" s="112"/>
-      <c r="G142" s="113"/>
-      <c r="H142" s="114"/>
-      <c r="I142" s="122"/>
-      <c r="J142" s="122"/>
-      <c r="K142" s="108"/>
-      <c r="L142" s="108"/>
+      <c r="B142" s="118"/>
+      <c r="C142" s="119"/>
+      <c r="D142" s="119"/>
+      <c r="E142" s="120"/>
+      <c r="F142" s="224"/>
+      <c r="G142" s="225"/>
+      <c r="H142" s="226"/>
+      <c r="I142" s="113"/>
+      <c r="J142" s="113"/>
+      <c r="K142" s="153"/>
+      <c r="L142" s="153"/>
       <c r="M142" s="88"/>
       <c r="N142" s="88"/>
       <c r="O142" s="88"/>
@@ -22044,23 +22060,23 @@
     </row>
     <row r="143" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="135"/>
-      <c r="C143" s="136"/>
-      <c r="D143" s="136"/>
-      <c r="E143" s="137"/>
-      <c r="F143" s="109" t="s">
+      <c r="B143" s="118"/>
+      <c r="C143" s="119"/>
+      <c r="D143" s="119"/>
+      <c r="E143" s="120"/>
+      <c r="F143" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="G143" s="110"/>
-      <c r="H143" s="111"/>
-      <c r="I143" s="122">
+      <c r="G143" s="222"/>
+      <c r="H143" s="223"/>
+      <c r="I143" s="113">
         <v>3</v>
       </c>
-      <c r="J143" s="122"/>
-      <c r="K143" s="119" t="s">
+      <c r="J143" s="113"/>
+      <c r="K143" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="L143" s="108"/>
+      <c r="L143" s="153"/>
       <c r="M143" s="88"/>
       <c r="N143" s="88"/>
       <c r="O143" s="88"/>
@@ -22175,17 +22191,17 @@
     </row>
     <row r="144" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="138"/>
-      <c r="C144" s="139"/>
-      <c r="D144" s="139"/>
-      <c r="E144" s="140"/>
-      <c r="F144" s="112"/>
-      <c r="G144" s="113"/>
-      <c r="H144" s="114"/>
-      <c r="I144" s="122"/>
-      <c r="J144" s="122"/>
-      <c r="K144" s="108"/>
-      <c r="L144" s="108"/>
+      <c r="B144" s="121"/>
+      <c r="C144" s="122"/>
+      <c r="D144" s="122"/>
+      <c r="E144" s="123"/>
+      <c r="F144" s="224"/>
+      <c r="G144" s="225"/>
+      <c r="H144" s="226"/>
+      <c r="I144" s="113"/>
+      <c r="J144" s="113"/>
+      <c r="K144" s="153"/>
+      <c r="L144" s="153"/>
       <c r="M144" s="88"/>
       <c r="N144" s="88"/>
       <c r="O144" s="88"/>
@@ -22299,25 +22315,25 @@
     </row>
     <row r="145" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="132" t="s">
+      <c r="B145" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C145" s="133"/>
-      <c r="D145" s="133"/>
-      <c r="E145" s="134"/>
-      <c r="F145" s="109" t="s">
+      <c r="C145" s="116"/>
+      <c r="D145" s="116"/>
+      <c r="E145" s="117"/>
+      <c r="F145" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="G145" s="110"/>
-      <c r="H145" s="111"/>
-      <c r="I145" s="122">
+      <c r="G145" s="222"/>
+      <c r="H145" s="223"/>
+      <c r="I145" s="113">
         <v>2</v>
       </c>
-      <c r="J145" s="122"/>
-      <c r="K145" s="119" t="s">
+      <c r="J145" s="113"/>
+      <c r="K145" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="L145" s="108"/>
+      <c r="L145" s="153"/>
       <c r="M145" s="88"/>
       <c r="N145" s="88"/>
       <c r="O145" s="88"/>
@@ -22430,17 +22446,17 @@
     </row>
     <row r="146" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="135"/>
-      <c r="C146" s="136"/>
-      <c r="D146" s="136"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="112"/>
-      <c r="G146" s="113"/>
-      <c r="H146" s="114"/>
-      <c r="I146" s="122"/>
-      <c r="J146" s="122"/>
-      <c r="K146" s="108"/>
-      <c r="L146" s="108"/>
+      <c r="B146" s="118"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="120"/>
+      <c r="F146" s="224"/>
+      <c r="G146" s="225"/>
+      <c r="H146" s="226"/>
+      <c r="I146" s="113"/>
+      <c r="J146" s="113"/>
+      <c r="K146" s="153"/>
+      <c r="L146" s="153"/>
       <c r="M146" s="88"/>
       <c r="N146" s="88"/>
       <c r="O146" s="88"/>
@@ -22555,23 +22571,23 @@
     </row>
     <row r="147" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="135"/>
-      <c r="C147" s="136"/>
-      <c r="D147" s="136"/>
-      <c r="E147" s="137"/>
-      <c r="F147" s="109" t="s">
+      <c r="B147" s="118"/>
+      <c r="C147" s="119"/>
+      <c r="D147" s="119"/>
+      <c r="E147" s="120"/>
+      <c r="F147" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="110"/>
-      <c r="H147" s="111"/>
-      <c r="I147" s="122">
+      <c r="G147" s="222"/>
+      <c r="H147" s="223"/>
+      <c r="I147" s="113">
         <v>3</v>
       </c>
-      <c r="J147" s="122"/>
-      <c r="K147" s="119" t="s">
+      <c r="J147" s="113"/>
+      <c r="K147" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="L147" s="108"/>
+      <c r="L147" s="153"/>
       <c r="M147" s="88"/>
       <c r="N147" s="88"/>
       <c r="O147" s="88"/>
@@ -22686,17 +22702,17 @@
     </row>
     <row r="148" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="138"/>
-      <c r="C148" s="139"/>
-      <c r="D148" s="139"/>
-      <c r="E148" s="140"/>
-      <c r="F148" s="112"/>
-      <c r="G148" s="113"/>
-      <c r="H148" s="114"/>
-      <c r="I148" s="122"/>
-      <c r="J148" s="122"/>
-      <c r="K148" s="108"/>
-      <c r="L148" s="108"/>
+      <c r="B148" s="121"/>
+      <c r="C148" s="122"/>
+      <c r="D148" s="122"/>
+      <c r="E148" s="123"/>
+      <c r="F148" s="224"/>
+      <c r="G148" s="225"/>
+      <c r="H148" s="226"/>
+      <c r="I148" s="113"/>
+      <c r="J148" s="113"/>
+      <c r="K148" s="153"/>
+      <c r="L148" s="153"/>
       <c r="M148" s="88"/>
       <c r="N148" s="88"/>
       <c r="O148" s="88"/>
@@ -22815,19 +22831,19 @@
       <c r="C149" s="81"/>
       <c r="D149" s="87"/>
       <c r="E149" s="89"/>
-      <c r="F149" s="109" t="s">
+      <c r="F149" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="G149" s="110"/>
-      <c r="H149" s="111"/>
-      <c r="I149" s="122">
+      <c r="G149" s="222"/>
+      <c r="H149" s="223"/>
+      <c r="I149" s="113">
         <v>0.5</v>
       </c>
-      <c r="J149" s="122"/>
-      <c r="K149" s="119" t="s">
+      <c r="J149" s="113"/>
+      <c r="K149" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="L149" s="108"/>
+      <c r="L149" s="153"/>
       <c r="M149" s="88"/>
       <c r="N149" s="88"/>
       <c r="O149" s="88"/>
@@ -22946,13 +22962,13 @@
       <c r="C150" s="81"/>
       <c r="D150" s="87"/>
       <c r="E150" s="90"/>
-      <c r="F150" s="112"/>
-      <c r="G150" s="113"/>
-      <c r="H150" s="114"/>
-      <c r="I150" s="122"/>
-      <c r="J150" s="122"/>
-      <c r="K150" s="108"/>
-      <c r="L150" s="108"/>
+      <c r="F150" s="224"/>
+      <c r="G150" s="225"/>
+      <c r="H150" s="226"/>
+      <c r="I150" s="113"/>
+      <c r="J150" s="113"/>
+      <c r="K150" s="153"/>
+      <c r="L150" s="153"/>
       <c r="M150" s="88"/>
       <c r="N150" s="88"/>
       <c r="O150" s="88"/>
@@ -23070,16 +23086,16 @@
       <c r="B151" s="18"/>
       <c r="C151" s="81"/>
       <c r="D151" s="87"/>
-      <c r="E151" s="128" t="s">
+      <c r="E151" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="F151" s="129"/>
-      <c r="G151" s="129"/>
-      <c r="H151" s="130"/>
-      <c r="I151" s="120"/>
-      <c r="J151" s="118"/>
-      <c r="K151" s="118"/>
-      <c r="L151" s="118"/>
+      <c r="F151" s="156"/>
+      <c r="G151" s="156"/>
+      <c r="H151" s="157"/>
+      <c r="I151" s="166"/>
+      <c r="J151" s="197"/>
+      <c r="K151" s="197"/>
+      <c r="L151" s="197"/>
       <c r="M151" s="83"/>
       <c r="N151" s="83"/>
       <c r="O151" s="83"/>
@@ -23197,14 +23213,14 @@
       <c r="B152" s="18"/>
       <c r="C152" s="81"/>
       <c r="D152" s="87"/>
-      <c r="E152" s="131"/>
-      <c r="F152" s="126"/>
-      <c r="G152" s="126"/>
-      <c r="H152" s="127"/>
-      <c r="I152" s="121"/>
-      <c r="J152" s="118"/>
-      <c r="K152" s="118"/>
-      <c r="L152" s="118"/>
+      <c r="E152" s="158"/>
+      <c r="F152" s="159"/>
+      <c r="G152" s="159"/>
+      <c r="H152" s="160"/>
+      <c r="I152" s="167"/>
+      <c r="J152" s="197"/>
+      <c r="K152" s="197"/>
+      <c r="L152" s="197"/>
       <c r="M152" s="85"/>
       <c r="N152" s="85"/>
       <c r="O152" s="85"/>
@@ -23319,25 +23335,25 @@
     </row>
     <row r="153" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="132" t="s">
+      <c r="B153" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="C153" s="133"/>
-      <c r="D153" s="133"/>
-      <c r="E153" s="134"/>
-      <c r="F153" s="109" t="s">
+      <c r="C153" s="116"/>
+      <c r="D153" s="116"/>
+      <c r="E153" s="117"/>
+      <c r="F153" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="G153" s="110"/>
-      <c r="H153" s="111"/>
-      <c r="I153" s="122">
+      <c r="G153" s="222"/>
+      <c r="H153" s="223"/>
+      <c r="I153" s="113">
         <v>2</v>
       </c>
-      <c r="J153" s="122"/>
-      <c r="K153" s="119" t="s">
+      <c r="J153" s="113"/>
+      <c r="K153" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="L153" s="108"/>
+      <c r="L153" s="153"/>
       <c r="M153" s="88"/>
       <c r="N153" s="88"/>
       <c r="O153" s="88"/>
@@ -23452,17 +23468,17 @@
     </row>
     <row r="154" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="135"/>
-      <c r="C154" s="136"/>
-      <c r="D154" s="136"/>
-      <c r="E154" s="137"/>
-      <c r="F154" s="112"/>
-      <c r="G154" s="113"/>
-      <c r="H154" s="114"/>
-      <c r="I154" s="122"/>
-      <c r="J154" s="122"/>
-      <c r="K154" s="108"/>
-      <c r="L154" s="108"/>
+      <c r="B154" s="118"/>
+      <c r="C154" s="119"/>
+      <c r="D154" s="119"/>
+      <c r="E154" s="120"/>
+      <c r="F154" s="224"/>
+      <c r="G154" s="225"/>
+      <c r="H154" s="226"/>
+      <c r="I154" s="113"/>
+      <c r="J154" s="113"/>
+      <c r="K154" s="153"/>
+      <c r="L154" s="153"/>
       <c r="M154" s="88"/>
       <c r="N154" s="88"/>
       <c r="O154" s="88"/>
@@ -23577,23 +23593,23 @@
     </row>
     <row r="155" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="135"/>
-      <c r="C155" s="136"/>
-      <c r="D155" s="136"/>
-      <c r="E155" s="137"/>
-      <c r="F155" s="109" t="s">
+      <c r="B155" s="118"/>
+      <c r="C155" s="119"/>
+      <c r="D155" s="119"/>
+      <c r="E155" s="120"/>
+      <c r="F155" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="G155" s="110"/>
-      <c r="H155" s="111"/>
-      <c r="I155" s="122">
+      <c r="G155" s="222"/>
+      <c r="H155" s="223"/>
+      <c r="I155" s="113">
         <v>3</v>
       </c>
-      <c r="J155" s="122"/>
-      <c r="K155" s="119" t="s">
+      <c r="J155" s="113"/>
+      <c r="K155" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="L155" s="108"/>
+      <c r="L155" s="153"/>
       <c r="M155" s="88"/>
       <c r="N155" s="88"/>
       <c r="O155" s="88"/>
@@ -23708,17 +23724,17 @@
     </row>
     <row r="156" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="138"/>
-      <c r="C156" s="139"/>
-      <c r="D156" s="139"/>
-      <c r="E156" s="140"/>
-      <c r="F156" s="112"/>
-      <c r="G156" s="113"/>
-      <c r="H156" s="114"/>
-      <c r="I156" s="122"/>
-      <c r="J156" s="122"/>
-      <c r="K156" s="108"/>
-      <c r="L156" s="108"/>
+      <c r="B156" s="121"/>
+      <c r="C156" s="122"/>
+      <c r="D156" s="122"/>
+      <c r="E156" s="123"/>
+      <c r="F156" s="224"/>
+      <c r="G156" s="225"/>
+      <c r="H156" s="226"/>
+      <c r="I156" s="113"/>
+      <c r="J156" s="113"/>
+      <c r="K156" s="153"/>
+      <c r="L156" s="153"/>
       <c r="M156" s="88"/>
       <c r="N156" s="88"/>
       <c r="O156" s="88"/>
@@ -23833,25 +23849,25 @@
     </row>
     <row r="157" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="132" t="s">
+      <c r="B157" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="C157" s="133"/>
-      <c r="D157" s="133"/>
-      <c r="E157" s="134"/>
-      <c r="F157" s="109" t="s">
+      <c r="C157" s="116"/>
+      <c r="D157" s="116"/>
+      <c r="E157" s="117"/>
+      <c r="F157" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="G157" s="110"/>
-      <c r="H157" s="111"/>
-      <c r="I157" s="122">
+      <c r="G157" s="222"/>
+      <c r="H157" s="223"/>
+      <c r="I157" s="113">
         <v>2</v>
       </c>
-      <c r="J157" s="122"/>
-      <c r="K157" s="119" t="s">
+      <c r="J157" s="113"/>
+      <c r="K157" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="L157" s="108"/>
+      <c r="L157" s="153"/>
       <c r="M157" s="88"/>
       <c r="N157" s="88"/>
       <c r="O157" s="88"/>
@@ -23966,17 +23982,17 @@
     </row>
     <row r="158" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="135"/>
-      <c r="C158" s="136"/>
-      <c r="D158" s="136"/>
-      <c r="E158" s="137"/>
-      <c r="F158" s="112"/>
-      <c r="G158" s="113"/>
-      <c r="H158" s="114"/>
-      <c r="I158" s="122"/>
-      <c r="J158" s="122"/>
-      <c r="K158" s="108"/>
-      <c r="L158" s="108"/>
+      <c r="B158" s="118"/>
+      <c r="C158" s="119"/>
+      <c r="D158" s="119"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="224"/>
+      <c r="G158" s="225"/>
+      <c r="H158" s="226"/>
+      <c r="I158" s="113"/>
+      <c r="J158" s="113"/>
+      <c r="K158" s="153"/>
+      <c r="L158" s="153"/>
       <c r="M158" s="88"/>
       <c r="N158" s="88"/>
       <c r="O158" s="88"/>
@@ -24091,23 +24107,23 @@
     </row>
     <row r="159" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="135"/>
-      <c r="C159" s="136"/>
-      <c r="D159" s="136"/>
-      <c r="E159" s="137"/>
-      <c r="F159" s="109" t="s">
+      <c r="B159" s="118"/>
+      <c r="C159" s="119"/>
+      <c r="D159" s="119"/>
+      <c r="E159" s="120"/>
+      <c r="F159" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="G159" s="110"/>
-      <c r="H159" s="111"/>
-      <c r="I159" s="122">
+      <c r="G159" s="222"/>
+      <c r="H159" s="223"/>
+      <c r="I159" s="113">
         <v>3</v>
       </c>
-      <c r="J159" s="122"/>
-      <c r="K159" s="119" t="s">
+      <c r="J159" s="113"/>
+      <c r="K159" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="L159" s="108"/>
+      <c r="L159" s="153"/>
       <c r="M159" s="88"/>
       <c r="N159" s="88"/>
       <c r="O159" s="88"/>
@@ -24222,17 +24238,17 @@
     </row>
     <row r="160" spans="1:123" s="79" customFormat="1" ht="9.75" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="138"/>
-      <c r="C160" s="139"/>
-      <c r="D160" s="139"/>
-      <c r="E160" s="140"/>
-      <c r="F160" s="112"/>
-      <c r="G160" s="113"/>
-      <c r="H160" s="114"/>
-      <c r="I160" s="122"/>
-      <c r="J160" s="122"/>
-      <c r="K160" s="108"/>
-      <c r="L160" s="108"/>
+      <c r="B160" s="121"/>
+      <c r="C160" s="122"/>
+      <c r="D160" s="122"/>
+      <c r="E160" s="123"/>
+      <c r="F160" s="224"/>
+      <c r="G160" s="225"/>
+      <c r="H160" s="226"/>
+      <c r="I160" s="113"/>
+      <c r="J160" s="113"/>
+      <c r="K160" s="153"/>
+      <c r="L160" s="153"/>
       <c r="M160" s="88"/>
       <c r="N160" s="88"/>
       <c r="O160" s="88"/>
@@ -24351,19 +24367,19 @@
       <c r="C161" s="81"/>
       <c r="D161" s="87"/>
       <c r="E161" s="89"/>
-      <c r="F161" s="109" t="s">
+      <c r="F161" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="G161" s="110"/>
-      <c r="H161" s="111"/>
-      <c r="I161" s="122">
+      <c r="G161" s="222"/>
+      <c r="H161" s="223"/>
+      <c r="I161" s="113">
         <v>0.5</v>
       </c>
-      <c r="J161" s="122"/>
-      <c r="K161" s="119" t="s">
+      <c r="J161" s="113"/>
+      <c r="K161" s="152" t="s">
         <v>136</v>
       </c>
-      <c r="L161" s="108"/>
+      <c r="L161" s="153"/>
       <c r="M161" s="88"/>
       <c r="N161" s="88"/>
       <c r="O161" s="88"/>
@@ -24482,13 +24498,13 @@
       <c r="C162" s="81"/>
       <c r="D162" s="87"/>
       <c r="E162" s="90"/>
-      <c r="F162" s="115"/>
-      <c r="G162" s="116"/>
-      <c r="H162" s="117"/>
-      <c r="I162" s="122"/>
-      <c r="J162" s="122"/>
-      <c r="K162" s="108"/>
-      <c r="L162" s="108"/>
+      <c r="F162" s="227"/>
+      <c r="G162" s="228"/>
+      <c r="H162" s="229"/>
+      <c r="I162" s="113"/>
+      <c r="J162" s="113"/>
+      <c r="K162" s="153"/>
+      <c r="L162" s="153"/>
       <c r="M162" s="88"/>
       <c r="N162" s="88"/>
       <c r="O162" s="88"/>
@@ -24604,18 +24620,18 @@
     <row r="163" spans="1:123" ht="9.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="18"/>
-      <c r="C163" s="195" t="s">
+      <c r="C163" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="D163" s="143"/>
-      <c r="E163" s="171"/>
-      <c r="F163" s="143"/>
-      <c r="G163" s="143"/>
-      <c r="H163" s="144"/>
-      <c r="I163" s="120"/>
-      <c r="J163" s="120"/>
-      <c r="K163" s="120"/>
-      <c r="L163" s="120"/>
+      <c r="D163" s="142"/>
+      <c r="E163" s="172"/>
+      <c r="F163" s="142"/>
+      <c r="G163" s="142"/>
+      <c r="H163" s="176"/>
+      <c r="I163" s="166"/>
+      <c r="J163" s="166"/>
+      <c r="K163" s="166"/>
+      <c r="L163" s="166"/>
       <c r="M163" s="15"/>
       <c r="N163" s="15"/>
       <c r="O163" s="15"/>
@@ -24731,16 +24747,16 @@
     <row r="164" spans="1:123" ht="9.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="18"/>
-      <c r="C164" s="172"/>
-      <c r="D164" s="157"/>
-      <c r="E164" s="156"/>
-      <c r="F164" s="157"/>
-      <c r="G164" s="157"/>
-      <c r="H164" s="156"/>
-      <c r="I164" s="121"/>
-      <c r="J164" s="121"/>
-      <c r="K164" s="121"/>
-      <c r="L164" s="121"/>
+      <c r="C164" s="177"/>
+      <c r="D164" s="150"/>
+      <c r="E164" s="149"/>
+      <c r="F164" s="150"/>
+      <c r="G164" s="150"/>
+      <c r="H164" s="149"/>
+      <c r="I164" s="167"/>
+      <c r="J164" s="167"/>
+      <c r="K164" s="167"/>
+      <c r="L164" s="167"/>
       <c r="M164" s="27"/>
       <c r="N164" s="27"/>
       <c r="O164" s="27"/>
@@ -24855,19 +24871,19 @@
     </row>
     <row r="165" spans="1:123" ht="9.75" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="194" t="s">
+      <c r="B165" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="C165" s="143"/>
-      <c r="D165" s="143"/>
-      <c r="E165" s="171"/>
-      <c r="F165" s="143"/>
-      <c r="G165" s="143"/>
-      <c r="H165" s="155"/>
-      <c r="I165" s="120"/>
-      <c r="J165" s="120"/>
-      <c r="K165" s="120"/>
-      <c r="L165" s="120"/>
+      <c r="C165" s="142"/>
+      <c r="D165" s="142"/>
+      <c r="E165" s="172"/>
+      <c r="F165" s="142"/>
+      <c r="G165" s="142"/>
+      <c r="H165" s="143"/>
+      <c r="I165" s="166"/>
+      <c r="J165" s="166"/>
+      <c r="K165" s="166"/>
+      <c r="L165" s="166"/>
       <c r="M165" s="12"/>
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
@@ -24982,17 +24998,17 @@
     </row>
     <row r="166" spans="1:123" ht="9.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="145"/>
-      <c r="C166" s="157"/>
-      <c r="D166" s="157"/>
-      <c r="E166" s="156"/>
-      <c r="F166" s="157"/>
-      <c r="G166" s="157"/>
-      <c r="H166" s="158"/>
-      <c r="I166" s="121"/>
-      <c r="J166" s="121"/>
-      <c r="K166" s="121"/>
-      <c r="L166" s="121"/>
+      <c r="B166" s="161"/>
+      <c r="C166" s="150"/>
+      <c r="D166" s="150"/>
+      <c r="E166" s="149"/>
+      <c r="F166" s="150"/>
+      <c r="G166" s="150"/>
+      <c r="H166" s="151"/>
+      <c r="I166" s="167"/>
+      <c r="J166" s="167"/>
+      <c r="K166" s="167"/>
+      <c r="L166" s="167"/>
       <c r="M166" s="14"/>
       <c r="N166" s="15"/>
       <c r="O166" s="15"/>
@@ -25108,18 +25124,18 @@
     <row r="167" spans="1:123" ht="9.75" customHeight="1">
       <c r="A167" s="16"/>
       <c r="B167" s="18"/>
-      <c r="C167" s="170" t="s">
+      <c r="C167" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="D167" s="171"/>
-      <c r="E167" s="171"/>
-      <c r="F167" s="171"/>
-      <c r="G167" s="171"/>
-      <c r="H167" s="171"/>
-      <c r="I167" s="120"/>
-      <c r="J167" s="120"/>
-      <c r="K167" s="120"/>
-      <c r="L167" s="120"/>
+      <c r="D167" s="172"/>
+      <c r="E167" s="172"/>
+      <c r="F167" s="172"/>
+      <c r="G167" s="172"/>
+      <c r="H167" s="172"/>
+      <c r="I167" s="166"/>
+      <c r="J167" s="166"/>
+      <c r="K167" s="166"/>
+      <c r="L167" s="166"/>
       <c r="M167" s="19"/>
       <c r="N167" s="20"/>
       <c r="O167" s="20"/>
@@ -25235,16 +25251,16 @@
     <row r="168" spans="1:123" ht="9.75" customHeight="1">
       <c r="A168" s="95"/>
       <c r="B168" s="96"/>
-      <c r="C168" s="193"/>
-      <c r="D168" s="193"/>
-      <c r="E168" s="193"/>
-      <c r="F168" s="193"/>
-      <c r="G168" s="193"/>
-      <c r="H168" s="193"/>
-      <c r="I168" s="121"/>
-      <c r="J168" s="121"/>
-      <c r="K168" s="121"/>
-      <c r="L168" s="121"/>
+      <c r="C168" s="173"/>
+      <c r="D168" s="173"/>
+      <c r="E168" s="173"/>
+      <c r="F168" s="173"/>
+      <c r="G168" s="173"/>
+      <c r="H168" s="173"/>
+      <c r="I168" s="167"/>
+      <c r="J168" s="167"/>
+      <c r="K168" s="167"/>
+      <c r="L168" s="167"/>
       <c r="M168" s="97"/>
       <c r="N168" s="98"/>
       <c r="O168" s="98"/>
@@ -25366,8 +25382,8 @@
       <c r="F169" s="93"/>
       <c r="G169" s="93"/>
       <c r="H169" s="93"/>
-      <c r="I169" s="160"/>
-      <c r="J169" s="160"/>
+      <c r="I169" s="215"/>
+      <c r="J169" s="215"/>
       <c r="K169" s="91"/>
       <c r="L169" s="91"/>
       <c r="M169" s="94"/>
@@ -25491,8 +25507,8 @@
       <c r="F170" s="93"/>
       <c r="G170" s="93"/>
       <c r="H170" s="93"/>
-      <c r="I170" s="160"/>
-      <c r="J170" s="160"/>
+      <c r="I170" s="215"/>
+      <c r="J170" s="215"/>
       <c r="K170" s="91"/>
       <c r="L170" s="91"/>
       <c r="M170" s="94"/>
@@ -25616,8 +25632,8 @@
       <c r="F171" s="93"/>
       <c r="G171" s="93"/>
       <c r="H171" s="93"/>
-      <c r="I171" s="160"/>
-      <c r="J171" s="160"/>
+      <c r="I171" s="215"/>
+      <c r="J171" s="215"/>
       <c r="K171" s="91"/>
       <c r="L171" s="91"/>
       <c r="M171" s="94"/>
@@ -25741,8 +25757,8 @@
       <c r="F172" s="93"/>
       <c r="G172" s="93"/>
       <c r="H172" s="93"/>
-      <c r="I172" s="160"/>
-      <c r="J172" s="160"/>
+      <c r="I172" s="215"/>
+      <c r="J172" s="215"/>
       <c r="K172" s="91"/>
       <c r="L172" s="91"/>
       <c r="M172" s="94"/>
@@ -25866,8 +25882,8 @@
       <c r="F173" s="93"/>
       <c r="G173" s="93"/>
       <c r="H173" s="93"/>
-      <c r="I173" s="160"/>
-      <c r="J173" s="160"/>
+      <c r="I173" s="215"/>
+      <c r="J173" s="215"/>
       <c r="K173" s="91"/>
       <c r="L173" s="91"/>
       <c r="M173" s="94"/>
@@ -25991,8 +26007,8 @@
       <c r="F174" s="93"/>
       <c r="G174" s="93"/>
       <c r="H174" s="93"/>
-      <c r="I174" s="160"/>
-      <c r="J174" s="160"/>
+      <c r="I174" s="215"/>
+      <c r="J174" s="215"/>
       <c r="K174" s="91"/>
       <c r="L174" s="91"/>
       <c r="M174" s="94"/>
@@ -26116,8 +26132,8 @@
       <c r="F175" s="93"/>
       <c r="G175" s="93"/>
       <c r="H175" s="93"/>
-      <c r="I175" s="160"/>
-      <c r="J175" s="160"/>
+      <c r="I175" s="215"/>
+      <c r="J175" s="215"/>
       <c r="K175" s="91"/>
       <c r="L175" s="91"/>
       <c r="M175" s="94"/>
@@ -26241,8 +26257,8 @@
       <c r="F176" s="93"/>
       <c r="G176" s="93"/>
       <c r="H176" s="93"/>
-      <c r="I176" s="160"/>
-      <c r="J176" s="160"/>
+      <c r="I176" s="215"/>
+      <c r="J176" s="215"/>
       <c r="K176" s="91"/>
       <c r="L176" s="91"/>
       <c r="M176" s="94"/>
@@ -26366,8 +26382,8 @@
       <c r="F177" s="93"/>
       <c r="G177" s="93"/>
       <c r="H177" s="93"/>
-      <c r="I177" s="159"/>
-      <c r="J177" s="159"/>
+      <c r="I177" s="216"/>
+      <c r="J177" s="216"/>
       <c r="K177" s="91"/>
       <c r="L177" s="91"/>
       <c r="M177" s="94"/>
@@ -26491,8 +26507,8 @@
       <c r="F178" s="93"/>
       <c r="G178" s="93"/>
       <c r="H178" s="93"/>
-      <c r="I178" s="159"/>
-      <c r="J178" s="159"/>
+      <c r="I178" s="216"/>
+      <c r="J178" s="216"/>
       <c r="K178" s="91"/>
       <c r="L178" s="91"/>
       <c r="M178" s="94"/>
@@ -26616,8 +26632,8 @@
       <c r="F179" s="93"/>
       <c r="G179" s="93"/>
       <c r="H179" s="93"/>
-      <c r="I179" s="160"/>
-      <c r="J179" s="160"/>
+      <c r="I179" s="215"/>
+      <c r="J179" s="215"/>
       <c r="K179" s="91"/>
       <c r="L179" s="91"/>
       <c r="M179" s="94"/>
@@ -26741,8 +26757,8 @@
       <c r="F180" s="93"/>
       <c r="G180" s="93"/>
       <c r="H180" s="93"/>
-      <c r="I180" s="160"/>
-      <c r="J180" s="160"/>
+      <c r="I180" s="215"/>
+      <c r="J180" s="215"/>
       <c r="K180" s="91"/>
       <c r="L180" s="91"/>
       <c r="M180" s="94"/>
@@ -26866,8 +26882,8 @@
       <c r="F181" s="93"/>
       <c r="G181" s="93"/>
       <c r="H181" s="93"/>
-      <c r="I181" s="160"/>
-      <c r="J181" s="160"/>
+      <c r="I181" s="215"/>
+      <c r="J181" s="215"/>
       <c r="K181" s="91"/>
       <c r="L181" s="91"/>
       <c r="M181" s="94"/>
@@ -26991,8 +27007,8 @@
       <c r="F182" s="93"/>
       <c r="G182" s="93"/>
       <c r="H182" s="93"/>
-      <c r="I182" s="160"/>
-      <c r="J182" s="160"/>
+      <c r="I182" s="215"/>
+      <c r="J182" s="215"/>
       <c r="K182" s="91"/>
       <c r="L182" s="91"/>
       <c r="M182" s="94"/>
@@ -27116,8 +27132,8 @@
       <c r="F183" s="93"/>
       <c r="G183" s="93"/>
       <c r="H183" s="93"/>
-      <c r="I183" s="160"/>
-      <c r="J183" s="160"/>
+      <c r="I183" s="215"/>
+      <c r="J183" s="215"/>
       <c r="K183" s="91"/>
       <c r="L183" s="91"/>
       <c r="M183" s="94"/>
@@ -27241,8 +27257,8 @@
       <c r="F184" s="93"/>
       <c r="G184" s="93"/>
       <c r="H184" s="93"/>
-      <c r="I184" s="160"/>
-      <c r="J184" s="160"/>
+      <c r="I184" s="215"/>
+      <c r="J184" s="215"/>
       <c r="K184" s="91"/>
       <c r="L184" s="91"/>
       <c r="M184" s="94"/>
@@ -27366,8 +27382,8 @@
       <c r="F185" s="93"/>
       <c r="G185" s="93"/>
       <c r="H185" s="93"/>
-      <c r="I185" s="160"/>
-      <c r="J185" s="160"/>
+      <c r="I185" s="215"/>
+      <c r="J185" s="215"/>
       <c r="K185" s="91"/>
       <c r="L185" s="91"/>
       <c r="M185" s="94"/>
@@ -27491,8 +27507,8 @@
       <c r="F186" s="93"/>
       <c r="G186" s="93"/>
       <c r="H186" s="93"/>
-      <c r="I186" s="160"/>
-      <c r="J186" s="160"/>
+      <c r="I186" s="215"/>
+      <c r="J186" s="215"/>
       <c r="K186" s="91"/>
       <c r="L186" s="91"/>
       <c r="M186" s="94"/>
@@ -27616,8 +27632,8 @@
       <c r="F187" s="93"/>
       <c r="G187" s="93"/>
       <c r="H187" s="93"/>
-      <c r="I187" s="160"/>
-      <c r="J187" s="160"/>
+      <c r="I187" s="215"/>
+      <c r="J187" s="215"/>
       <c r="K187" s="91"/>
       <c r="L187" s="91"/>
       <c r="M187" s="94"/>
@@ -27741,8 +27757,8 @@
       <c r="F188" s="93"/>
       <c r="G188" s="93"/>
       <c r="H188" s="93"/>
-      <c r="I188" s="160"/>
-      <c r="J188" s="160"/>
+      <c r="I188" s="215"/>
+      <c r="J188" s="215"/>
       <c r="K188" s="91"/>
       <c r="L188" s="91"/>
       <c r="M188" s="94"/>
@@ -27866,8 +27882,8 @@
       <c r="F189" s="93"/>
       <c r="G189" s="93"/>
       <c r="H189" s="93"/>
-      <c r="I189" s="159"/>
-      <c r="J189" s="159"/>
+      <c r="I189" s="216"/>
+      <c r="J189" s="216"/>
       <c r="K189" s="91"/>
       <c r="L189" s="91"/>
       <c r="M189" s="94"/>
@@ -27991,8 +28007,8 @@
       <c r="F190" s="93"/>
       <c r="G190" s="93"/>
       <c r="H190" s="93"/>
-      <c r="I190" s="159"/>
-      <c r="J190" s="159"/>
+      <c r="I190" s="216"/>
+      <c r="J190" s="216"/>
       <c r="K190" s="91"/>
       <c r="L190" s="91"/>
       <c r="M190" s="94"/>
@@ -28116,8 +28132,8 @@
       <c r="F191" s="93"/>
       <c r="G191" s="93"/>
       <c r="H191" s="93"/>
-      <c r="I191" s="159"/>
-      <c r="J191" s="159"/>
+      <c r="I191" s="216"/>
+      <c r="J191" s="216"/>
       <c r="K191" s="91"/>
       <c r="L191" s="91"/>
       <c r="M191" s="94"/>
@@ -28241,8 +28257,8 @@
       <c r="F192" s="93"/>
       <c r="G192" s="93"/>
       <c r="H192" s="93"/>
-      <c r="I192" s="159"/>
-      <c r="J192" s="159"/>
+      <c r="I192" s="216"/>
+      <c r="J192" s="216"/>
       <c r="K192" s="91"/>
       <c r="L192" s="91"/>
       <c r="M192" s="94"/>
@@ -28366,8 +28382,8 @@
       <c r="F193" s="93"/>
       <c r="G193" s="93"/>
       <c r="H193" s="93"/>
-      <c r="I193" s="159"/>
-      <c r="J193" s="159"/>
+      <c r="I193" s="216"/>
+      <c r="J193" s="216"/>
       <c r="K193" s="91"/>
       <c r="L193" s="91"/>
       <c r="M193" s="94"/>
@@ -28491,8 +28507,8 @@
       <c r="F194" s="93"/>
       <c r="G194" s="93"/>
       <c r="H194" s="93"/>
-      <c r="I194" s="159"/>
-      <c r="J194" s="159"/>
+      <c r="I194" s="216"/>
+      <c r="J194" s="216"/>
       <c r="K194" s="91"/>
       <c r="L194" s="91"/>
       <c r="M194" s="94"/>
@@ -40466,6 +40482,427 @@
     </row>
   </sheetData>
   <mergeCells count="445">
+    <mergeCell ref="F157:H158"/>
+    <mergeCell ref="F159:H160"/>
+    <mergeCell ref="F161:H162"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="E139:H140"/>
+    <mergeCell ref="F141:H142"/>
+    <mergeCell ref="F143:H144"/>
+    <mergeCell ref="F145:H146"/>
+    <mergeCell ref="F147:H148"/>
+    <mergeCell ref="F149:H150"/>
+    <mergeCell ref="E151:H152"/>
+    <mergeCell ref="F153:H154"/>
+    <mergeCell ref="B153:E156"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="F155:H156"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="F95:H96"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="E99:H100"/>
+    <mergeCell ref="D113:H114"/>
+    <mergeCell ref="E115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="F119:H120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="F93:H94"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="F105:H106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="F107:H108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="F109:H110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="F83:H84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="D87:H88"/>
+    <mergeCell ref="E89:H90"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="F133:H134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="F125:H126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="F59:H60"/>
+    <mergeCell ref="F61:H62"/>
+    <mergeCell ref="D63:H64"/>
+    <mergeCell ref="F67:H68"/>
+    <mergeCell ref="F65:H66"/>
+    <mergeCell ref="F71:H72"/>
+    <mergeCell ref="F73:H74"/>
+    <mergeCell ref="C75:H76"/>
+    <mergeCell ref="C77:H78"/>
+    <mergeCell ref="F69:H70"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="F85:H86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="F91:H92"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="D79:H80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="F81:H82"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="D19:H20"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="M3:CM3"/>
+    <mergeCell ref="CN3:DR3"/>
+    <mergeCell ref="M4:AD4"/>
+    <mergeCell ref="AE4:BH4"/>
+    <mergeCell ref="BI4:CM4"/>
+    <mergeCell ref="CN4:DR4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="C167:H168"/>
+    <mergeCell ref="B165:H166"/>
+    <mergeCell ref="C163:H164"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="F35:H36"/>
+    <mergeCell ref="F37:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="F41:H42"/>
+    <mergeCell ref="F43:H44"/>
+    <mergeCell ref="F45:H46"/>
+    <mergeCell ref="F47:H48"/>
+    <mergeCell ref="F49:H50"/>
+    <mergeCell ref="F51:H52"/>
+    <mergeCell ref="D53:H54"/>
+    <mergeCell ref="F55:H56"/>
+    <mergeCell ref="F57:H58"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="F97:H98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="F111:H112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="F121:H122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="F101:H102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="F127:H128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="F117:H118"/>
+    <mergeCell ref="F129:H130"/>
+    <mergeCell ref="K129:K130"/>
     <mergeCell ref="L95:L96"/>
     <mergeCell ref="B91:E96"/>
     <mergeCell ref="B157:E160"/>
@@ -40490,427 +40927,6 @@
     <mergeCell ref="I119:I120"/>
     <mergeCell ref="J119:J120"/>
     <mergeCell ref="D137:H138"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="F97:H98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="F111:H112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="F121:H122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="F101:H102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="F127:H128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="F117:H118"/>
-    <mergeCell ref="F129:H130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="F125:H126"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="C167:H168"/>
-    <mergeCell ref="B165:H166"/>
-    <mergeCell ref="C163:H164"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="F35:H36"/>
-    <mergeCell ref="F37:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="F41:H42"/>
-    <mergeCell ref="F43:H44"/>
-    <mergeCell ref="F45:H46"/>
-    <mergeCell ref="F47:H48"/>
-    <mergeCell ref="F49:H50"/>
-    <mergeCell ref="F51:H52"/>
-    <mergeCell ref="D53:H54"/>
-    <mergeCell ref="F55:H56"/>
-    <mergeCell ref="F57:H58"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M3:CM3"/>
-    <mergeCell ref="CN3:DR3"/>
-    <mergeCell ref="M4:AD4"/>
-    <mergeCell ref="AE4:BH4"/>
-    <mergeCell ref="BI4:CM4"/>
-    <mergeCell ref="CN4:DR4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="D19:H20"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="F61:H62"/>
-    <mergeCell ref="D63:H64"/>
-    <mergeCell ref="F67:H68"/>
-    <mergeCell ref="F65:H66"/>
-    <mergeCell ref="F71:H72"/>
-    <mergeCell ref="F73:H74"/>
-    <mergeCell ref="C75:H76"/>
-    <mergeCell ref="C77:H78"/>
-    <mergeCell ref="F69:H70"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="F85:H86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="F91:H92"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="D79:H80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="F81:H82"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="F133:H134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="F83:H84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="F105:H106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="F107:H108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="F109:H110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="F119:H120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="F93:H94"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="I187:I188"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="I175:I176"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="I181:I182"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="D87:H88"/>
-    <mergeCell ref="E89:H90"/>
-    <mergeCell ref="E99:H100"/>
-    <mergeCell ref="D113:H114"/>
-    <mergeCell ref="E115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="F95:H96"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="E139:H140"/>
-    <mergeCell ref="F141:H142"/>
-    <mergeCell ref="F143:H144"/>
-    <mergeCell ref="F145:H146"/>
-    <mergeCell ref="F147:H148"/>
-    <mergeCell ref="F149:H150"/>
-    <mergeCell ref="E151:H152"/>
-    <mergeCell ref="F153:H154"/>
-    <mergeCell ref="B153:E156"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="F155:H156"/>
-    <mergeCell ref="F157:H158"/>
-    <mergeCell ref="F159:H160"/>
-    <mergeCell ref="F161:H162"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="M7">
@@ -40928,7 +40944,7 @@
       <formula>OR(#REF!="土", #REF!="日")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:DR8 AD55:DR58 M9:AB13 P14:AB14 M14 M15:AB15 P16:AB16 M16 M17:AB17 P18:AB18 M18 M19:AB19 P20:AB20 M20 M21:AB23 M24:N24 Q24:AB24 M25:AB29 M30:O30 R30:AB30 M42:P42 U42:AB42 R42:S42 M43:AB43 M44:T44 W44:AB44 AC57:AC58 M55:W55 Y55:AB55 M56:AB64 M45:AB54 M31:AB41 AD52:DR52 AL68 M65:DR66 AC59:DR62 AP67 AQ69 BU129:BU130 M87:BY90 AY91:BY91 M102:AV102 BA102:BY102 M93:BY93 BN119:BY120 M77:AB86 M97:AB98 M111:AB112 M121:AB122 M127:AB136 M99:BY101 M123:BY124 M149:AB150 M161:AB162 AC150:BI150 AC161:BI161 M143:BI148 M74:DR76 BZ99:DR110 BZ113:DR120 BZ123:DR128 M137:DR140 M126:BR126 BG107:BY107 BM125:BR125 BO127:BQ127 BS125:BY126 AC128:BR128 BU127:BY128 BS127:BT130 M154:BI160 M113:BY117 BO145:BQ145 M91:AR92 AT92:AU92 AS91:AW91 AW92:BY92 M94:AU94 AY94:BY94 AY102 M95:BY95 BZ87:DR96 M96:AU96 AY96 BA96:BY96 M103:BY104 M105:AV105 AX105:BY105 BD106:BY106 BD108:BY108 M110:BC110 BE110:BY110 M118:BC118 BG118:BK118 M120:BD120 CB159 M163:DR273 BV141:BW162 BS145 BU145 BO142:BU144 AC162:BU162 M151:BU153 BO146:BU150 BJ154:BU161 M141:BU141 AC131:BM131 BO131:BP131 M119:BF119 BH119:BI120 M125:BJ125 BM118:BY118 AC127:BK127 AC129:BL129 AC133:BQ133 BO129:BR129 BT131:BT132 BT134:BT136 BT133:BU133 BA108:BB108 BA109:BY109 M108:AZ109 AY106:BB106 AY107:BC107 M106:AX107">
+  <conditionalFormatting sqref="M7:DR8 AD55:DR58 M9:AB13 P14:AB14 M14 M15:AB15 P16:AB16 M16 M17:AB17 P18:AB18 M18 M19:AB19 P20:AB20 M20 M21:AB23 M24:N24 Q24:AB24 M25:AB29 M30:O30 R30:AB30 M42:P42 U42:AB42 R42:S42 M43:AB43 M44:T44 W44:AB44 AC57:AC58 M55:W55 Y55:AB55 M56:AB64 M45:AB54 M31:AB41 AD52:DR52 AL68 M65:DR66 AC59:DR62 AP67 AQ69 BU129:BU130 M87:BY90 AY91:BY91 M102:AV102 BA102:BY102 M93:BY93 BN119:BY120 M77:AB86 M97:AB98 M111:AB112 M121:AB122 M127:AB136 M99:BY101 M123:BY124 M149:AB150 M161:AB162 AC150:BI150 AC161:BI161 M143:BI148 M74:DR76 BZ99:DR110 BZ113:DR120 BZ123:DR128 M137:DR140 M126:BR126 BG107:BY107 BM125:BR125 BO127:BQ127 BS125:BY126 BU127:BY128 BS127:BT130 M154:BI160 M113:BY117 BO145:BQ145 M91:AR92 AT92:AU92 AS91:AW91 AW92:BY92 M94:AU94 AY94:BY94 AY102 M95:BY95 BZ87:DR96 M96:AU96 AY96 BA96:BY96 M103:BY104 M105:AV105 AX105:BY105 BD106:BY106 BD108:BY108 M110:BC110 BE110:BY110 M118:BC118 BG118:BK118 M120:BD120 CB159 M163:DR273 BV141:BW162 BS145 BU145 BO142:BU144 AC162:BU162 M151:BU153 BO146:BU150 BJ154:BU161 M141:BU141 AC131:BM131 BO131:BP131 M119:BF119 BH119:BI120 M125:BJ125 BM118:BY118 AC129:BL129 AC133:BQ133 BO129:BR129 BT131:BT132 BT134:BT136 BT133:BU133 BA108:BB108 BA109:BY109 M108:AZ109 AY106:BB106 AY107:BC107 M106:AX107 AC127:BK127 AC128:BR128">
     <cfRule type="expression" dxfId="93" priority="132">
       <formula>OR(M$6="土", M$6="日")</formula>
     </cfRule>
@@ -41408,19 +41424,19 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1"/>
     <row r="2" spans="1:9" s="60" customFormat="1"/>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="72" t="s">
         <v>87</v>
       </c>
@@ -41444,10 +41460,10 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="238" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -41465,8 +41481,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="235"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="239"/>
       <c r="C5" s="65" t="s">
         <v>80</v>
       </c>
@@ -41478,10 +41494,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="232" t="s">
+      <c r="B6" s="237" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="66" t="s">
@@ -41495,8 +41511,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="59" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="235"/>
-      <c r="B7" s="233"/>
+      <c r="A7" s="240"/>
+      <c r="B7" s="238"/>
       <c r="C7" s="66" t="s">
         <v>78</v>
       </c>
@@ -41508,7 +41524,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="105" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="235"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="106"/>
       <c r="C8" s="66" t="s">
         <v>141</v>
@@ -41520,9 +41536,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A9" s="235"/>
-      <c r="B9" s="232" t="s">
+    <row r="9" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A9" s="240"/>
+      <c r="B9" s="237" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -41535,9 +41551,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A10" s="235"/>
-      <c r="B10" s="233"/>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A10" s="240"/>
+      <c r="B10" s="238"/>
       <c r="C10" s="67" t="s">
         <v>65</v>
       </c>
@@ -41548,9 +41564,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A11" s="235"/>
-      <c r="B11" s="233"/>
+    <row r="11" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A11" s="240"/>
+      <c r="B11" s="238"/>
       <c r="C11" s="67" t="s">
         <v>66</v>
       </c>
@@ -41561,9 +41577,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="59" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A12" s="235"/>
-      <c r="B12" s="233"/>
+    <row r="12" spans="1:9" s="59" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A12" s="240"/>
+      <c r="B12" s="238"/>
       <c r="C12" s="67" t="s">
         <v>67</v>
       </c>
@@ -41574,9 +41590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A13" s="237"/>
-      <c r="B13" s="234"/>
+    <row r="13" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A13" s="242"/>
+      <c r="B13" s="239"/>
       <c r="C13" s="67" t="s">
         <v>68</v>
       </c>
@@ -41586,20 +41602,20 @@
       <c r="E13" s="68">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="108">
         <f>SUM($D$4:D13)</f>
         <v>31</v>
       </c>
       <c r="G13" s="107">
-        <f>SUM(E4:E13)</f>
+        <f>SUM($E$4:E13)</f>
         <v>20.25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.149999999999999" customHeight="1">
-      <c r="A14" s="225" t="s">
+    <row r="14" spans="1:9" ht="16.2" customHeight="1">
+      <c r="A14" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="226" t="s">
+      <c r="B14" s="231" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="66" t="s">
@@ -41608,30 +41624,42 @@
       <c r="D14" s="68">
         <v>3</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="107">
+      <c r="E14" s="68">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="108">
         <f>SUM($D$4:D14)</f>
         <v>34</v>
       </c>
+      <c r="G14" s="108">
+        <f>SUM($E$4:E14)</f>
+        <v>22.75</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A15" s="225"/>
-      <c r="B15" s="227"/>
+    <row r="15" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A15" s="230"/>
+      <c r="B15" s="232"/>
       <c r="C15" s="66" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="68">
         <v>5</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="107">
+      <c r="E15" s="68">
+        <v>9</v>
+      </c>
+      <c r="F15" s="108">
         <f>SUM($D$4:D15)</f>
         <v>39</v>
       </c>
+      <c r="G15" s="108">
+        <f>SUM($E$4:E15)</f>
+        <v>31.75</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="225"/>
-      <c r="B16" s="229" t="s">
+      <c r="A16" s="230"/>
+      <c r="B16" s="234" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="67" t="s">
@@ -41640,15 +41668,21 @@
       <c r="D16" s="68">
         <v>2</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="107">
+      <c r="E16" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="108">
         <f>SUM($D$4:D16)</f>
         <v>41</v>
       </c>
+      <c r="G16" s="108">
+        <f>SUM($E$4:E16)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A17" s="225"/>
-      <c r="B17" s="230"/>
+    <row r="17" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A17" s="230"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="67" t="s">
         <v>65</v>
       </c>
@@ -41656,14 +41690,18 @@
         <v>3</v>
       </c>
       <c r="E17" s="68"/>
-      <c r="F17" s="107">
+      <c r="F17" s="108">
         <f>SUM($D$4:D17)</f>
         <v>44</v>
       </c>
+      <c r="G17" s="108">
+        <f>SUM($E$4:E17)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="225"/>
-      <c r="B18" s="230"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="230"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="67" t="s">
         <v>66</v>
       </c>
@@ -41671,14 +41709,18 @@
         <v>6</v>
       </c>
       <c r="E18" s="68"/>
-      <c r="F18" s="107">
+      <c r="F18" s="108">
         <f>SUM($D$4:D18)</f>
         <v>50</v>
       </c>
+      <c r="G18" s="108">
+        <f>SUM($E$4:E18)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A19" s="225"/>
-      <c r="B19" s="230"/>
+    <row r="19" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A19" s="230"/>
+      <c r="B19" s="235"/>
       <c r="C19" s="67" t="s">
         <v>67</v>
       </c>
@@ -41686,14 +41728,18 @@
         <v>4</v>
       </c>
       <c r="E19" s="68"/>
-      <c r="F19" s="107">
+      <c r="F19" s="108">
         <f>SUM($D$4:D19)</f>
         <v>54</v>
       </c>
+      <c r="G19" s="108">
+        <f>SUM($E$4:E19)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="225"/>
-      <c r="B20" s="230"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="230"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="67" t="s">
         <v>68</v>
       </c>
@@ -41701,16 +41747,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="68"/>
-      <c r="F20" s="107">
+      <c r="F20" s="108">
         <f>SUM($D$4:D20)</f>
         <v>58</v>
       </c>
+      <c r="G20" s="108">
+        <f>SUM($E$4:E20)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A21" s="225" t="s">
+    <row r="21" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A21" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="231" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="66" t="s">
@@ -41720,14 +41770,18 @@
         <v>2</v>
       </c>
       <c r="E21" s="68"/>
-      <c r="F21" s="107">
+      <c r="F21" s="108">
         <f>SUM($D$4:D21)</f>
         <v>60</v>
       </c>
+      <c r="G21" s="108">
+        <f>SUM($E$4:E21)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A22" s="225"/>
-      <c r="B22" s="227"/>
+    <row r="22" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A22" s="230"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="66" t="s">
         <v>123</v>
       </c>
@@ -41735,14 +41789,18 @@
         <v>3</v>
       </c>
       <c r="E22" s="68"/>
-      <c r="F22" s="107">
+      <c r="F22" s="108">
         <f>SUM($D$4:D22)</f>
         <v>63</v>
       </c>
+      <c r="G22" s="108">
+        <f>SUM($E$4:E22)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A23" s="225"/>
-      <c r="B23" s="227"/>
+    <row r="23" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A23" s="230"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="67" t="s">
         <v>124</v>
       </c>
@@ -41750,14 +41808,18 @@
         <v>2</v>
       </c>
       <c r="E23" s="68"/>
-      <c r="F23" s="107">
+      <c r="F23" s="108">
         <f>SUM($D$4:D23)</f>
         <v>65</v>
       </c>
+      <c r="G23" s="108">
+        <f>SUM($E$4:E23)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A24" s="225"/>
-      <c r="B24" s="228"/>
+    <row r="24" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A24" s="230"/>
+      <c r="B24" s="233"/>
       <c r="C24" s="67" t="s">
         <v>125</v>
       </c>
@@ -41765,14 +41827,18 @@
         <v>3</v>
       </c>
       <c r="E24" s="68"/>
-      <c r="F24" s="107">
+      <c r="F24" s="108">
         <f>SUM($D$4:D24)</f>
         <v>68</v>
       </c>
+      <c r="G24" s="108">
+        <f>SUM($E$4:E24)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A25" s="225"/>
-      <c r="B25" s="229" t="s">
+    <row r="25" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A25" s="230"/>
+      <c r="B25" s="234" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="66" t="s">
@@ -41782,14 +41848,18 @@
         <v>2</v>
       </c>
       <c r="E25" s="68"/>
-      <c r="F25" s="107">
+      <c r="F25" s="108">
         <f>SUM($D$4:D25)</f>
         <v>70</v>
       </c>
+      <c r="G25" s="108">
+        <f>SUM($E$4:E25)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A26" s="225"/>
-      <c r="B26" s="230"/>
+    <row r="26" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A26" s="230"/>
+      <c r="B26" s="235"/>
       <c r="C26" s="66" t="s">
         <v>123</v>
       </c>
@@ -41797,14 +41867,18 @@
         <v>3</v>
       </c>
       <c r="E26" s="68"/>
-      <c r="F26" s="107">
+      <c r="F26" s="108">
         <f>SUM($D$4:D26)</f>
         <v>73</v>
       </c>
+      <c r="G26" s="108">
+        <f>SUM($E$4:E26)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A27" s="225"/>
-      <c r="B27" s="230"/>
+    <row r="27" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A27" s="230"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="67" t="s">
         <v>124</v>
       </c>
@@ -41812,14 +41886,18 @@
         <v>2</v>
       </c>
       <c r="E27" s="68"/>
-      <c r="F27" s="107">
+      <c r="F27" s="108">
         <f>SUM($D$4:D27)</f>
         <v>75</v>
       </c>
+      <c r="G27" s="108">
+        <f>SUM($E$4:E27)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A28" s="225"/>
-      <c r="B28" s="231"/>
+    <row r="28" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A28" s="230"/>
+      <c r="B28" s="236"/>
       <c r="C28" s="67" t="s">
         <v>125</v>
       </c>
@@ -41827,12 +41905,16 @@
         <v>3</v>
       </c>
       <c r="E28" s="70"/>
-      <c r="F28" s="107">
+      <c r="F28" s="108">
         <f>SUM($D$4:D28)</f>
         <v>78</v>
       </c>
+      <c r="G28" s="108">
+        <f>SUM($E$4:E28)</f>
+        <v>32.25</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
+    <row r="29" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
       <c r="A29" s="102" t="s">
         <v>126</v>
       </c>
@@ -41845,8 +41927,8 @@
       </c>
       <c r="E29" s="70"/>
     </row>
-    <row r="30" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="31" spans="1:6" s="79" customFormat="1" ht="14.45" customHeight="1">
+    <row r="30" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="31" spans="1:7" s="79" customFormat="1" ht="14.4" customHeight="1">
       <c r="C31" s="63" t="s">
         <v>84</v>
       </c>
@@ -41856,10 +41938,10 @@
       </c>
       <c r="E31" s="59">
         <f>SUM(E4:E28)</f>
-        <v>20.25</v>
+        <v>32.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" customHeight="1">
+    <row r="32" spans="1:7" ht="14.4" customHeight="1">
       <c r="A32" s="79"/>
       <c r="B32" s="79"/>
       <c r="C32" s="64" t="s">
@@ -41871,21 +41953,21 @@
       </c>
       <c r="E32" s="62">
         <f>72-E31</f>
-        <v>51.75</v>
+        <v>39.75</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.45" customHeight="1">
+    <row r="33" spans="1:3" ht="14.4" customHeight="1">
       <c r="A33" s="79"/>
       <c r="B33" s="79"/>
     </row>
-    <row r="34" spans="1:3" ht="14.45" customHeight="1">
+    <row r="34" spans="1:3" ht="14.4" customHeight="1">
       <c r="A34" s="79"/>
       <c r="B34" s="59"/>
     </row>
-    <row r="35" spans="1:3" ht="14.45" customHeight="1">
+    <row r="35" spans="1:3" ht="14.4" customHeight="1">
       <c r="A35" s="79"/>
     </row>
-    <row r="36" spans="1:3" ht="14.45" customHeight="1">
+    <row r="36" spans="1:3" ht="14.4" customHeight="1">
       <c r="A36" s="79"/>
       <c r="C36" s="59"/>
     </row>
@@ -41915,5 +41997,8 @@
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F13" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>